--- a/100_受講者/05_最上/銭湯記録アプリ開発/アプリケーション作成WBS.xlsx
+++ b/100_受講者/05_最上/銭湯記録アプリ開発/アプリケーション作成WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\work\銭湯記録アプリ開発\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56290622-F10E-4623-8D90-B5C70F17722E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC58C7E4-06F7-499D-816F-55E91FC2390A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{419D748C-3A1E-D948-83B4-89E68F6A4488}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
   <si>
     <t>アプリケーション作成WBS</t>
     <rPh sb="8" eb="10">
@@ -416,6 +416,10 @@
     <rPh sb="6" eb="8">
       <t>ガメン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -521,7 +525,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -545,6 +549,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -898,7 +905,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
@@ -1115,17 +1122,18 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" ref="G5:G60" si="0">SUM(L5:AE5)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" ref="H5:H60" si="1">F5-G5</f>
-        <v>0.5</v>
+        <f t="shared" ref="H5:H60" si="0">F5-G5</f>
+        <v>0</v>
       </c>
       <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1161,17 +1169,18 @@
         <v>0.5</v>
       </c>
       <c r="G6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="2">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
       <c r="I6" s="4">
         <v>0</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1207,17 +1216,18 @@
         <v>1</v>
       </c>
       <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="2">
-        <f t="shared" si="1"/>
+      <c r="I7" s="4">
         <v>1</v>
       </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1255,11 +1265,11 @@
         <v>1</v>
       </c>
       <c r="G8" s="2">
+        <f t="shared" ref="G5:G60" si="1">SUM(L8:AE8)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I8" s="4">
@@ -1439,17 +1449,18 @@
         <v>1</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="4">
         <v>1</v>
       </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1485,17 +1496,18 @@
         <v>1</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="4">
         <v>1</v>
       </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1577,11 +1589,11 @@
         <v>1</v>
       </c>
       <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I15" s="4">
@@ -1623,11 +1635,11 @@
         <v>1</v>
       </c>
       <c r="G16" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I16" s="4">
@@ -1671,11 +1683,11 @@
         <v>1</v>
       </c>
       <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I17" s="4">
@@ -1717,11 +1729,11 @@
         <v>1</v>
       </c>
       <c r="G18" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I18" s="4">
@@ -1763,11 +1775,11 @@
         <v>1</v>
       </c>
       <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I19" s="4">
@@ -1809,11 +1821,11 @@
         <v>1</v>
       </c>
       <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I20" s="4">
@@ -1855,11 +1867,11 @@
         <v>1</v>
       </c>
       <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I21" s="4">
@@ -1901,11 +1913,11 @@
         <v>1</v>
       </c>
       <c r="G22" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I22" s="4">
@@ -1947,11 +1959,11 @@
         <v>1</v>
       </c>
       <c r="G23" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I23" s="4">
@@ -1993,11 +2005,11 @@
         <v>1</v>
       </c>
       <c r="G24" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I24" s="4">
@@ -2041,11 +2053,11 @@
         <v>1</v>
       </c>
       <c r="G25" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I25" s="4">
@@ -2087,11 +2099,11 @@
         <v>1</v>
       </c>
       <c r="G26" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I26" s="4">
@@ -2133,11 +2145,11 @@
         <v>1</v>
       </c>
       <c r="G27" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I27" s="4">
@@ -2179,11 +2191,11 @@
         <v>1</v>
       </c>
       <c r="G28" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I28" s="4">
@@ -2225,11 +2237,11 @@
         <v>1</v>
       </c>
       <c r="G29" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I29" s="4">
@@ -2271,11 +2283,11 @@
         <v>1</v>
       </c>
       <c r="G30" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I30" s="4">
@@ -2317,11 +2329,11 @@
         <v>1</v>
       </c>
       <c r="G31" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I31" s="4">
@@ -2367,11 +2379,11 @@
         <v>2</v>
       </c>
       <c r="G32" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I32" s="4">
@@ -2413,11 +2425,11 @@
         <v>2</v>
       </c>
       <c r="G33" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I33" s="4">
@@ -2459,11 +2471,11 @@
         <v>2</v>
       </c>
       <c r="G34" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I34" s="4">
@@ -2505,11 +2517,11 @@
         <v>2</v>
       </c>
       <c r="G35" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I35" s="4">
@@ -2553,11 +2565,11 @@
         <v>2</v>
       </c>
       <c r="G36" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I36" s="4">
@@ -2599,11 +2611,11 @@
         <v>2</v>
       </c>
       <c r="G37" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I37" s="4">
@@ -2645,11 +2657,11 @@
         <v>2</v>
       </c>
       <c r="G38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I38" s="4">
@@ -2691,11 +2703,11 @@
         <v>2</v>
       </c>
       <c r="G39" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I39" s="4">
@@ -2739,11 +2751,11 @@
         <v>2</v>
       </c>
       <c r="G40" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I40" s="4">
@@ -2785,11 +2797,11 @@
         <v>2</v>
       </c>
       <c r="G41" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I41" s="4">
@@ -2835,11 +2847,11 @@
         <v>3</v>
       </c>
       <c r="G42" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="2">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I42" s="4">
@@ -2881,11 +2893,11 @@
         <v>3</v>
       </c>
       <c r="G43" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="2">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I43" s="4">
@@ -2927,11 +2939,11 @@
         <v>3</v>
       </c>
       <c r="G44" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="2">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I44" s="4">
@@ -2973,11 +2985,11 @@
         <v>3</v>
       </c>
       <c r="G45" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="2">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I45" s="4">
@@ -3019,11 +3031,11 @@
         <v>3</v>
       </c>
       <c r="G46" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="2">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I46" s="4">
@@ -3065,11 +3077,11 @@
         <v>3</v>
       </c>
       <c r="G47" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="2">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I47" s="4">
@@ -3111,11 +3123,11 @@
         <v>3</v>
       </c>
       <c r="G48" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="2">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I48" s="4">
@@ -3157,11 +3169,11 @@
         <v>3</v>
       </c>
       <c r="G49" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="2">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I49" s="4">
@@ -3203,11 +3215,11 @@
         <v>3</v>
       </c>
       <c r="G50" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="2">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I50" s="4">
@@ -3249,11 +3261,11 @@
         <v>3</v>
       </c>
       <c r="G51" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="2">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I51" s="4">
@@ -3295,11 +3307,11 @@
         <v>3</v>
       </c>
       <c r="G52" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="2">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I52" s="4">
@@ -3341,11 +3353,11 @@
         <v>3</v>
       </c>
       <c r="G53" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="2">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I53" s="4">
@@ -3387,11 +3399,11 @@
         <v>3</v>
       </c>
       <c r="G54" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="2">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I54" s="4">
@@ -3435,11 +3447,11 @@
         <v>3</v>
       </c>
       <c r="G55" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H55" s="2">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I55" s="4">
@@ -3481,11 +3493,11 @@
         <v>3</v>
       </c>
       <c r="G56" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="2">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I56" s="4">
@@ -3527,11 +3539,11 @@
         <v>3</v>
       </c>
       <c r="G57" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="2">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I57" s="4">
@@ -3575,11 +3587,11 @@
         <v>3</v>
       </c>
       <c r="G58" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="2">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I58" s="4">
@@ -3621,11 +3633,11 @@
         <v>3</v>
       </c>
       <c r="G59" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H59" s="2">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I59" s="4">
@@ -3667,11 +3679,11 @@
         <v>3</v>
       </c>
       <c r="G60" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="2">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I60" s="4">

--- a/100_受講者/05_最上/銭湯記録アプリ開発/アプリケーション作成WBS.xlsx
+++ b/100_受講者/05_最上/銭湯記録アプリ開発/アプリケーション作成WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\work\銭湯記録アプリ開発\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC58C7E4-06F7-499D-816F-55E91FC2390A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FC8D42-8E9F-45F3-A876-AF3BCCF65F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{419D748C-3A1E-D948-83B4-89E68F6A4488}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
   <si>
     <t>アプリケーション作成WBS</t>
     <rPh sb="8" eb="10">
@@ -243,10 +243,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>RecordContoroller(記録コントローラー)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>addBathInfo()</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -263,10 +259,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>SearchContoroller(検索 コントローラー)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>search()</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -276,10 +268,6 @@
   </si>
   <si>
     <t>reset()</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TopPageContoroller(TOPページコントローラー)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -420,6 +408,18 @@
   </si>
   <si>
     <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TopPageController(TOPページコントローラー)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SearchController(検索 コントローラー)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RecordController(記録コントローラー)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -899,7 +899,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFE88A0-CAA1-9340-A8B6-7BDAD2A12E99}">
-  <dimension ref="A1:AE112"/>
+  <dimension ref="A1:AE106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -1132,9 +1132,11 @@
         <v>1</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.5</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1179,9 +1181,11 @@
         <v>0</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L6" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.5</v>
+      </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1226,9 +1230,11 @@
         <v>1</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1265,19 +1271,22 @@
         <v>1</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" ref="G5:G60" si="1">SUM(L8:AE8)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="4">
         <v>1</v>
       </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="M8" s="1">
+        <v>0.5</v>
+      </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -1299,7 +1308,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1308,22 +1317,25 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" ref="G9:G14" si="2">SUM(L9:AE9)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" ref="H9:H14" si="3">F9-G9</f>
-        <v>1.5</v>
+        <f t="shared" ref="H9:H13" si="1">F9-G9</f>
+        <v>0.5</v>
       </c>
       <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="M9" s="1">
+        <v>0.5</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1345,7 +1357,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1354,22 +1366,25 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="H10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="4">
         <v>1</v>
       </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1391,7 +1406,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1403,19 +1418,22 @@
         <v>1</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="4">
         <v>1</v>
       </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="M11" s="1">
+        <v>0.5</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1437,7 +1455,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1452,16 +1470,18 @@
         <v>0.5</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I12" s="4">
         <v>1</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L12" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.5</v>
+      </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1484,7 +1504,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1499,16 +1519,18 @@
         <v>0.5</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I13" s="4">
         <v>1</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.5</v>
+      </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1531,7 +1553,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1543,19 +1565,22 @@
         <v>1</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="3"/>
+        <f>F14-G14</f>
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="4">
         <v>1</v>
       </c>
-      <c r="I14" s="4">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1"/>
+      <c r="J14" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="M14" s="1">
+        <v>0.5</v>
+      </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1577,7 +1602,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A15" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
@@ -1589,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G15:G60" si="2">SUM(L15:AE15)</f>
         <v>0</v>
       </c>
       <c r="H15" s="2">
@@ -1597,11 +1622,15 @@
         <v>1</v>
       </c>
       <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1623,7 +1652,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A16" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>19</v>
@@ -1635,19 +1664,22 @@
         <v>1</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="4">
         <v>1</v>
       </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1"/>
+      <c r="J16" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="M16" s="1">
+        <v>0.5</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -1669,7 +1701,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A17" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>20</v>
@@ -1683,19 +1715,22 @@
         <v>1</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="4">
         <v>1</v>
       </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1"/>
+      <c r="J17" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="M17" s="1">
+        <v>0.5</v>
+      </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -1717,7 +1752,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A18" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1729,19 +1764,22 @@
         <v>1</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="4">
         <v>1</v>
       </c>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1"/>
+      <c r="J18" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="M18" s="1">
+        <v>0.5</v>
+      </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -1763,7 +1801,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A19" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1775,19 +1813,22 @@
         <v>1</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="4">
         <v>1</v>
       </c>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1"/>
+      <c r="J19" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="M19" s="1">
+        <v>0.5</v>
+      </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1809,7 +1850,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A20" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1821,19 +1862,22 @@
         <v>1</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="4">
         <v>1</v>
       </c>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1"/>
+      <c r="J20" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="M20" s="1">
+        <v>0.5</v>
+      </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -1855,7 +1899,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A21" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1867,19 +1911,22 @@
         <v>1</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I21" s="4">
         <v>1</v>
       </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1"/>
+      <c r="J21" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="M21" s="1">
+        <v>0.5</v>
+      </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -1901,7 +1948,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A22" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1913,19 +1960,22 @@
         <v>1</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="4">
         <v>1</v>
       </c>
-      <c r="I22" s="4">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1"/>
+      <c r="J22" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="M22" s="1">
+        <v>0.5</v>
+      </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -1947,7 +1997,7 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A23" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1959,19 +2009,22 @@
         <v>1</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I23" s="4">
         <v>1</v>
       </c>
-      <c r="I23" s="4">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1"/>
+      <c r="J23" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="M23" s="1">
+        <v>0.5</v>
+      </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -1993,7 +2046,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A24" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>17</v>
@@ -2005,7 +2058,6 @@
         <v>1</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H24" s="2">
@@ -2013,11 +2065,15 @@
         <v>1</v>
       </c>
       <c r="I24" s="4">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -2039,7 +2095,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A25" s="1">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>28</v>
@@ -2053,19 +2109,22 @@
         <v>1</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I25" s="4">
         <v>1</v>
       </c>
-      <c r="I25" s="4">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1"/>
+      <c r="J25" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="M25" s="1">
+        <v>0.5</v>
+      </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -2087,7 +2146,7 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A26" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2099,19 +2158,22 @@
         <v>1</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H26" s="2">
         <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="4">
         <v>1</v>
       </c>
-      <c r="I26" s="4">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1"/>
+      <c r="J26" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="M26" s="1">
+        <v>0.5</v>
+      </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -2133,7 +2195,7 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A27" s="1">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2145,19 +2207,22 @@
         <v>1</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="4">
         <v>1</v>
       </c>
-      <c r="I27" s="4">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1"/>
+      <c r="J27" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="M27" s="1">
+        <v>0.5</v>
+      </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -2179,7 +2244,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A28" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2191,19 +2256,22 @@
         <v>1</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="4">
         <v>1</v>
       </c>
-      <c r="I28" s="4">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1"/>
+      <c r="J28" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="M28" s="1">
+        <v>0.5</v>
+      </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -2225,7 +2293,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A29" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2237,19 +2305,22 @@
         <v>1</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I29" s="4">
         <v>1</v>
       </c>
-      <c r="I29" s="4">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1"/>
+      <c r="J29" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+      <c r="M29" s="1">
+        <v>0.5</v>
+      </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -2271,7 +2342,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A30" s="1">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2283,19 +2354,22 @@
         <v>1</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I30" s="4">
         <v>1</v>
       </c>
-      <c r="I30" s="4">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1"/>
+      <c r="J30" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="M30" s="1">
+        <v>0.5</v>
+      </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -2317,7 +2391,7 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A31" s="1">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2329,19 +2403,22 @@
         <v>1</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I31" s="4">
         <v>1</v>
       </c>
-      <c r="I31" s="4">
-        <v>0</v>
-      </c>
-      <c r="J31" s="1"/>
+      <c r="J31" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="M31" s="1">
+        <v>0.5</v>
+      </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -2363,35 +2440,36 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A32" s="1">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F32" s="2">
         <v>2</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I32" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="M32" s="1">
+        <v>0.5</v>
+      </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -2413,19 +2491,19 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A33" s="1">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F33" s="2">
         <v>2</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H33" s="2">
@@ -2459,19 +2537,19 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A34" s="1">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F34" s="2">
         <v>2</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H34" s="2">
@@ -2505,31 +2583,32 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A35" s="1">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F35" s="2">
         <v>2</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I35" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="M35" s="1">
+        <v>0.5</v>
+      </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -2551,21 +2630,21 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A36" s="1">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F36" s="2">
         <v>2</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H36" s="2">
@@ -2599,19 +2678,19 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A37" s="1">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F37" s="2">
         <v>2</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H37" s="2">
@@ -2645,19 +2724,19 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A38" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F38" s="2">
         <v>2</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H38" s="2">
@@ -2691,19 +2770,19 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A39" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F39" s="2">
         <v>2</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H39" s="2">
@@ -2737,21 +2816,21 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A40" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F40" s="2">
         <v>2</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H40" s="2">
@@ -2785,10 +2864,10 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A41" s="1">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2797,7 +2876,7 @@
         <v>2</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H41" s="2">
@@ -2831,35 +2910,36 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A42" s="1">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F42" s="2">
         <v>3</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+      <c r="M42" s="1">
+        <v>0.5</v>
+      </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -2881,19 +2961,19 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A43" s="1">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F43" s="2">
         <v>3</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H43" s="2">
@@ -2927,19 +3007,19 @@
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A44" s="1">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2">
         <v>3</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H44" s="2">
@@ -2973,19 +3053,19 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A45" s="1">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2">
         <v>3</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H45" s="2">
@@ -3019,19 +3099,19 @@
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A46" s="1">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2">
         <v>3</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H46" s="2">
@@ -3065,19 +3145,19 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A47" s="1">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2">
         <v>3</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H47" s="2">
@@ -3111,19 +3191,19 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A48" s="1">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2">
         <v>3</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H48" s="2">
@@ -3157,19 +3237,19 @@
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A49" s="1">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2">
         <v>3</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H49" s="2">
@@ -3203,19 +3283,19 @@
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A50" s="1">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F50" s="2">
         <v>3</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H50" s="2">
@@ -3249,19 +3329,19 @@
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A51" s="1">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2">
         <v>3</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H51" s="2">
@@ -3295,19 +3375,19 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A52" s="1">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F52" s="2">
         <v>3</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H52" s="2">
@@ -3341,19 +3421,19 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A53" s="1">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2">
         <v>3</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H53" s="2">
@@ -3387,19 +3467,19 @@
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A54" s="1">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F54" s="2">
         <v>3</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H54" s="2">
@@ -3433,21 +3513,20 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A55" s="1">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F55" s="2">
         <v>3</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H55" s="2">
@@ -3481,19 +3560,19 @@
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A56" s="1">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F56" s="2">
         <v>3</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H56" s="2">
@@ -3527,19 +3606,19 @@
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A57" s="1">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F57" s="2">
         <v>3</v>
       </c>
       <c r="G57" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H57" s="2">
@@ -3573,21 +3652,21 @@
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A58" s="1">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F58" s="2">
         <v>3</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H58" s="2">
@@ -3621,19 +3700,19 @@
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A59" s="1">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F59" s="2">
         <v>3</v>
       </c>
       <c r="G59" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H59" s="2">
@@ -3667,19 +3746,19 @@
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A60" s="1">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F60" s="2">
         <v>3</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H60" s="2">
@@ -3713,10 +3792,10 @@
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A61" s="1">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
@@ -3727,19 +3806,20 @@
         <v>4</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" ref="G61:G86" si="4">SUM(L61:AE61)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="2">
-        <f t="shared" ref="H61:H86" si="5">F61-G61</f>
-        <v>4</v>
+        <f t="shared" ref="H61:H86" si="3">F61-G61</f>
+        <v>3</v>
       </c>
       <c r="I61" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J61" s="1"/>
       <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
+      <c r="M61" s="1">
+        <v>1</v>
+      </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
@@ -3761,7 +3841,7 @@
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A62" s="1">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3773,11 +3853,11 @@
         <v>4</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G61:G86" si="4">SUM(L62:AE62)</f>
         <v>0</v>
       </c>
       <c r="H62" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I62" s="4">
@@ -3807,7 +3887,7 @@
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A63" s="1">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3823,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I63" s="4">
@@ -3853,7 +3933,7 @@
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A64" s="1">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3869,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I64" s="4">
@@ -3899,10 +3979,10 @@
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A65" s="1">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
@@ -3917,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I65" s="4">
@@ -3947,7 +4027,7 @@
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A66" s="1">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3963,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I66" s="4">
@@ -3993,7 +4073,7 @@
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A67" s="1">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4009,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I67" s="4">
@@ -4039,7 +4119,7 @@
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A68" s="1">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -4055,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I68" s="4">
@@ -4085,10 +4165,10 @@
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A69" s="1">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -4101,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I69" s="4">
@@ -4131,7 +4211,7 @@
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A70" s="1">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -4145,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I70" s="4">
@@ -4175,7 +4255,7 @@
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A71" s="1">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -4189,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I71" s="4">
@@ -4219,7 +4299,7 @@
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A72" s="1">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -4233,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I72" s="4">
@@ -4263,7 +4343,7 @@
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A73" s="1">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -4277,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="H73" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I73" s="4">
@@ -4307,7 +4387,7 @@
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A74" s="1">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -4321,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="H74" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I74" s="4">
@@ -4351,7 +4431,7 @@
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A75" s="1">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -4365,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I75" s="4">
@@ -4395,7 +4475,7 @@
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A76" s="1">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -4409,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="H76" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I76" s="4">
@@ -4439,7 +4519,7 @@
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A77" s="1">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -4453,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I77" s="4">
@@ -4483,7 +4563,7 @@
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A78" s="1">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -4497,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="H78" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I78" s="4">
@@ -4527,7 +4607,7 @@
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A79" s="1">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -4541,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="H79" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I79" s="4">
@@ -4571,7 +4651,7 @@
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A80" s="1">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -4585,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="H80" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I80" s="4">
@@ -4615,7 +4695,7 @@
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A81" s="1">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -4629,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I81" s="4">
@@ -4659,7 +4739,7 @@
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A82" s="1">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4673,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="H82" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I82" s="4">
@@ -4703,7 +4783,7 @@
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A83" s="1">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4717,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I83" s="4">
@@ -4747,7 +4827,7 @@
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A84" s="1">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4761,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="H84" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I84" s="4">
@@ -4791,7 +4871,7 @@
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A85" s="1">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4805,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="H85" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I85" s="4">
@@ -4835,7 +4915,7 @@
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A86" s="1">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4849,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="H86" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I86" s="4">
@@ -4879,7 +4959,7 @@
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A87" s="1">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -4889,11 +4969,11 @@
         <v>0</v>
       </c>
       <c r="G87" s="2">
-        <f t="shared" ref="G87:G110" si="6">SUM(L87:AE87)</f>
+        <f t="shared" ref="G87:G104" si="5">SUM(L87:AE87)</f>
         <v>0</v>
       </c>
       <c r="H87" s="2">
-        <f t="shared" ref="H87:H110" si="7">F87-G87</f>
+        <f t="shared" ref="H87:H104" si="6">F87-G87</f>
         <v>0</v>
       </c>
       <c r="I87" s="4">
@@ -4923,7 +5003,7 @@
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A88" s="1">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -4933,11 +5013,11 @@
         <v>0</v>
       </c>
       <c r="G88" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H88" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H88" s="2">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I88" s="4">
@@ -4967,7 +5047,7 @@
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A89" s="1">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -4977,11 +5057,11 @@
         <v>0</v>
       </c>
       <c r="G89" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H89" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H89" s="2">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I89" s="4">
@@ -5011,7 +5091,7 @@
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A90" s="1">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -5021,11 +5101,11 @@
         <v>0</v>
       </c>
       <c r="G90" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H90" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H90" s="2">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I90" s="4">
@@ -5055,7 +5135,7 @@
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A91" s="1">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -5065,11 +5145,11 @@
         <v>0</v>
       </c>
       <c r="G91" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H91" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H91" s="2">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I91" s="4">
@@ -5099,7 +5179,7 @@
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A92" s="1">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -5109,11 +5189,11 @@
         <v>0</v>
       </c>
       <c r="G92" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H92" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H92" s="2">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I92" s="4">
@@ -5143,7 +5223,7 @@
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A93" s="1">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -5153,11 +5233,11 @@
         <v>0</v>
       </c>
       <c r="G93" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H93" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H93" s="2">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I93" s="4">
@@ -5187,7 +5267,7 @@
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A94" s="1">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -5197,11 +5277,11 @@
         <v>0</v>
       </c>
       <c r="G94" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H94" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H94" s="2">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I94" s="4">
@@ -5231,7 +5311,7 @@
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A95" s="1">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -5241,11 +5321,11 @@
         <v>0</v>
       </c>
       <c r="G95" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H95" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H95" s="2">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I95" s="4">
@@ -5275,7 +5355,7 @@
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A96" s="1">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -5285,11 +5365,11 @@
         <v>0</v>
       </c>
       <c r="G96" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H96" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H96" s="2">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I96" s="4">
@@ -5319,7 +5399,7 @@
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A97" s="1">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -5329,11 +5409,11 @@
         <v>0</v>
       </c>
       <c r="G97" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H97" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H97" s="2">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I97" s="4">
@@ -5363,7 +5443,7 @@
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A98" s="1">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -5373,11 +5453,11 @@
         <v>0</v>
       </c>
       <c r="G98" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H98" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H98" s="2">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I98" s="4">
@@ -5407,7 +5487,7 @@
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A99" s="1">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -5417,11 +5497,11 @@
         <v>0</v>
       </c>
       <c r="G99" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H99" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H99" s="2">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I99" s="4">
@@ -5451,7 +5531,7 @@
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A100" s="1">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -5461,11 +5541,11 @@
         <v>0</v>
       </c>
       <c r="G100" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H100" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H100" s="2">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I100" s="4">
@@ -5495,7 +5575,7 @@
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A101" s="1">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -5505,11 +5585,11 @@
         <v>0</v>
       </c>
       <c r="G101" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H101" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H101" s="2">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I101" s="4">
@@ -5539,7 +5619,7 @@
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A102" s="1">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -5549,11 +5629,11 @@
         <v>0</v>
       </c>
       <c r="G102" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H102" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H102" s="2">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I102" s="4">
@@ -5583,7 +5663,7 @@
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A103" s="1">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -5593,11 +5673,11 @@
         <v>0</v>
       </c>
       <c r="G103" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H103" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H103" s="2">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I103" s="4">
@@ -5627,7 +5707,7 @@
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A104" s="1">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -5637,11 +5717,11 @@
         <v>0</v>
       </c>
       <c r="G104" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H104" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H104" s="2">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I104" s="4">
@@ -5670,296 +5750,32 @@
       <c r="AE104" s="1"/>
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.6">
-      <c r="A105" s="1">
-        <v>95</v>
-      </c>
+      <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="2">
-        <v>0</v>
-      </c>
-      <c r="G105" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H105" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I105" s="4">
-        <v>0</v>
-      </c>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="4"/>
       <c r="J105" s="1"/>
-      <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
-      <c r="N105" s="1"/>
-      <c r="O105" s="1"/>
-      <c r="P105" s="1"/>
-      <c r="Q105" s="1"/>
-      <c r="R105" s="1"/>
-      <c r="S105" s="1"/>
-      <c r="T105" s="1"/>
-      <c r="U105" s="1"/>
-      <c r="V105" s="1"/>
-      <c r="W105" s="1"/>
-      <c r="X105" s="1"/>
-      <c r="Y105" s="1"/>
-      <c r="Z105" s="1"/>
-      <c r="AA105" s="1"/>
-      <c r="AB105" s="1"/>
-      <c r="AC105" s="1"/>
-      <c r="AD105" s="1"/>
-      <c r="AE105" s="1"/>
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.6">
-      <c r="A106" s="1">
-        <v>96</v>
-      </c>
+      <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="2">
-        <v>0</v>
-      </c>
-      <c r="G106" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H106" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I106" s="4">
-        <v>0</v>
-      </c>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="4"/>
       <c r="J106" s="1"/>
-      <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
-      <c r="O106" s="1"/>
-      <c r="P106" s="1"/>
-      <c r="Q106" s="1"/>
-      <c r="R106" s="1"/>
-      <c r="S106" s="1"/>
-      <c r="T106" s="1"/>
-      <c r="U106" s="1"/>
-      <c r="V106" s="1"/>
-      <c r="W106" s="1"/>
-      <c r="X106" s="1"/>
-      <c r="Y106" s="1"/>
-      <c r="Z106" s="1"/>
-      <c r="AA106" s="1"/>
-      <c r="AB106" s="1"/>
-      <c r="AC106" s="1"/>
-      <c r="AD106" s="1"/>
-      <c r="AE106" s="1"/>
-    </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.6">
-      <c r="A107" s="1">
-        <v>97</v>
-      </c>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="2">
-        <v>0</v>
-      </c>
-      <c r="G107" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H107" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I107" s="4">
-        <v>0</v>
-      </c>
-      <c r="J107" s="1"/>
-      <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
-      <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
-      <c r="P107" s="1"/>
-      <c r="Q107" s="1"/>
-      <c r="R107" s="1"/>
-      <c r="S107" s="1"/>
-      <c r="T107" s="1"/>
-      <c r="U107" s="1"/>
-      <c r="V107" s="1"/>
-      <c r="W107" s="1"/>
-      <c r="X107" s="1"/>
-      <c r="Y107" s="1"/>
-      <c r="Z107" s="1"/>
-      <c r="AA107" s="1"/>
-      <c r="AB107" s="1"/>
-      <c r="AC107" s="1"/>
-      <c r="AD107" s="1"/>
-      <c r="AE107" s="1"/>
-    </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.6">
-      <c r="A108" s="1">
-        <v>98</v>
-      </c>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="2">
-        <v>0</v>
-      </c>
-      <c r="G108" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H108" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I108" s="4">
-        <v>0</v>
-      </c>
-      <c r="J108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
-      <c r="O108" s="1"/>
-      <c r="P108" s="1"/>
-      <c r="Q108" s="1"/>
-      <c r="R108" s="1"/>
-      <c r="S108" s="1"/>
-      <c r="T108" s="1"/>
-      <c r="U108" s="1"/>
-      <c r="V108" s="1"/>
-      <c r="W108" s="1"/>
-      <c r="X108" s="1"/>
-      <c r="Y108" s="1"/>
-      <c r="Z108" s="1"/>
-      <c r="AA108" s="1"/>
-      <c r="AB108" s="1"/>
-      <c r="AC108" s="1"/>
-      <c r="AD108" s="1"/>
-      <c r="AE108" s="1"/>
-    </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.6">
-      <c r="A109" s="1">
-        <v>99</v>
-      </c>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="2">
-        <v>0</v>
-      </c>
-      <c r="G109" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H109" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I109" s="4">
-        <v>0</v>
-      </c>
-      <c r="J109" s="1"/>
-      <c r="L109" s="1"/>
-      <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
-      <c r="P109" s="1"/>
-      <c r="Q109" s="1"/>
-      <c r="R109" s="1"/>
-      <c r="S109" s="1"/>
-      <c r="T109" s="1"/>
-      <c r="U109" s="1"/>
-      <c r="V109" s="1"/>
-      <c r="W109" s="1"/>
-      <c r="X109" s="1"/>
-      <c r="Y109" s="1"/>
-      <c r="Z109" s="1"/>
-      <c r="AA109" s="1"/>
-      <c r="AB109" s="1"/>
-      <c r="AC109" s="1"/>
-      <c r="AD109" s="1"/>
-      <c r="AE109" s="1"/>
-    </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.6">
-      <c r="A110" s="1">
-        <v>100</v>
-      </c>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="2">
-        <v>0</v>
-      </c>
-      <c r="G110" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H110" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I110" s="4">
-        <v>0</v>
-      </c>
-      <c r="J110" s="1"/>
-      <c r="L110" s="1"/>
-      <c r="M110" s="1"/>
-      <c r="N110" s="1"/>
-      <c r="O110" s="1"/>
-      <c r="P110" s="1"/>
-      <c r="Q110" s="1"/>
-      <c r="R110" s="1"/>
-      <c r="S110" s="1"/>
-      <c r="T110" s="1"/>
-      <c r="U110" s="1"/>
-      <c r="V110" s="1"/>
-      <c r="W110" s="1"/>
-      <c r="X110" s="1"/>
-      <c r="Y110" s="1"/>
-      <c r="Z110" s="1"/>
-      <c r="AA110" s="1"/>
-      <c r="AB110" s="1"/>
-      <c r="AC110" s="1"/>
-      <c r="AD110" s="1"/>
-      <c r="AE110" s="1"/>
-    </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.6">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="4"/>
-      <c r="J111" s="1"/>
-    </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.6">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="H4:H112">
+  <conditionalFormatting sqref="H4:H106">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/100_受講者/05_最上/銭湯記録アプリ開発/アプリケーション作成WBS.xlsx
+++ b/100_受講者/05_最上/銭湯記録アプリ開発/アプリケーション作成WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\work\銭湯記録アプリ開発\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FC8D42-8E9F-45F3-A876-AF3BCCF65F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4330CBCA-C565-48A5-A54E-2FE6DF57F48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{419D748C-3A1E-D948-83B4-89E68F6A4488}"/>
   </bookViews>
@@ -355,10 +355,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve"> fetchBath()</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>fetchBath(bathId)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -420,6 +416,10 @@
   </si>
   <si>
     <t>RecordController(記録コントローラー)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>fetchBath()</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -902,10 +902,10 @@
   <dimension ref="A1:AE106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
@@ -1132,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L5" s="1">
         <v>0.5</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L6" s="1">
         <v>0.5</v>
@@ -1230,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
@@ -1281,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -1379,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -1428,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L12" s="1">
         <v>0.5</v>
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L13" s="1">
         <v>0.5</v>
@@ -1575,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -1625,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -1674,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -1725,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -1774,7 +1774,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -1823,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -1872,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -1921,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -1970,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
@@ -2019,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1">
@@ -2068,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1">
@@ -2119,7 +2119,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
@@ -2168,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -2217,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -2266,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1">
@@ -2315,7 +2315,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -2364,7 +2364,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -2413,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>30</v>
@@ -2456,11 +2456,11 @@
         <v>2</v>
       </c>
       <c r="G32" s="2">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="I32" s="4">
         <v>0.5</v>
@@ -2470,7 +2470,9 @@
       <c r="M32" s="1">
         <v>0.5</v>
       </c>
-      <c r="N32" s="1"/>
+      <c r="N32" s="1">
+        <v>2</v>
+      </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -2609,7 +2611,9 @@
       <c r="M35" s="1">
         <v>0.5</v>
       </c>
-      <c r="N35" s="1"/>
+      <c r="N35" s="1">
+        <v>0.5</v>
+      </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -2635,7 +2639,7 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>34</v>
@@ -2644,12 +2648,11 @@
         <v>2</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" s="4">
         <v>0</v>
@@ -2657,7 +2660,9 @@
       <c r="J36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
+      <c r="N36" s="1">
+        <v>1</v>
+      </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -2821,7 +2826,7 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>37</v>
@@ -2830,20 +2835,21 @@
         <v>2</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I40" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
+      <c r="N40" s="1">
+        <v>1.5</v>
+      </c>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -2940,7 +2946,9 @@
       <c r="M42" s="1">
         <v>0.5</v>
       </c>
-      <c r="N42" s="1"/>
+      <c r="N42" s="1">
+        <v>0.5</v>
+      </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -3521,17 +3529,17 @@
         <v>54</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2">
         <v>3</v>
       </c>
       <c r="G55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" s="4">
         <v>0</v>
@@ -3539,7 +3547,9 @@
       <c r="J55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
+      <c r="N55" s="1">
+        <v>1</v>
+      </c>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
@@ -3566,7 +3576,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F56" s="2">
         <v>3</v>
@@ -3612,7 +3622,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F57" s="2">
         <v>3</v>
@@ -3657,21 +3667,20 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="F58" s="2">
         <v>3</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58" s="4">
         <v>0</v>
@@ -3706,7 +3715,7 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F59" s="2">
         <v>3</v>
@@ -3752,7 +3761,7 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F60" s="2">
         <v>3</v>
@@ -3795,7 +3804,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
@@ -3806,11 +3815,11 @@
         <v>4</v>
       </c>
       <c r="G61" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" ref="H61:H86" si="3">F61-G61</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" s="4">
         <v>0.5</v>
@@ -3820,7 +3829,9 @@
       <c r="M61" s="1">
         <v>1</v>
       </c>
-      <c r="N61" s="1"/>
+      <c r="N61" s="1">
+        <v>1</v>
+      </c>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
@@ -3853,7 +3864,7 @@
         <v>4</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" ref="G61:G86" si="4">SUM(L62:AE62)</f>
+        <f t="shared" ref="G62:G86" si="4">SUM(L62:AE62)</f>
         <v>0</v>
       </c>
       <c r="H62" s="2">
@@ -3982,7 +3993,7 @@
         <v>61</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
@@ -4085,12 +4096,11 @@
         <v>2</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" s="2">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" s="4">
         <v>0</v>
@@ -4098,7 +4108,9 @@
       <c r="J67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
+      <c r="N67" s="1">
+        <v>1</v>
+      </c>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
@@ -4168,7 +4180,7 @@
         <v>65</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -5785,32 +5797,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db">
-      <UserInfo>
-        <DisplayName>研修チーム メンバー</DisplayName>
-        <AccountId>14</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0407f581-f061-4023-8230-a56bb2488a70">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101002B575DD8F27F34448B33AFE63EFD0D8E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="48978d9a722114fd94336a748046495d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0407f581-f061-4023-8230-a56bb2488a70" xmlns:ns3="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0991ac94477647fa7d2a63066c31f3bb" ns2:_="" ns3:_="">
     <xsd:import namespace="0407f581-f061-4023-8230-a56bb2488a70"/>
@@ -6021,10 +6007,47 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db">
+      <UserInfo>
+        <DisplayName>研修チーム メンバー</DisplayName>
+        <AccountId>14</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0407f581-f061-4023-8230-a56bb2488a70">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B27C22-B7FB-4299-9545-CC05027530D6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D46D63A-865A-4ECC-8FB1-D9250E892073}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0407f581-f061-4023-8230-a56bb2488a70"/>
+    <ds:schemaRef ds:uri="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6041,20 +6064,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D46D63A-865A-4ECC-8FB1-D9250E892073}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B27C22-B7FB-4299-9545-CC05027530D6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0407f581-f061-4023-8230-a56bb2488a70"/>
-    <ds:schemaRef ds:uri="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/100_受講者/05_最上/銭湯記録アプリ開発/アプリケーション作成WBS.xlsx
+++ b/100_受講者/05_最上/銭湯記録アプリ開発/アプリケーション作成WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\work\銭湯記録アプリ開発\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4330CBCA-C565-48A5-A54E-2FE6DF57F48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C931C5A7-C181-4C85-9F95-437E1B0F6FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{419D748C-3A1E-D948-83B4-89E68F6A4488}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="69">
   <si>
     <t>アプリケーション作成WBS</t>
     <rPh sb="8" eb="10">
@@ -386,16 +387,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>データ保存確認</t>
-    <rPh sb="3" eb="5">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>CSSによる画面デザイン</t>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
@@ -420,6 +411,10 @@
   </si>
   <si>
     <t>fetchBath()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SearchWord</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -899,13 +894,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFE88A0-CAA1-9340-A8B6-7BDAD2A12E99}">
-  <dimension ref="A1:AE106"/>
+  <dimension ref="A1:AE118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
@@ -1125,14 +1120,14 @@
         <v>0.5</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" ref="H5:H60" si="0">F5-G5</f>
+        <f t="shared" ref="H5:H61" si="0">F5-G5</f>
         <v>0</v>
       </c>
       <c r="I5" s="4">
         <v>1</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L5" s="1">
         <v>0.5</v>
@@ -1181,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L6" s="1">
         <v>0.5</v>
@@ -1230,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
@@ -1281,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1330,7 +1325,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -1379,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -1428,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1">
@@ -1477,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L12" s="1">
         <v>0.5</v>
@@ -1526,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L13" s="1">
         <v>0.5</v>
@@ -1575,7 +1570,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -1614,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" ref="G15:G60" si="2">SUM(L15:AE15)</f>
+        <f t="shared" ref="G15:G61" si="2">SUM(L15:AE15)</f>
         <v>0</v>
       </c>
       <c r="H15" s="2">
@@ -1625,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -1674,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -1725,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -1774,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -1823,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -1872,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -1921,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -1970,7 +1965,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
@@ -2019,7 +2014,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1">
@@ -2048,34 +2043,34 @@
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G24" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="4">
         <v>1</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L24" s="1"/>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
+      <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="O24" s="1">
+        <v>0.5</v>
+      </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -2098,32 +2093,30 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="2">
         <v>1</v>
       </c>
       <c r="G25" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I25" s="4">
         <v>1</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -2148,10 +2141,12 @@
       <c r="A26" s="1">
         <v>22</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="2">
@@ -2168,7 +2163,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -2200,7 +2195,7 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="2">
@@ -2217,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -2249,7 +2244,7 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="2">
@@ -2266,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1">
@@ -2298,7 +2293,7 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="2">
@@ -2315,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -2347,7 +2342,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="2">
@@ -2364,7 +2359,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -2396,7 +2391,7 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="2">
@@ -2413,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
@@ -2442,37 +2437,33 @@
       <c r="A32" s="1">
         <v>28</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E32" s="1"/>
       <c r="F32" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="2">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="I32" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="J32" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
         <v>0.5</v>
       </c>
-      <c r="N32" s="1">
-        <v>2</v>
-      </c>
+      <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -2495,30 +2486,37 @@
       <c r="A33" s="1">
         <v>29</v>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F33" s="2">
         <v>2</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>-0.5</v>
       </c>
       <c r="I33" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
+      <c r="M33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N33" s="1">
+        <v>2</v>
+      </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -2545,27 +2543,28 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F34" s="2">
         <v>2</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
+      <c r="O34" s="1">
+        <v>1</v>
+      </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -2591,30 +2590,28 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F35" s="2">
         <v>2</v>
       </c>
       <c r="G35" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I35" s="4">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N35" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1">
+        <v>1</v>
+      </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -2638,30 +2635,30 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F36" s="2">
         <v>2</v>
       </c>
       <c r="G36" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I36" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+      <c r="M36" s="1">
+        <v>0.5</v>
+      </c>
       <c r="N36" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -2687,20 +2684,21 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F37" s="2">
         <v>2</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" s="4">
         <v>0</v>
@@ -2708,7 +2706,9 @@
       <c r="J37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
+      <c r="N37" s="1">
+        <v>1</v>
+      </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -2735,7 +2735,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F38" s="2">
         <v>2</v>
@@ -2781,7 +2781,7 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F39" s="2">
         <v>2</v>
@@ -2825,31 +2825,28 @@
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F40" s="2">
         <v>2</v>
       </c>
       <c r="G40" s="2">
-        <v>1.5</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I40" s="4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="1">
-        <v>1.5</v>
-      </c>
+      <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -2872,30 +2869,33 @@
       <c r="A41" s="1">
         <v>37</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="F41" s="2">
         <v>2</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H41" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I41" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
+      <c r="N41" s="1">
+        <v>1.5</v>
+      </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -2919,36 +2919,29 @@
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
       <c r="F42" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42" s="2">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H42" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I42" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N42" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -2971,31 +2964,40 @@
       <c r="A43" s="1">
         <v>39</v>
       </c>
-      <c r="B43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E43" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F43" s="2">
         <v>3</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
+      <c r="M43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O43" s="1">
+        <v>1</v>
+      </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -3021,27 +3023,28 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F44" s="2">
         <v>3</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
+      <c r="O44" s="1">
+        <v>1</v>
+      </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
@@ -3067,27 +3070,28 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" s="2">
         <v>3</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
+      <c r="O45" s="1">
+        <v>1</v>
+      </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
@@ -3113,7 +3117,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" s="2">
         <v>3</v>
@@ -3159,7 +3163,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F47" s="2">
         <v>3</v>
@@ -3205,7 +3209,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F48" s="2">
         <v>3</v>
@@ -3251,7 +3255,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F49" s="2">
         <v>3</v>
@@ -3297,7 +3301,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F50" s="2">
         <v>3</v>
@@ -3343,7 +3347,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F51" s="2">
         <v>3</v>
@@ -3389,7 +3393,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2">
         <v>3</v>
@@ -3435,7 +3439,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F53" s="2">
         <v>3</v>
@@ -3481,7 +3485,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F54" s="2">
         <v>3</v>
@@ -3525,21 +3529,20 @@
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F55" s="2">
         <v>3</v>
       </c>
       <c r="G55" s="2">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H55" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I55" s="4">
         <v>0</v>
@@ -3547,9 +3550,7 @@
       <c r="J55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
-      <c r="N55" s="1">
-        <v>1</v>
-      </c>
+      <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
@@ -3574,20 +3575,21 @@
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="E56" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2">
         <v>3</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56" s="4">
         <v>0</v>
@@ -3595,7 +3597,9 @@
       <c r="J56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
+      <c r="N56" s="1">
+        <v>1</v>
+      </c>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
@@ -3622,7 +3626,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F57" s="2">
         <v>3</v>
@@ -3666,21 +3670,20 @@
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F58" s="2">
         <v>3</v>
       </c>
       <c r="G58" s="2">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H58" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I58" s="4">
         <v>0</v>
@@ -3713,29 +3716,32 @@
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="E59" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F59" s="2">
         <v>3</v>
       </c>
       <c r="G59" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H59" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I59" s="4">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="J59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
+      <c r="O59" s="1">
+        <v>1</v>
+      </c>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
@@ -3761,7 +3767,7 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F60" s="2">
         <v>3</v>
@@ -3803,35 +3809,30 @@
       <c r="A61" s="1">
         <v>57</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="F61" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G61" s="2">
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H61" s="2">
-        <f t="shared" ref="H61:H86" si="3">F61-G61</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="I61" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J61" s="1"/>
       <c r="L61" s="1"/>
-      <c r="M61" s="1">
-        <v>1</v>
-      </c>
-      <c r="N61" s="1">
-        <v>1</v>
-      </c>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
@@ -3854,31 +3855,40 @@
       <c r="A62" s="1">
         <v>58</v>
       </c>
-      <c r="B62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E62" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F62" s="2">
         <v>4</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" ref="G62:G86" si="4">SUM(L62:AE62)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H62" s="2">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" ref="H62:H98" si="3">F62-G62</f>
+        <v>1.5</v>
       </c>
       <c r="I62" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J62" s="1"/>
       <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
+      <c r="M62" s="1">
+        <v>1</v>
+      </c>
+      <c r="N62" s="1">
+        <v>1</v>
+      </c>
+      <c r="O62" s="1">
+        <v>0.5</v>
+      </c>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
@@ -3902,20 +3912,19 @@
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="F63" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="2">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I63" s="4">
         <v>0</v>
@@ -3924,7 +3933,9 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
+      <c r="O63" s="1">
+        <v>1</v>
+      </c>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
@@ -3948,20 +3959,19 @@
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F64" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G64" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" s="2">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I64" s="4">
         <v>0</v>
@@ -3970,7 +3980,9 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
+      <c r="O64" s="1">
+        <v>1</v>
+      </c>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
@@ -3992,24 +4004,22 @@
       <c r="A65" s="1">
         <v>61</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F65" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G63:G74" si="4">SUM(L65:AE65)</f>
         <v>0</v>
       </c>
       <c r="H65" s="2">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I65" s="4">
         <v>0</v>
@@ -4042,12 +4052,12 @@
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F66" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G66" s="2">
         <f t="shared" si="4"/>
@@ -4055,7 +4065,7 @@
       </c>
       <c r="H66" s="2">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I66" s="4">
         <v>0</v>
@@ -4088,19 +4098,20 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="F67" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G67" s="2">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="H67" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I67" s="4">
         <v>0</v>
@@ -4108,9 +4119,7 @@
       <c r="J67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
-      <c r="N67" s="1">
-        <v>1</v>
-      </c>
+      <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
@@ -4135,12 +4144,12 @@
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="F68" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G68" s="2">
         <f t="shared" si="4"/>
@@ -4148,7 +4157,7 @@
       </c>
       <c r="H68" s="2">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I68" s="4">
         <v>0</v>
@@ -4179,14 +4188,14 @@
       <c r="A69" s="1">
         <v>65</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+      <c r="E69" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F69" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G69" s="2">
         <f t="shared" si="4"/>
@@ -4194,7 +4203,7 @@
       </c>
       <c r="H69" s="2">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I69" s="4">
         <v>0</v>
@@ -4228,9 +4237,11 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
+      <c r="E70" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F70" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G70" s="2">
         <f t="shared" si="4"/>
@@ -4238,7 +4249,7 @@
       </c>
       <c r="H70" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I70" s="4">
         <v>0</v>
@@ -4272,9 +4283,11 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
+      <c r="E71" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F71" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G71" s="2">
         <f t="shared" si="4"/>
@@ -4282,7 +4295,7 @@
       </c>
       <c r="H71" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I71" s="4">
         <v>0</v>
@@ -4316,9 +4329,11 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
+      <c r="E72" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F72" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G72" s="2">
         <f t="shared" si="4"/>
@@ -4326,7 +4341,7 @@
       </c>
       <c r="H72" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I72" s="4">
         <v>0</v>
@@ -4360,9 +4375,11 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
+      <c r="E73" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F73" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G73" s="2">
         <f t="shared" si="4"/>
@@ -4370,7 +4387,7 @@
       </c>
       <c r="H73" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I73" s="4">
         <v>0</v>
@@ -4404,9 +4421,11 @@
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
+      <c r="E74" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="F74" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G74" s="2">
         <f t="shared" si="4"/>
@@ -4414,7 +4433,7 @@
       </c>
       <c r="H74" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I74" s="4">
         <v>0</v>
@@ -4447,18 +4466,21 @@
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="F75" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G75" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" s="4">
         <v>0</v>
@@ -4466,7 +4488,9 @@
       <c r="J75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
+      <c r="N75" s="1">
+        <v>1</v>
+      </c>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
@@ -4492,17 +4516,19 @@
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
+      <c r="E76" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="F76" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G76" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G76:G77" si="5">SUM(L76:AE76)</f>
         <v>0</v>
       </c>
       <c r="H76" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I76" s="4">
         <v>0</v>
@@ -4536,17 +4562,19 @@
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
+      <c r="E77" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F77" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G77" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H77" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I77" s="4">
         <v>0</v>
@@ -4579,18 +4607,21 @@
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="F78" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G78" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H78" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" s="4">
         <v>0</v>
@@ -4599,7 +4630,9 @@
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
+      <c r="O78" s="1">
+        <v>1</v>
+      </c>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -4624,17 +4657,19 @@
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
+      <c r="E79" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="F79" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G79" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G79:G80" si="6">SUM(L79:AE79)</f>
         <v>0</v>
       </c>
       <c r="H79" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I79" s="4">
         <v>0</v>
@@ -4668,17 +4703,19 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
+      <c r="E80" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="F80" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H80" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I80" s="4">
         <v>0</v>
@@ -4709,20 +4746,22 @@
       <c r="A81" s="1">
         <v>77</v>
       </c>
-      <c r="B81" s="1"/>
+      <c r="B81" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G81" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G81:G98" si="7">SUM(L81:AE81)</f>
         <v>0</v>
       </c>
       <c r="H81" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I81" s="4">
         <v>0</v>
@@ -4761,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H82" s="2">
@@ -4805,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H83" s="2">
@@ -4849,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H84" s="2">
@@ -4893,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="G85" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H85" s="2">
@@ -4937,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H86" s="2">
@@ -4981,11 +5020,11 @@
         <v>0</v>
       </c>
       <c r="G87" s="2">
-        <f t="shared" ref="G87:G104" si="5">SUM(L87:AE87)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H87" s="2">
-        <f t="shared" ref="H87:H104" si="6">F87-G87</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I87" s="4">
@@ -5025,11 +5064,11 @@
         <v>0</v>
       </c>
       <c r="G88" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H88" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I88" s="4">
@@ -5069,11 +5108,11 @@
         <v>0</v>
       </c>
       <c r="G89" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H89" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I89" s="4">
@@ -5113,11 +5152,11 @@
         <v>0</v>
       </c>
       <c r="G90" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H90" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I90" s="4">
@@ -5157,11 +5196,11 @@
         <v>0</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H91" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I91" s="4">
@@ -5201,11 +5240,11 @@
         <v>0</v>
       </c>
       <c r="G92" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H92" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I92" s="4">
@@ -5245,11 +5284,11 @@
         <v>0</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H93" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I93" s="4">
@@ -5289,11 +5328,11 @@
         <v>0</v>
       </c>
       <c r="G94" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H94" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I94" s="4">
@@ -5333,11 +5372,11 @@
         <v>0</v>
       </c>
       <c r="G95" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H95" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I95" s="4">
@@ -5377,11 +5416,11 @@
         <v>0</v>
       </c>
       <c r="G96" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H96" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I96" s="4">
@@ -5421,11 +5460,11 @@
         <v>0</v>
       </c>
       <c r="G97" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H97" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I97" s="4">
@@ -5465,11 +5504,11 @@
         <v>0</v>
       </c>
       <c r="G98" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H98" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I98" s="4">
@@ -5509,11 +5548,11 @@
         <v>0</v>
       </c>
       <c r="G99" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G99:G116" si="8">SUM(L99:AE99)</f>
         <v>0</v>
       </c>
       <c r="H99" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H99:H116" si="9">F99-G99</f>
         <v>0</v>
       </c>
       <c r="I99" s="4">
@@ -5553,11 +5592,11 @@
         <v>0</v>
       </c>
       <c r="G100" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H100" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I100" s="4">
@@ -5597,11 +5636,11 @@
         <v>0</v>
       </c>
       <c r="G101" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H101" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I101" s="4">
@@ -5641,11 +5680,11 @@
         <v>0</v>
       </c>
       <c r="G102" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H102" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I102" s="4">
@@ -5685,11 +5724,11 @@
         <v>0</v>
       </c>
       <c r="G103" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H103" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I103" s="4">
@@ -5729,11 +5768,11 @@
         <v>0</v>
       </c>
       <c r="G104" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H104" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I104" s="4">
@@ -5762,32 +5801,560 @@
       <c r="AE104" s="1"/>
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.6">
-      <c r="A105" s="1"/>
+      <c r="A105" s="1">
+        <v>101</v>
+      </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="4"/>
+      <c r="F105" s="2">
+        <v>0</v>
+      </c>
+      <c r="G105" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H105" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I105" s="4">
+        <v>0</v>
+      </c>
       <c r="J105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+      <c r="Y105" s="1"/>
+      <c r="Z105" s="1"/>
+      <c r="AA105" s="1"/>
+      <c r="AB105" s="1"/>
+      <c r="AC105" s="1"/>
+      <c r="AD105" s="1"/>
+      <c r="AE105" s="1"/>
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.6">
-      <c r="A106" s="1"/>
+      <c r="A106" s="1">
+        <v>102</v>
+      </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="4"/>
+      <c r="F106" s="2">
+        <v>0</v>
+      </c>
+      <c r="G106" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H106" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I106" s="4">
+        <v>0</v>
+      </c>
       <c r="J106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+      <c r="X106" s="1"/>
+      <c r="Y106" s="1"/>
+      <c r="Z106" s="1"/>
+      <c r="AA106" s="1"/>
+      <c r="AB106" s="1"/>
+      <c r="AC106" s="1"/>
+      <c r="AD106" s="1"/>
+      <c r="AE106" s="1"/>
+    </row>
+    <row r="107" spans="1:31" x14ac:dyDescent="0.6">
+      <c r="A107" s="1">
+        <v>103</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="2">
+        <v>0</v>
+      </c>
+      <c r="G107" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H107" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I107" s="4">
+        <v>0</v>
+      </c>
+      <c r="J107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+      <c r="X107" s="1"/>
+      <c r="Y107" s="1"/>
+      <c r="Z107" s="1"/>
+      <c r="AA107" s="1"/>
+      <c r="AB107" s="1"/>
+      <c r="AC107" s="1"/>
+      <c r="AD107" s="1"/>
+      <c r="AE107" s="1"/>
+    </row>
+    <row r="108" spans="1:31" x14ac:dyDescent="0.6">
+      <c r="A108" s="1">
+        <v>104</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="2">
+        <v>0</v>
+      </c>
+      <c r="G108" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H108" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I108" s="4">
+        <v>0</v>
+      </c>
+      <c r="J108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
+      <c r="Y108" s="1"/>
+      <c r="Z108" s="1"/>
+      <c r="AA108" s="1"/>
+      <c r="AB108" s="1"/>
+      <c r="AC108" s="1"/>
+      <c r="AD108" s="1"/>
+      <c r="AE108" s="1"/>
+    </row>
+    <row r="109" spans="1:31" x14ac:dyDescent="0.6">
+      <c r="A109" s="1">
+        <v>105</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="2">
+        <v>0</v>
+      </c>
+      <c r="G109" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H109" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I109" s="4">
+        <v>0</v>
+      </c>
+      <c r="J109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="X109" s="1"/>
+      <c r="Y109" s="1"/>
+      <c r="Z109" s="1"/>
+      <c r="AA109" s="1"/>
+      <c r="AB109" s="1"/>
+      <c r="AC109" s="1"/>
+      <c r="AD109" s="1"/>
+      <c r="AE109" s="1"/>
+    </row>
+    <row r="110" spans="1:31" x14ac:dyDescent="0.6">
+      <c r="A110" s="1">
+        <v>106</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="2">
+        <v>0</v>
+      </c>
+      <c r="G110" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H110" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I110" s="4">
+        <v>0</v>
+      </c>
+      <c r="J110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+      <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
+      <c r="X110" s="1"/>
+      <c r="Y110" s="1"/>
+      <c r="Z110" s="1"/>
+      <c r="AA110" s="1"/>
+      <c r="AB110" s="1"/>
+      <c r="AC110" s="1"/>
+      <c r="AD110" s="1"/>
+      <c r="AE110" s="1"/>
+    </row>
+    <row r="111" spans="1:31" x14ac:dyDescent="0.6">
+      <c r="A111" s="1">
+        <v>107</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="2">
+        <v>0</v>
+      </c>
+      <c r="G111" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H111" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I111" s="4">
+        <v>0</v>
+      </c>
+      <c r="J111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1"/>
+      <c r="U111" s="1"/>
+      <c r="V111" s="1"/>
+      <c r="W111" s="1"/>
+      <c r="X111" s="1"/>
+      <c r="Y111" s="1"/>
+      <c r="Z111" s="1"/>
+      <c r="AA111" s="1"/>
+      <c r="AB111" s="1"/>
+      <c r="AC111" s="1"/>
+      <c r="AD111" s="1"/>
+      <c r="AE111" s="1"/>
+    </row>
+    <row r="112" spans="1:31" x14ac:dyDescent="0.6">
+      <c r="A112" s="1">
+        <v>108</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="2">
+        <v>0</v>
+      </c>
+      <c r="G112" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H112" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I112" s="4">
+        <v>0</v>
+      </c>
+      <c r="J112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
+      <c r="U112" s="1"/>
+      <c r="V112" s="1"/>
+      <c r="W112" s="1"/>
+      <c r="X112" s="1"/>
+      <c r="Y112" s="1"/>
+      <c r="Z112" s="1"/>
+      <c r="AA112" s="1"/>
+      <c r="AB112" s="1"/>
+      <c r="AC112" s="1"/>
+      <c r="AD112" s="1"/>
+      <c r="AE112" s="1"/>
+    </row>
+    <row r="113" spans="1:31" x14ac:dyDescent="0.6">
+      <c r="A113" s="1">
+        <v>109</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="2">
+        <v>0</v>
+      </c>
+      <c r="G113" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H113" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I113" s="4">
+        <v>0</v>
+      </c>
+      <c r="J113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+      <c r="T113" s="1"/>
+      <c r="U113" s="1"/>
+      <c r="V113" s="1"/>
+      <c r="W113" s="1"/>
+      <c r="X113" s="1"/>
+      <c r="Y113" s="1"/>
+      <c r="Z113" s="1"/>
+      <c r="AA113" s="1"/>
+      <c r="AB113" s="1"/>
+      <c r="AC113" s="1"/>
+      <c r="AD113" s="1"/>
+      <c r="AE113" s="1"/>
+    </row>
+    <row r="114" spans="1:31" x14ac:dyDescent="0.6">
+      <c r="A114" s="1">
+        <v>110</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="2">
+        <v>0</v>
+      </c>
+      <c r="G114" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H114" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I114" s="4">
+        <v>0</v>
+      </c>
+      <c r="J114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
+      <c r="T114" s="1"/>
+      <c r="U114" s="1"/>
+      <c r="V114" s="1"/>
+      <c r="W114" s="1"/>
+      <c r="X114" s="1"/>
+      <c r="Y114" s="1"/>
+      <c r="Z114" s="1"/>
+      <c r="AA114" s="1"/>
+      <c r="AB114" s="1"/>
+      <c r="AC114" s="1"/>
+      <c r="AD114" s="1"/>
+      <c r="AE114" s="1"/>
+    </row>
+    <row r="115" spans="1:31" x14ac:dyDescent="0.6">
+      <c r="A115" s="1">
+        <v>111</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="2">
+        <v>0</v>
+      </c>
+      <c r="G115" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H115" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I115" s="4">
+        <v>0</v>
+      </c>
+      <c r="J115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+      <c r="T115" s="1"/>
+      <c r="U115" s="1"/>
+      <c r="V115" s="1"/>
+      <c r="W115" s="1"/>
+      <c r="X115" s="1"/>
+      <c r="Y115" s="1"/>
+      <c r="Z115" s="1"/>
+      <c r="AA115" s="1"/>
+      <c r="AB115" s="1"/>
+      <c r="AC115" s="1"/>
+      <c r="AD115" s="1"/>
+      <c r="AE115" s="1"/>
+    </row>
+    <row r="116" spans="1:31" x14ac:dyDescent="0.6">
+      <c r="A116" s="1">
+        <v>112</v>
+      </c>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="2">
+        <v>0</v>
+      </c>
+      <c r="G116" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H116" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I116" s="4">
+        <v>0</v>
+      </c>
+      <c r="J116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+      <c r="T116" s="1"/>
+      <c r="U116" s="1"/>
+      <c r="V116" s="1"/>
+      <c r="W116" s="1"/>
+      <c r="X116" s="1"/>
+      <c r="Y116" s="1"/>
+      <c r="Z116" s="1"/>
+      <c r="AA116" s="1"/>
+      <c r="AB116" s="1"/>
+      <c r="AC116" s="1"/>
+      <c r="AD116" s="1"/>
+      <c r="AE116" s="1"/>
+    </row>
+    <row r="117" spans="1:31" x14ac:dyDescent="0.6">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="1"/>
+    </row>
+    <row r="118" spans="1:31" x14ac:dyDescent="0.6">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="H4:H106">
+  <conditionalFormatting sqref="H4:H118">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -5797,6 +6364,32 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db">
+      <UserInfo>
+        <DisplayName>研修チーム メンバー</DisplayName>
+        <AccountId>14</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0407f581-f061-4023-8230-a56bb2488a70">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101002B575DD8F27F34448B33AFE63EFD0D8E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="48978d9a722114fd94336a748046495d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0407f581-f061-4023-8230-a56bb2488a70" xmlns:ns3="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0991ac94477647fa7d2a63066c31f3bb" ns2:_="" ns3:_="">
     <xsd:import namespace="0407f581-f061-4023-8230-a56bb2488a70"/>
@@ -6007,33 +6600,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db">
-      <UserInfo>
-        <DisplayName>研修チーム メンバー</DisplayName>
-        <AccountId>14</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0407f581-f061-4023-8230-a56bb2488a70">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B27C22-B7FB-4299-9545-CC05027530D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AC9E1B8-01F4-40B9-95F3-AB30289C9849}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db"/>
+    <ds:schemaRef ds:uri="0407f581-f061-4023-8230-a56bb2488a70"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D46D63A-865A-4ECC-8FB1-D9250E892073}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6050,23 +6636,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AC9E1B8-01F4-40B9-95F3-AB30289C9849}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db"/>
-    <ds:schemaRef ds:uri="0407f581-f061-4023-8230-a56bb2488a70"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B27C22-B7FB-4299-9545-CC05027530D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/100_受講者/05_最上/銭湯記録アプリ開発/アプリケーション作成WBS.xlsx
+++ b/100_受講者/05_最上/銭湯記録アプリ開発/アプリケーション作成WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\work\銭湯記録アプリ開発\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C931C5A7-C181-4C85-9F95-437E1B0F6FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CC8B93-BFAC-4005-BFCC-143DB1B93EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{419D748C-3A1E-D948-83B4-89E68F6A4488}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -894,11 +893,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFE88A0-CAA1-9340-A8B6-7BDAD2A12E99}">
-  <dimension ref="A1:AE118"/>
+  <dimension ref="A1:AC118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -907,21 +906,21 @@
   <cols>
     <col min="1" max="1" width="7.69140625" customWidth="1"/>
     <col min="2" max="2" width="38.3046875" customWidth="1"/>
-    <col min="3" max="3" width="14.765625" customWidth="1"/>
+    <col min="3" max="3" width="14.765625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="42.4609375" customWidth="1"/>
     <col min="5" max="5" width="27.765625" customWidth="1"/>
     <col min="6" max="6" width="12.69140625" customWidth="1"/>
     <col min="7" max="7" width="16.07421875" customWidth="1"/>
     <col min="8" max="8" width="14.07421875" customWidth="1"/>
-    <col min="12" max="31" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="29" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="32.5" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:29" ht="32.5" x14ac:dyDescent="0.6">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -965,55 +964,49 @@
         <v>45366</v>
       </c>
       <c r="P3" s="6">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="Q3" s="6">
-        <v>45368</v>
+        <v>45370</v>
       </c>
       <c r="R3" s="6">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="S3" s="6">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="T3" s="6">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="U3" s="6">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="V3" s="6">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="W3" s="6">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="X3" s="6">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="Y3" s="6">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="Z3" s="6">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="AA3" s="6">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="AB3" s="6">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="AC3" s="6">
-        <v>45380</v>
-      </c>
-      <c r="AD3" s="6">
-        <v>45381</v>
-      </c>
-      <c r="AE3" s="6">
         <v>45382</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -1031,7 +1024,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="2">
-        <f>SUM(L4:AE4)</f>
+        <f>SUM(L4:AC4)</f>
         <v>2</v>
       </c>
       <c r="H4" s="2">
@@ -1096,14 +1089,8 @@
       <c r="AC4" s="2">
         <v>0</v>
       </c>
-      <c r="AD4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1149,10 +1136,8 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1198,10 +1183,8 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1247,10 +1230,8 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1298,10 +1279,8 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1347,10 +1326,8 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1396,10 +1373,8 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1445,10 +1420,8 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1494,10 +1467,8 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1543,10 +1514,8 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1592,10 +1561,8 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1609,7 +1576,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" ref="G15:G61" si="2">SUM(L15:AE15)</f>
+        <f>SUM(L15:AC15)</f>
         <v>0</v>
       </c>
       <c r="H15" s="2">
@@ -1642,10 +1609,8 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -1691,10 +1656,8 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1742,10 +1705,8 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1791,10 +1752,8 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1840,10 +1799,8 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1889,10 +1846,8 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1938,10 +1893,8 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1987,10 +1940,8 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -2036,10 +1987,8 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -2085,10 +2034,8 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -2134,10 +2081,8 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -2185,10 +2130,8 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -2234,10 +2177,8 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -2283,10 +2224,8 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -2332,10 +2271,8 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -2381,10 +2318,8 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -2430,10 +2365,8 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -2479,10 +2412,8 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="1"/>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -2532,10 +2463,8 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -2579,10 +2508,8 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -2626,10 +2553,8 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="1"/>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -2675,10 +2600,8 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1"/>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -2724,10 +2647,8 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
-      <c r="AD37" s="1"/>
-      <c r="AE37" s="1"/>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -2741,7 +2662,7 @@
         <v>2</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="2"/>
+        <f>SUM(L38:AC38)</f>
         <v>0</v>
       </c>
       <c r="H38" s="2">
@@ -2770,10 +2691,8 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
-      <c r="AD38" s="1"/>
-      <c r="AE38" s="1"/>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -2787,7 +2706,7 @@
         <v>2</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="2"/>
+        <f>SUM(L39:AC39)</f>
         <v>0</v>
       </c>
       <c r="H39" s="2">
@@ -2816,10 +2735,8 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
-      <c r="AE39" s="1"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -2833,7 +2750,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="2"/>
+        <f>SUM(L40:AC40)</f>
         <v>0</v>
       </c>
       <c r="H40" s="2">
@@ -2862,10 +2779,8 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
-      <c r="AD40" s="1"/>
-      <c r="AE40" s="1"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -2911,10 +2826,8 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
-      <c r="AD41" s="1"/>
-      <c r="AE41" s="1"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -2928,7 +2841,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="2"/>
+        <f>SUM(L42:AC42)</f>
         <v>0</v>
       </c>
       <c r="H42" s="2">
@@ -2957,10 +2870,8 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
-      <c r="AD42" s="1"/>
-      <c r="AE42" s="1"/>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -2978,14 +2889,14 @@
         <v>3</v>
       </c>
       <c r="G43" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H43" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" s="4">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J43" s="1"/>
       <c r="L43" s="1"/>
@@ -2998,7 +2909,9 @@
       <c r="O43" s="1">
         <v>1</v>
       </c>
-      <c r="P43" s="1"/>
+      <c r="P43" s="1">
+        <v>2</v>
+      </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
@@ -3012,10 +2925,8 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
-      <c r="AD43" s="1"/>
-      <c r="AE43" s="1"/>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -3029,14 +2940,14 @@
         <v>3</v>
       </c>
       <c r="G44" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H44" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I44" s="4">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J44" s="1"/>
       <c r="L44" s="1"/>
@@ -3045,7 +2956,9 @@
       <c r="O44" s="1">
         <v>1</v>
       </c>
-      <c r="P44" s="1"/>
+      <c r="P44" s="1">
+        <v>3</v>
+      </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
@@ -3059,10 +2972,8 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
-      <c r="AD44" s="1"/>
-      <c r="AE44" s="1"/>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -3106,10 +3017,8 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
-      <c r="AD45" s="1"/>
-      <c r="AE45" s="1"/>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -3123,7 +3032,7 @@
         <v>3</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="2"/>
+        <f>SUM(L46:AC46)</f>
         <v>0</v>
       </c>
       <c r="H46" s="2">
@@ -3152,10 +3061,8 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
-      <c r="AD46" s="1"/>
-      <c r="AE46" s="1"/>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -3169,7 +3076,7 @@
         <v>3</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="2"/>
+        <f>SUM(L47:AC47)</f>
         <v>0</v>
       </c>
       <c r="H47" s="2">
@@ -3198,10 +3105,8 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
-      <c r="AD47" s="1"/>
-      <c r="AE47" s="1"/>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -3215,7 +3120,7 @@
         <v>3</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="2"/>
+        <f>SUM(L48:AC48)</f>
         <v>0</v>
       </c>
       <c r="H48" s="2">
@@ -3244,10 +3149,8 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
-      <c r="AD48" s="1"/>
-      <c r="AE48" s="1"/>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A49" s="1">
         <v>45</v>
       </c>
@@ -3261,7 +3164,7 @@
         <v>3</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="2"/>
+        <f>SUM(L49:AC49)</f>
         <v>0</v>
       </c>
       <c r="H49" s="2">
@@ -3290,10 +3193,8 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
-      <c r="AD49" s="1"/>
-      <c r="AE49" s="1"/>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A50" s="1">
         <v>46</v>
       </c>
@@ -3307,7 +3208,7 @@
         <v>3</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" si="2"/>
+        <f>SUM(L50:AC50)</f>
         <v>0</v>
       </c>
       <c r="H50" s="2">
@@ -3336,10 +3237,8 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
-      <c r="AD50" s="1"/>
-      <c r="AE50" s="1"/>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A51" s="1">
         <v>47</v>
       </c>
@@ -3353,7 +3252,7 @@
         <v>3</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="2"/>
+        <f>SUM(L51:AC51)</f>
         <v>0</v>
       </c>
       <c r="H51" s="2">
@@ -3382,10 +3281,8 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
-      <c r="AD51" s="1"/>
-      <c r="AE51" s="1"/>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A52" s="1">
         <v>48</v>
       </c>
@@ -3399,7 +3296,7 @@
         <v>3</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="2"/>
+        <f>SUM(L52:AC52)</f>
         <v>0</v>
       </c>
       <c r="H52" s="2">
@@ -3428,10 +3325,8 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
-      <c r="AD52" s="1"/>
-      <c r="AE52" s="1"/>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A53" s="1">
         <v>49</v>
       </c>
@@ -3445,7 +3340,7 @@
         <v>3</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="2"/>
+        <f>SUM(L53:AC53)</f>
         <v>0</v>
       </c>
       <c r="H53" s="2">
@@ -3474,10 +3369,8 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
-      <c r="AD53" s="1"/>
-      <c r="AE53" s="1"/>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A54" s="1">
         <v>50</v>
       </c>
@@ -3491,7 +3384,7 @@
         <v>3</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="2"/>
+        <f>SUM(L54:AC54)</f>
         <v>0</v>
       </c>
       <c r="H54" s="2">
@@ -3520,10 +3413,8 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
-      <c r="AD54" s="1"/>
-      <c r="AE54" s="1"/>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A55" s="1">
         <v>51</v>
       </c>
@@ -3537,7 +3428,7 @@
         <v>3</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="2"/>
+        <f>SUM(L55:AC55)</f>
         <v>0</v>
       </c>
       <c r="H55" s="2">
@@ -3566,10 +3457,8 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
-      <c r="AD55" s="1"/>
-      <c r="AE55" s="1"/>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A56" s="1">
         <v>52</v>
       </c>
@@ -3615,10 +3504,8 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
-      <c r="AD56" s="1"/>
-      <c r="AE56" s="1"/>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A57" s="1">
         <v>53</v>
       </c>
@@ -3632,7 +3519,7 @@
         <v>3</v>
       </c>
       <c r="G57" s="2">
-        <f t="shared" si="2"/>
+        <f>SUM(L57:AC57)</f>
         <v>0</v>
       </c>
       <c r="H57" s="2">
@@ -3661,10 +3548,8 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
-      <c r="AD57" s="1"/>
-      <c r="AE57" s="1"/>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -3678,7 +3563,7 @@
         <v>3</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" si="2"/>
+        <f>SUM(L58:AC58)</f>
         <v>0</v>
       </c>
       <c r="H58" s="2">
@@ -3707,10 +3592,8 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
-      <c r="AD58" s="1"/>
-      <c r="AE58" s="1"/>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -3756,10 +3639,8 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
-      <c r="AD59" s="1"/>
-      <c r="AE59" s="1"/>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -3773,7 +3654,7 @@
         <v>3</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" si="2"/>
+        <f>SUM(L60:AC60)</f>
         <v>0</v>
       </c>
       <c r="H60" s="2">
@@ -3802,10 +3683,8 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
-      <c r="AD60" s="1"/>
-      <c r="AE60" s="1"/>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -3819,7 +3698,7 @@
         <v>3</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" si="2"/>
+        <f>SUM(L61:AC61)</f>
         <v>0</v>
       </c>
       <c r="H61" s="2">
@@ -3848,10 +3727,8 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
       <c r="AC61" s="1"/>
-      <c r="AD61" s="1"/>
-      <c r="AE61" s="1"/>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A62" s="1">
         <v>58</v>
       </c>
@@ -3869,11 +3746,11 @@
         <v>4</v>
       </c>
       <c r="G62" s="2">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="H62" s="2">
-        <f t="shared" ref="H62:H98" si="3">F62-G62</f>
-        <v>1.5</v>
+        <f t="shared" ref="H62:H98" si="2">F62-G62</f>
+        <v>0</v>
       </c>
       <c r="I62" s="4">
         <v>0.5</v>
@@ -3889,7 +3766,9 @@
       <c r="O62" s="1">
         <v>0.5</v>
       </c>
-      <c r="P62" s="1"/>
+      <c r="P62" s="1">
+        <v>1.5</v>
+      </c>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
@@ -3903,10 +3782,8 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
-      <c r="AD62" s="1"/>
-      <c r="AE62" s="1"/>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -3920,14 +3797,14 @@
         <v>3</v>
       </c>
       <c r="G63" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H63" s="2">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I63" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J63" s="1"/>
       <c r="L63" s="1"/>
@@ -3936,7 +3813,9 @@
       <c r="O63" s="1">
         <v>1</v>
       </c>
-      <c r="P63" s="1"/>
+      <c r="P63" s="1">
+        <v>2</v>
+      </c>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
@@ -3950,10 +3829,8 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
       <c r="AC63" s="1"/>
-      <c r="AD63" s="1"/>
-      <c r="AE63" s="1"/>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -3970,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I64" s="4">
@@ -3997,10 +3874,8 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
-      <c r="AD64" s="1"/>
-      <c r="AE64" s="1"/>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -4014,11 +3889,11 @@
         <v>3</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" ref="G63:G74" si="4">SUM(L65:AE65)</f>
+        <f>SUM(L65:AC65)</f>
         <v>0</v>
       </c>
       <c r="H65" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I65" s="4">
@@ -4043,10 +3918,8 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
-      <c r="AD65" s="1"/>
-      <c r="AE65" s="1"/>
-    </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -4060,11 +3933,11 @@
         <v>3</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" si="4"/>
+        <f>SUM(L66:AC66)</f>
         <v>0</v>
       </c>
       <c r="H66" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I66" s="4">
@@ -4089,10 +3962,8 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
       <c r="AC66" s="1"/>
-      <c r="AD66" s="1"/>
-      <c r="AE66" s="1"/>
-    </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -4106,11 +3977,11 @@
         <v>3</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" si="4"/>
+        <f>SUM(L67:AC67)</f>
         <v>0</v>
       </c>
       <c r="H67" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I67" s="4">
@@ -4135,10 +4006,8 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
       <c r="AC67" s="1"/>
-      <c r="AD67" s="1"/>
-      <c r="AE67" s="1"/>
-    </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A68" s="1">
         <v>64</v>
       </c>
@@ -4152,11 +4021,11 @@
         <v>3</v>
       </c>
       <c r="G68" s="2">
-        <f t="shared" si="4"/>
+        <f>SUM(L68:AC68)</f>
         <v>0</v>
       </c>
       <c r="H68" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I68" s="4">
@@ -4181,10 +4050,8 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
       <c r="AC68" s="1"/>
-      <c r="AD68" s="1"/>
-      <c r="AE68" s="1"/>
-    </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -4198,11 +4065,11 @@
         <v>3</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" si="4"/>
+        <f>SUM(L69:AC69)</f>
         <v>0</v>
       </c>
       <c r="H69" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I69" s="4">
@@ -4227,10 +4094,8 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
       <c r="AC69" s="1"/>
-      <c r="AD69" s="1"/>
-      <c r="AE69" s="1"/>
-    </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A70" s="1">
         <v>66</v>
       </c>
@@ -4244,11 +4109,11 @@
         <v>3</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" si="4"/>
+        <f>SUM(L70:AC70)</f>
         <v>0</v>
       </c>
       <c r="H70" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I70" s="4">
@@ -4273,10 +4138,8 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
       <c r="AC70" s="1"/>
-      <c r="AD70" s="1"/>
-      <c r="AE70" s="1"/>
-    </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A71" s="1">
         <v>67</v>
       </c>
@@ -4290,11 +4153,11 @@
         <v>3</v>
       </c>
       <c r="G71" s="2">
-        <f t="shared" si="4"/>
+        <f>SUM(L71:AC71)</f>
         <v>0</v>
       </c>
       <c r="H71" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I71" s="4">
@@ -4319,10 +4182,8 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
       <c r="AC71" s="1"/>
-      <c r="AD71" s="1"/>
-      <c r="AE71" s="1"/>
-    </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A72" s="1">
         <v>68</v>
       </c>
@@ -4336,11 +4197,11 @@
         <v>3</v>
       </c>
       <c r="G72" s="2">
-        <f t="shared" si="4"/>
+        <f>SUM(L72:AC72)</f>
         <v>0</v>
       </c>
       <c r="H72" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I72" s="4">
@@ -4365,10 +4226,8 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
       <c r="AC72" s="1"/>
-      <c r="AD72" s="1"/>
-      <c r="AE72" s="1"/>
-    </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A73" s="1">
         <v>69</v>
       </c>
@@ -4382,11 +4241,11 @@
         <v>3</v>
       </c>
       <c r="G73" s="2">
-        <f t="shared" si="4"/>
+        <f>SUM(L73:AC73)</f>
         <v>0</v>
       </c>
       <c r="H73" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I73" s="4">
@@ -4411,10 +4270,8 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
-      <c r="AD73" s="1"/>
-      <c r="AE73" s="1"/>
-    </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A74" s="1">
         <v>70</v>
       </c>
@@ -4428,11 +4285,11 @@
         <v>3</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" si="4"/>
+        <f>SUM(L74:AC74)</f>
         <v>0</v>
       </c>
       <c r="H74" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I74" s="4">
@@ -4457,10 +4314,8 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
-      <c r="AD74" s="1"/>
-      <c r="AE74" s="1"/>
-    </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A75" s="1">
         <v>71</v>
       </c>
@@ -4479,7 +4334,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I75" s="4">
@@ -4506,10 +4361,8 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
-      <c r="AD75" s="1"/>
-      <c r="AE75" s="1"/>
-    </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A76" s="1">
         <v>72</v>
       </c>
@@ -4523,11 +4376,11 @@
         <v>3</v>
       </c>
       <c r="G76" s="2">
-        <f t="shared" ref="G76:G77" si="5">SUM(L76:AE76)</f>
+        <f>SUM(L76:AC76)</f>
         <v>0</v>
       </c>
       <c r="H76" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I76" s="4">
@@ -4552,10 +4405,8 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
-      <c r="AD76" s="1"/>
-      <c r="AE76" s="1"/>
-    </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A77" s="1">
         <v>73</v>
       </c>
@@ -4569,11 +4420,11 @@
         <v>3</v>
       </c>
       <c r="G77" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(L77:AC77)</f>
         <v>0</v>
       </c>
       <c r="H77" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I77" s="4">
@@ -4598,10 +4449,8 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
-      <c r="AD77" s="1"/>
-      <c r="AE77" s="1"/>
-    </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A78" s="1">
         <v>74</v>
       </c>
@@ -4620,7 +4469,7 @@
         <v>2</v>
       </c>
       <c r="H78" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I78" s="4">
@@ -4647,10 +4496,8 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
-      <c r="AD78" s="1"/>
-      <c r="AE78" s="1"/>
-    </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A79" s="1">
         <v>75</v>
       </c>
@@ -4664,11 +4511,11 @@
         <v>3</v>
       </c>
       <c r="G79" s="2">
-        <f t="shared" ref="G79:G80" si="6">SUM(L79:AE79)</f>
+        <f>SUM(L79:AC79)</f>
         <v>0</v>
       </c>
       <c r="H79" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I79" s="4">
@@ -4693,10 +4540,8 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
-      <c r="AD79" s="1"/>
-      <c r="AE79" s="1"/>
-    </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A80" s="1">
         <v>76</v>
       </c>
@@ -4710,11 +4555,11 @@
         <v>3</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" si="6"/>
+        <f>SUM(L80:AC80)</f>
         <v>0</v>
       </c>
       <c r="H80" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I80" s="4">
@@ -4739,10 +4584,8 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
-      <c r="AD80" s="1"/>
-      <c r="AE80" s="1"/>
-    </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A81" s="1">
         <v>77</v>
       </c>
@@ -4756,11 +4599,11 @@
         <v>4</v>
       </c>
       <c r="G81" s="2">
-        <f t="shared" ref="G81:G98" si="7">SUM(L81:AE81)</f>
+        <f>SUM(L81:AC81)</f>
         <v>0</v>
       </c>
       <c r="H81" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I81" s="4">
@@ -4785,10 +4628,8 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
       <c r="AC81" s="1"/>
-      <c r="AD81" s="1"/>
-      <c r="AE81" s="1"/>
-    </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A82" s="1">
         <v>78</v>
       </c>
@@ -4800,11 +4641,11 @@
         <v>0</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" si="7"/>
+        <f>SUM(L82:AC82)</f>
         <v>0</v>
       </c>
       <c r="H82" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I82" s="4">
@@ -4829,10 +4670,8 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
       <c r="AC82" s="1"/>
-      <c r="AD82" s="1"/>
-      <c r="AE82" s="1"/>
-    </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -4844,11 +4683,11 @@
         <v>0</v>
       </c>
       <c r="G83" s="2">
-        <f t="shared" si="7"/>
+        <f>SUM(L83:AC83)</f>
         <v>0</v>
       </c>
       <c r="H83" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I83" s="4">
@@ -4873,10 +4712,8 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
       <c r="AC83" s="1"/>
-      <c r="AD83" s="1"/>
-      <c r="AE83" s="1"/>
-    </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A84" s="1">
         <v>80</v>
       </c>
@@ -4888,11 +4725,11 @@
         <v>0</v>
       </c>
       <c r="G84" s="2">
-        <f t="shared" si="7"/>
+        <f>SUM(L84:AC84)</f>
         <v>0</v>
       </c>
       <c r="H84" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I84" s="4">
@@ -4917,10 +4754,8 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
       <c r="AC84" s="1"/>
-      <c r="AD84" s="1"/>
-      <c r="AE84" s="1"/>
-    </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A85" s="1">
         <v>81</v>
       </c>
@@ -4932,11 +4767,11 @@
         <v>0</v>
       </c>
       <c r="G85" s="2">
-        <f t="shared" si="7"/>
+        <f>SUM(L85:AC85)</f>
         <v>0</v>
       </c>
       <c r="H85" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I85" s="4">
@@ -4961,10 +4796,8 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
       <c r="AC85" s="1"/>
-      <c r="AD85" s="1"/>
-      <c r="AE85" s="1"/>
-    </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A86" s="1">
         <v>82</v>
       </c>
@@ -4976,11 +4809,11 @@
         <v>0</v>
       </c>
       <c r="G86" s="2">
-        <f t="shared" si="7"/>
+        <f>SUM(L86:AC86)</f>
         <v>0</v>
       </c>
       <c r="H86" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I86" s="4">
@@ -5005,10 +4838,8 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
       <c r="AC86" s="1"/>
-      <c r="AD86" s="1"/>
-      <c r="AE86" s="1"/>
-    </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A87" s="1">
         <v>83</v>
       </c>
@@ -5020,11 +4851,11 @@
         <v>0</v>
       </c>
       <c r="G87" s="2">
-        <f t="shared" si="7"/>
+        <f>SUM(L87:AC87)</f>
         <v>0</v>
       </c>
       <c r="H87" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I87" s="4">
@@ -5049,10 +4880,8 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
       <c r="AC87" s="1"/>
-      <c r="AD87" s="1"/>
-      <c r="AE87" s="1"/>
-    </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A88" s="1">
         <v>84</v>
       </c>
@@ -5064,11 +4893,11 @@
         <v>0</v>
       </c>
       <c r="G88" s="2">
-        <f t="shared" si="7"/>
+        <f>SUM(L88:AC88)</f>
         <v>0</v>
       </c>
       <c r="H88" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I88" s="4">
@@ -5093,10 +4922,8 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
       <c r="AC88" s="1"/>
-      <c r="AD88" s="1"/>
-      <c r="AE88" s="1"/>
-    </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A89" s="1">
         <v>85</v>
       </c>
@@ -5108,11 +4935,11 @@
         <v>0</v>
       </c>
       <c r="G89" s="2">
-        <f t="shared" si="7"/>
+        <f>SUM(L89:AC89)</f>
         <v>0</v>
       </c>
       <c r="H89" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I89" s="4">
@@ -5137,10 +4964,8 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
       <c r="AC89" s="1"/>
-      <c r="AD89" s="1"/>
-      <c r="AE89" s="1"/>
-    </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A90" s="1">
         <v>86</v>
       </c>
@@ -5152,11 +4977,11 @@
         <v>0</v>
       </c>
       <c r="G90" s="2">
-        <f t="shared" si="7"/>
+        <f>SUM(L90:AC90)</f>
         <v>0</v>
       </c>
       <c r="H90" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I90" s="4">
@@ -5181,10 +5006,8 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
       <c r="AC90" s="1"/>
-      <c r="AD90" s="1"/>
-      <c r="AE90" s="1"/>
-    </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A91" s="1">
         <v>87</v>
       </c>
@@ -5196,11 +5019,11 @@
         <v>0</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" si="7"/>
+        <f>SUM(L91:AC91)</f>
         <v>0</v>
       </c>
       <c r="H91" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I91" s="4">
@@ -5225,10 +5048,8 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
       <c r="AC91" s="1"/>
-      <c r="AD91" s="1"/>
-      <c r="AE91" s="1"/>
-    </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A92" s="1">
         <v>88</v>
       </c>
@@ -5240,11 +5061,11 @@
         <v>0</v>
       </c>
       <c r="G92" s="2">
-        <f t="shared" si="7"/>
+        <f>SUM(L92:AC92)</f>
         <v>0</v>
       </c>
       <c r="H92" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I92" s="4">
@@ -5269,10 +5090,8 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
       <c r="AC92" s="1"/>
-      <c r="AD92" s="1"/>
-      <c r="AE92" s="1"/>
-    </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A93" s="1">
         <v>89</v>
       </c>
@@ -5284,11 +5103,11 @@
         <v>0</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" si="7"/>
+        <f>SUM(L93:AC93)</f>
         <v>0</v>
       </c>
       <c r="H93" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I93" s="4">
@@ -5313,10 +5132,8 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
       <c r="AC93" s="1"/>
-      <c r="AD93" s="1"/>
-      <c r="AE93" s="1"/>
-    </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A94" s="1">
         <v>90</v>
       </c>
@@ -5328,11 +5145,11 @@
         <v>0</v>
       </c>
       <c r="G94" s="2">
-        <f t="shared" si="7"/>
+        <f>SUM(L94:AC94)</f>
         <v>0</v>
       </c>
       <c r="H94" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I94" s="4">
@@ -5357,10 +5174,8 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
       <c r="AC94" s="1"/>
-      <c r="AD94" s="1"/>
-      <c r="AE94" s="1"/>
-    </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A95" s="1">
         <v>91</v>
       </c>
@@ -5372,11 +5187,11 @@
         <v>0</v>
       </c>
       <c r="G95" s="2">
-        <f t="shared" si="7"/>
+        <f>SUM(L95:AC95)</f>
         <v>0</v>
       </c>
       <c r="H95" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I95" s="4">
@@ -5401,10 +5216,8 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
       <c r="AC95" s="1"/>
-      <c r="AD95" s="1"/>
-      <c r="AE95" s="1"/>
-    </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A96" s="1">
         <v>92</v>
       </c>
@@ -5416,11 +5229,11 @@
         <v>0</v>
       </c>
       <c r="G96" s="2">
-        <f t="shared" si="7"/>
+        <f>SUM(L96:AC96)</f>
         <v>0</v>
       </c>
       <c r="H96" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I96" s="4">
@@ -5445,10 +5258,8 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
       <c r="AC96" s="1"/>
-      <c r="AD96" s="1"/>
-      <c r="AE96" s="1"/>
-    </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="97" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A97" s="1">
         <v>93</v>
       </c>
@@ -5460,11 +5271,11 @@
         <v>0</v>
       </c>
       <c r="G97" s="2">
-        <f t="shared" si="7"/>
+        <f>SUM(L97:AC97)</f>
         <v>0</v>
       </c>
       <c r="H97" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I97" s="4">
@@ -5489,10 +5300,8 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
       <c r="AC97" s="1"/>
-      <c r="AD97" s="1"/>
-      <c r="AE97" s="1"/>
-    </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A98" s="1">
         <v>94</v>
       </c>
@@ -5504,11 +5313,11 @@
         <v>0</v>
       </c>
       <c r="G98" s="2">
-        <f t="shared" si="7"/>
+        <f>SUM(L98:AC98)</f>
         <v>0</v>
       </c>
       <c r="H98" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I98" s="4">
@@ -5533,10 +5342,8 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
       <c r="AC98" s="1"/>
-      <c r="AD98" s="1"/>
-      <c r="AE98" s="1"/>
-    </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A99" s="1">
         <v>95</v>
       </c>
@@ -5548,11 +5355,11 @@
         <v>0</v>
       </c>
       <c r="G99" s="2">
-        <f t="shared" ref="G99:G116" si="8">SUM(L99:AE99)</f>
+        <f>SUM(L99:AC99)</f>
         <v>0</v>
       </c>
       <c r="H99" s="2">
-        <f t="shared" ref="H99:H116" si="9">F99-G99</f>
+        <f t="shared" ref="H99:H116" si="3">F99-G99</f>
         <v>0</v>
       </c>
       <c r="I99" s="4">
@@ -5577,10 +5384,8 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
       <c r="AC99" s="1"/>
-      <c r="AD99" s="1"/>
-      <c r="AE99" s="1"/>
-    </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A100" s="1">
         <v>96</v>
       </c>
@@ -5592,11 +5397,11 @@
         <v>0</v>
       </c>
       <c r="G100" s="2">
-        <f t="shared" si="8"/>
+        <f>SUM(L100:AC100)</f>
         <v>0</v>
       </c>
       <c r="H100" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I100" s="4">
@@ -5621,10 +5426,8 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
       <c r="AC100" s="1"/>
-      <c r="AD100" s="1"/>
-      <c r="AE100" s="1"/>
-    </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A101" s="1">
         <v>97</v>
       </c>
@@ -5636,11 +5439,11 @@
         <v>0</v>
       </c>
       <c r="G101" s="2">
-        <f t="shared" si="8"/>
+        <f>SUM(L101:AC101)</f>
         <v>0</v>
       </c>
       <c r="H101" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I101" s="4">
@@ -5665,10 +5468,8 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
       <c r="AC101" s="1"/>
-      <c r="AD101" s="1"/>
-      <c r="AE101" s="1"/>
-    </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A102" s="1">
         <v>98</v>
       </c>
@@ -5680,11 +5481,11 @@
         <v>0</v>
       </c>
       <c r="G102" s="2">
-        <f t="shared" si="8"/>
+        <f>SUM(L102:AC102)</f>
         <v>0</v>
       </c>
       <c r="H102" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I102" s="4">
@@ -5709,10 +5510,8 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
       <c r="AC102" s="1"/>
-      <c r="AD102" s="1"/>
-      <c r="AE102" s="1"/>
-    </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A103" s="1">
         <v>99</v>
       </c>
@@ -5724,11 +5523,11 @@
         <v>0</v>
       </c>
       <c r="G103" s="2">
-        <f t="shared" si="8"/>
+        <f>SUM(L103:AC103)</f>
         <v>0</v>
       </c>
       <c r="H103" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I103" s="4">
@@ -5753,10 +5552,8 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
       <c r="AC103" s="1"/>
-      <c r="AD103" s="1"/>
-      <c r="AE103" s="1"/>
-    </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A104" s="1">
         <v>100</v>
       </c>
@@ -5768,11 +5565,11 @@
         <v>0</v>
       </c>
       <c r="G104" s="2">
-        <f t="shared" si="8"/>
+        <f>SUM(L104:AC104)</f>
         <v>0</v>
       </c>
       <c r="H104" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I104" s="4">
@@ -5797,10 +5594,8 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
       <c r="AC104" s="1"/>
-      <c r="AD104" s="1"/>
-      <c r="AE104" s="1"/>
-    </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A105" s="1">
         <v>101</v>
       </c>
@@ -5812,11 +5607,11 @@
         <v>0</v>
       </c>
       <c r="G105" s="2">
-        <f t="shared" si="8"/>
+        <f>SUM(L105:AC105)</f>
         <v>0</v>
       </c>
       <c r="H105" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I105" s="4">
@@ -5841,10 +5636,8 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
       <c r="AC105" s="1"/>
-      <c r="AD105" s="1"/>
-      <c r="AE105" s="1"/>
-    </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="106" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A106" s="1">
         <v>102</v>
       </c>
@@ -5856,11 +5649,11 @@
         <v>0</v>
       </c>
       <c r="G106" s="2">
-        <f t="shared" si="8"/>
+        <f>SUM(L106:AC106)</f>
         <v>0</v>
       </c>
       <c r="H106" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I106" s="4">
@@ -5885,10 +5678,8 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
       <c r="AC106" s="1"/>
-      <c r="AD106" s="1"/>
-      <c r="AE106" s="1"/>
-    </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="107" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A107" s="1">
         <v>103</v>
       </c>
@@ -5900,11 +5691,11 @@
         <v>0</v>
       </c>
       <c r="G107" s="2">
-        <f t="shared" si="8"/>
+        <f>SUM(L107:AC107)</f>
         <v>0</v>
       </c>
       <c r="H107" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I107" s="4">
@@ -5929,10 +5720,8 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
       <c r="AC107" s="1"/>
-      <c r="AD107" s="1"/>
-      <c r="AE107" s="1"/>
-    </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="108" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A108" s="1">
         <v>104</v>
       </c>
@@ -5944,11 +5733,11 @@
         <v>0</v>
       </c>
       <c r="G108" s="2">
-        <f t="shared" si="8"/>
+        <f>SUM(L108:AC108)</f>
         <v>0</v>
       </c>
       <c r="H108" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I108" s="4">
@@ -5973,10 +5762,8 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
       <c r="AC108" s="1"/>
-      <c r="AD108" s="1"/>
-      <c r="AE108" s="1"/>
-    </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="109" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A109" s="1">
         <v>105</v>
       </c>
@@ -5988,11 +5775,11 @@
         <v>0</v>
       </c>
       <c r="G109" s="2">
-        <f t="shared" si="8"/>
+        <f>SUM(L109:AC109)</f>
         <v>0</v>
       </c>
       <c r="H109" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I109" s="4">
@@ -6017,10 +5804,8 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
       <c r="AC109" s="1"/>
-      <c r="AD109" s="1"/>
-      <c r="AE109" s="1"/>
-    </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A110" s="1">
         <v>106</v>
       </c>
@@ -6032,11 +5817,11 @@
         <v>0</v>
       </c>
       <c r="G110" s="2">
-        <f t="shared" si="8"/>
+        <f>SUM(L110:AC110)</f>
         <v>0</v>
       </c>
       <c r="H110" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I110" s="4">
@@ -6061,10 +5846,8 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
       <c r="AC110" s="1"/>
-      <c r="AD110" s="1"/>
-      <c r="AE110" s="1"/>
-    </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="111" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A111" s="1">
         <v>107</v>
       </c>
@@ -6076,11 +5859,11 @@
         <v>0</v>
       </c>
       <c r="G111" s="2">
-        <f t="shared" si="8"/>
+        <f>SUM(L111:AC111)</f>
         <v>0</v>
       </c>
       <c r="H111" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I111" s="4">
@@ -6105,10 +5888,8 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
       <c r="AC111" s="1"/>
-      <c r="AD111" s="1"/>
-      <c r="AE111" s="1"/>
-    </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="112" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A112" s="1">
         <v>108</v>
       </c>
@@ -6120,11 +5901,11 @@
         <v>0</v>
       </c>
       <c r="G112" s="2">
-        <f t="shared" si="8"/>
+        <f>SUM(L112:AC112)</f>
         <v>0</v>
       </c>
       <c r="H112" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I112" s="4">
@@ -6149,10 +5930,8 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
       <c r="AC112" s="1"/>
-      <c r="AD112" s="1"/>
-      <c r="AE112" s="1"/>
-    </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="113" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A113" s="1">
         <v>109</v>
       </c>
@@ -6164,11 +5943,11 @@
         <v>0</v>
       </c>
       <c r="G113" s="2">
-        <f t="shared" si="8"/>
+        <f>SUM(L113:AC113)</f>
         <v>0</v>
       </c>
       <c r="H113" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I113" s="4">
@@ -6193,10 +5972,8 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
       <c r="AC113" s="1"/>
-      <c r="AD113" s="1"/>
-      <c r="AE113" s="1"/>
-    </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="114" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A114" s="1">
         <v>110</v>
       </c>
@@ -6208,11 +5985,11 @@
         <v>0</v>
       </c>
       <c r="G114" s="2">
-        <f t="shared" si="8"/>
+        <f>SUM(L114:AC114)</f>
         <v>0</v>
       </c>
       <c r="H114" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I114" s="4">
@@ -6237,10 +6014,8 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
       <c r="AC114" s="1"/>
-      <c r="AD114" s="1"/>
-      <c r="AE114" s="1"/>
-    </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="115" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A115" s="1">
         <v>111</v>
       </c>
@@ -6252,11 +6027,11 @@
         <v>0</v>
       </c>
       <c r="G115" s="2">
-        <f t="shared" si="8"/>
+        <f>SUM(L115:AC115)</f>
         <v>0</v>
       </c>
       <c r="H115" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I115" s="4">
@@ -6281,10 +6056,8 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
       <c r="AC115" s="1"/>
-      <c r="AD115" s="1"/>
-      <c r="AE115" s="1"/>
-    </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="116" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A116" s="1">
         <v>112</v>
       </c>
@@ -6296,11 +6069,11 @@
         <v>0</v>
       </c>
       <c r="G116" s="2">
-        <f t="shared" si="8"/>
+        <f>SUM(L116:AC116)</f>
         <v>0</v>
       </c>
       <c r="H116" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I116" s="4">
@@ -6325,10 +6098,8 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
       <c r="AC116" s="1"/>
-      <c r="AD116" s="1"/>
-      <c r="AE116" s="1"/>
-    </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.6">
+    </row>
+    <row r="117" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -6340,7 +6111,7 @@
       <c r="I117" s="4"/>
       <c r="J117" s="1"/>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -6364,32 +6135,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db">
-      <UserInfo>
-        <DisplayName>研修チーム メンバー</DisplayName>
-        <AccountId>14</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0407f581-f061-4023-8230-a56bb2488a70">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101002B575DD8F27F34448B33AFE63EFD0D8E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="48978d9a722114fd94336a748046495d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0407f581-f061-4023-8230-a56bb2488a70" xmlns:ns3="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0991ac94477647fa7d2a63066c31f3bb" ns2:_="" ns3:_="">
     <xsd:import namespace="0407f581-f061-4023-8230-a56bb2488a70"/>
@@ -6600,10 +6345,47 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db">
+      <UserInfo>
+        <DisplayName>研修チーム メンバー</DisplayName>
+        <AccountId>14</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0407f581-f061-4023-8230-a56bb2488a70">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B27C22-B7FB-4299-9545-CC05027530D6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D46D63A-865A-4ECC-8FB1-D9250E892073}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0407f581-f061-4023-8230-a56bb2488a70"/>
+    <ds:schemaRef ds:uri="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6620,20 +6402,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D46D63A-865A-4ECC-8FB1-D9250E892073}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B27C22-B7FB-4299-9545-CC05027530D6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0407f581-f061-4023-8230-a56bb2488a70"/>
-    <ds:schemaRef ds:uri="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/100_受講者/05_最上/銭湯記録アプリ開発/アプリケーション作成WBS.xlsx
+++ b/100_受講者/05_最上/銭湯記録アプリ開発/アプリケーション作成WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\work\銭湯記録アプリ開発\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CC8B93-BFAC-4005-BFCC-143DB1B93EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FC5F45-8800-49D3-97F4-166BA1720595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{419D748C-3A1E-D948-83B4-89E68F6A4488}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="101">
   <si>
     <t>アプリケーション作成WBS</t>
     <rPh sb="8" eb="10">
@@ -414,6 +414,305 @@
   </si>
   <si>
     <t>SearchWord</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップページ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一覧表示</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記録内容表示（個別表示）へ遷移</t>
+    <rPh sb="0" eb="2">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>施設名、住所クリックで遷移</t>
+    <rPh sb="0" eb="3">
+      <t>シセツメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索ワード入力後、検索ボタンクリック</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>絞り込み</t>
+    <rPh sb="0" eb="1">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>条件を絞り込んで絞り込みボタンクリック</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記録追加（新規）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記録追加（新規）へ遷移</t>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記録ボタンクリックで遷移</t>
+    <rPh sb="0" eb="2">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記録内容表示（個別表示）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップページへ遷移</t>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TOPボタンクリックで遷移</t>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記録の編集へ遷移</t>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>編集ボタンクリックで遷移</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記録の削除</t>
+    <rPh sb="0" eb="2">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記録の登録</t>
+    <rPh sb="0" eb="2">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録ボタンクリック後、記録内容が登録</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録ボタンクリックで遷移</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記録の編集</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記録の削除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記録の削除ダイアログ表示</t>
+    <rPh sb="0" eb="2">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除ボタンクリックでダイアログ表示</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除するボタンクリックで記録内容削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>キロクナイヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記録内容表示（個別表示）へ遷移</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャンセルボタンクリックで遷移</t>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>絞り込み結果表示</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>絞り込み解除</t>
+    <rPh sb="0" eb="1">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リセットボタンクリックで一覧表示</t>
+    <rPh sb="12" eb="14">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索結果表示</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -896,19 +1195,19 @@
   <dimension ref="A1:AC118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="E77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="7.69140625" customWidth="1"/>
     <col min="2" max="2" width="38.3046875" customWidth="1"/>
-    <col min="3" max="3" width="14.765625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="29.3828125" customWidth="1"/>
     <col min="4" max="4" width="42.4609375" customWidth="1"/>
-    <col min="5" max="5" width="27.765625" customWidth="1"/>
+    <col min="5" max="5" width="37.4609375" customWidth="1"/>
     <col min="6" max="6" width="12.69140625" customWidth="1"/>
     <col min="7" max="7" width="16.07421875" customWidth="1"/>
     <col min="8" max="8" width="14.07421875" customWidth="1"/>
@@ -3032,7 +3331,7 @@
         <v>3</v>
       </c>
       <c r="G46" s="2">
-        <f>SUM(L46:AC46)</f>
+        <f t="shared" ref="G46:G55" si="2">SUM(L46:AC46)</f>
         <v>0</v>
       </c>
       <c r="H46" s="2">
@@ -3076,7 +3375,7 @@
         <v>3</v>
       </c>
       <c r="G47" s="2">
-        <f>SUM(L47:AC47)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H47" s="2">
@@ -3120,7 +3419,7 @@
         <v>3</v>
       </c>
       <c r="G48" s="2">
-        <f>SUM(L48:AC48)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H48" s="2">
@@ -3164,7 +3463,7 @@
         <v>3</v>
       </c>
       <c r="G49" s="2">
-        <f>SUM(L49:AC49)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H49" s="2">
@@ -3208,7 +3507,7 @@
         <v>3</v>
       </c>
       <c r="G50" s="2">
-        <f>SUM(L50:AC50)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H50" s="2">
@@ -3252,7 +3551,7 @@
         <v>3</v>
       </c>
       <c r="G51" s="2">
-        <f>SUM(L51:AC51)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H51" s="2">
@@ -3296,7 +3595,7 @@
         <v>3</v>
       </c>
       <c r="G52" s="2">
-        <f>SUM(L52:AC52)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H52" s="2">
@@ -3340,7 +3639,7 @@
         <v>3</v>
       </c>
       <c r="G53" s="2">
-        <f>SUM(L53:AC53)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H53" s="2">
@@ -3384,7 +3683,7 @@
         <v>3</v>
       </c>
       <c r="G54" s="2">
-        <f>SUM(L54:AC54)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H54" s="2">
@@ -3428,7 +3727,7 @@
         <v>3</v>
       </c>
       <c r="G55" s="2">
-        <f>SUM(L55:AC55)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H55" s="2">
@@ -3749,7 +4048,7 @@
         <v>4</v>
       </c>
       <c r="H62" s="2">
-        <f t="shared" ref="H62:H98" si="2">F62-G62</f>
+        <f t="shared" ref="H62:H98" si="3">F62-G62</f>
         <v>0</v>
       </c>
       <c r="I62" s="4">
@@ -3800,7 +4099,7 @@
         <v>3</v>
       </c>
       <c r="H63" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I63" s="4">
@@ -3847,7 +4146,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I64" s="4">
@@ -3889,11 +4188,11 @@
         <v>3</v>
       </c>
       <c r="G65" s="2">
-        <f>SUM(L65:AC65)</f>
+        <f t="shared" ref="G65:G74" si="4">SUM(L65:AC65)</f>
         <v>0</v>
       </c>
       <c r="H65" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I65" s="4">
@@ -3933,11 +4232,11 @@
         <v>3</v>
       </c>
       <c r="G66" s="2">
-        <f>SUM(L66:AC66)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H66" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I66" s="4">
@@ -3977,11 +4276,11 @@
         <v>3</v>
       </c>
       <c r="G67" s="2">
-        <f>SUM(L67:AC67)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H67" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I67" s="4">
@@ -4021,11 +4320,11 @@
         <v>3</v>
       </c>
       <c r="G68" s="2">
-        <f>SUM(L68:AC68)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H68" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I68" s="4">
@@ -4065,11 +4364,11 @@
         <v>3</v>
       </c>
       <c r="G69" s="2">
-        <f>SUM(L69:AC69)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H69" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I69" s="4">
@@ -4109,11 +4408,11 @@
         <v>3</v>
       </c>
       <c r="G70" s="2">
-        <f>SUM(L70:AC70)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H70" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I70" s="4">
@@ -4153,11 +4452,11 @@
         <v>3</v>
       </c>
       <c r="G71" s="2">
-        <f>SUM(L71:AC71)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H71" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I71" s="4">
@@ -4197,11 +4496,11 @@
         <v>3</v>
       </c>
       <c r="G72" s="2">
-        <f>SUM(L72:AC72)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H72" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I72" s="4">
@@ -4241,11 +4540,11 @@
         <v>3</v>
       </c>
       <c r="G73" s="2">
-        <f>SUM(L73:AC73)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H73" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I73" s="4">
@@ -4285,11 +4584,11 @@
         <v>3</v>
       </c>
       <c r="G74" s="2">
-        <f>SUM(L74:AC74)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H74" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I74" s="4">
@@ -4334,7 +4633,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I75" s="4">
@@ -4380,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="H76" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I76" s="4">
@@ -4424,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I77" s="4">
@@ -4469,7 +4768,7 @@
         <v>2</v>
       </c>
       <c r="H78" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I78" s="4">
@@ -4511,11 +4810,11 @@
         <v>3</v>
       </c>
       <c r="G79" s="2">
-        <f>SUM(L79:AC79)</f>
+        <f t="shared" ref="G79:G116" si="5">SUM(L79:AC79)</f>
         <v>0</v>
       </c>
       <c r="H79" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I79" s="4">
@@ -4555,11 +4854,11 @@
         <v>3</v>
       </c>
       <c r="G80" s="2">
-        <f>SUM(L80:AC80)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H80" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I80" s="4">
@@ -4599,11 +4898,11 @@
         <v>4</v>
       </c>
       <c r="G81" s="2">
-        <f>SUM(L81:AC81)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H81" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I81" s="4">
@@ -4633,25 +4932,31 @@
       <c r="A82" s="1">
         <v>78</v>
       </c>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
+      <c r="B82" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="2">
         <v>0</v>
       </c>
       <c r="G82" s="2">
-        <f>SUM(L82:AC82)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H82" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I82" s="4">
-        <v>0</v>
-      </c>
-      <c r="J82" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
@@ -4676,24 +4981,30 @@
         <v>79</v>
       </c>
       <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
+      <c r="C83" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
+      <c r="E83" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="F83" s="2">
         <v>0</v>
       </c>
       <c r="G83" s="2">
-        <f>SUM(L83:AC83)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H83" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I83" s="4">
-        <v>0</v>
-      </c>
-      <c r="J83" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
@@ -4718,19 +5029,23 @@
         <v>80</v>
       </c>
       <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
+      <c r="C84" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
+      <c r="E84" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="F84" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G84" s="2">
-        <f>SUM(L84:AC84)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H84" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="I84" s="4">
         <v>0</v>
@@ -4760,19 +5075,23 @@
         <v>81</v>
       </c>
       <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
+      <c r="C85" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
+      <c r="E85" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="F85" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G85" s="2">
-        <f>SUM(L85:AC85)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H85" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="I85" s="4">
         <v>0</v>
@@ -4802,24 +5121,30 @@
         <v>82</v>
       </c>
       <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
+      <c r="C86" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
+      <c r="E86" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="F86" s="2">
         <v>0</v>
       </c>
       <c r="G86" s="2">
-        <f>SUM(L86:AC86)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H86" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I86" s="4">
-        <v>0</v>
-      </c>
-      <c r="J86" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
@@ -4843,23 +5168,27 @@
       <c r="A87" s="1">
         <v>83</v>
       </c>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
+      <c r="B87" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G87" s="2">
-        <f>SUM(L87:AC87)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H87" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="I87" s="4">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="J87" s="1"/>
       <c r="L87" s="1"/>
@@ -4886,24 +5215,30 @@
         <v>84</v>
       </c>
       <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
+      <c r="C88" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
+      <c r="E88" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="F88" s="2">
         <v>0</v>
       </c>
       <c r="G88" s="2">
-        <f>SUM(L88:AC88)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H88" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I88" s="4">
-        <v>0</v>
-      </c>
-      <c r="J88" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
@@ -4928,24 +5263,30 @@
         <v>85</v>
       </c>
       <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
+      <c r="C89" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
+      <c r="E89" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="F89" s="2">
         <v>0</v>
       </c>
       <c r="G89" s="2">
-        <f>SUM(L89:AC89)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H89" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I89" s="4">
-        <v>0</v>
-      </c>
-      <c r="J89" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
@@ -4970,19 +5311,23 @@
         <v>86</v>
       </c>
       <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
+      <c r="C90" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
+      <c r="E90" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="F90" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G90" s="2">
-        <f>SUM(L90:AC90)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H90" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="I90" s="4">
         <v>0</v>
@@ -5011,25 +5356,31 @@
       <c r="A91" s="1">
         <v>87</v>
       </c>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
+      <c r="B91" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="2">
         <v>0</v>
       </c>
       <c r="G91" s="2">
-        <f>SUM(L91:AC91)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H91" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I91" s="4">
-        <v>0</v>
-      </c>
-      <c r="J91" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
@@ -5054,24 +5405,30 @@
         <v>88</v>
       </c>
       <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
+      <c r="C92" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
+      <c r="E92" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="F92" s="2">
         <v>0</v>
       </c>
       <c r="G92" s="2">
-        <f>SUM(L92:AC92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H92" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I92" s="4">
-        <v>0</v>
-      </c>
-      <c r="J92" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
@@ -5096,24 +5453,30 @@
         <v>89</v>
       </c>
       <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
+      <c r="C93" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
+      <c r="E93" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="F93" s="2">
         <v>0</v>
       </c>
       <c r="G93" s="2">
-        <f>SUM(L93:AC93)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H93" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I93" s="4">
-        <v>0</v>
-      </c>
-      <c r="J93" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
@@ -5138,19 +5501,23 @@
         <v>90</v>
       </c>
       <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
+      <c r="C94" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
+      <c r="E94" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="F94" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G94" s="2">
-        <f>SUM(L94:AC94)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H94" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="I94" s="4">
         <v>0</v>
@@ -5179,23 +5546,27 @@
       <c r="A95" s="1">
         <v>91</v>
       </c>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
+      <c r="B95" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G95" s="2">
-        <f>SUM(L95:AC95)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H95" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="I95" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J95" s="1"/>
       <c r="L95" s="1"/>
@@ -5222,24 +5593,30 @@
         <v>92</v>
       </c>
       <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
+      <c r="C96" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
+      <c r="E96" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="F96" s="2">
         <v>0</v>
       </c>
       <c r="G96" s="2">
-        <f>SUM(L96:AC96)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H96" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I96" s="4">
-        <v>0</v>
-      </c>
-      <c r="J96" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
@@ -5264,19 +5641,23 @@
         <v>93</v>
       </c>
       <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
+      <c r="C97" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
+      <c r="E97" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="F97" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G97" s="2">
-        <f>SUM(L97:AC97)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H97" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="I97" s="4">
         <v>0</v>
@@ -5306,19 +5687,23 @@
         <v>94</v>
       </c>
       <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
+      <c r="C98" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
+      <c r="E98" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="F98" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G98" s="2">
-        <f>SUM(L98:AC98)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H98" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="I98" s="4">
         <v>0</v>
@@ -5347,20 +5732,26 @@
       <c r="A99" s="1">
         <v>95</v>
       </c>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
+      <c r="B99" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
+      <c r="E99" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="F99" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G99" s="2">
-        <f>SUM(L99:AC99)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H99" s="2">
-        <f t="shared" ref="H99:H116" si="3">F99-G99</f>
-        <v>0</v>
+        <f t="shared" ref="H99:H116" si="6">F99-G99</f>
+        <v>4</v>
       </c>
       <c r="I99" s="4">
         <v>0</v>
@@ -5390,19 +5781,23 @@
         <v>96</v>
       </c>
       <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
+      <c r="C100" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
+      <c r="E100" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="F100" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" s="2">
-        <f>SUM(L100:AC100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H100" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="I100" s="4">
         <v>0</v>
@@ -5431,20 +5826,24 @@
       <c r="A101" s="1">
         <v>97</v>
       </c>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
+      <c r="B101" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G101" s="2">
-        <f>SUM(L101:AC101)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H101" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="I101" s="4">
         <v>0</v>
@@ -5473,20 +5872,23 @@
       <c r="A102" s="1">
         <v>98</v>
       </c>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
+      <c r="C102" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
+      <c r="E102" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="F102" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G102" s="2">
-        <f>SUM(L102:AC102)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H102" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.5</v>
       </c>
       <c r="I102" s="4">
         <v>0</v>
@@ -5516,19 +5918,23 @@
         <v>99</v>
       </c>
       <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
+      <c r="C103" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
+      <c r="E103" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="F103" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G103" s="2">
-        <f>SUM(L103:AC103)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H103" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.5</v>
       </c>
       <c r="I103" s="4">
         <v>0</v>
@@ -5558,19 +5964,23 @@
         <v>100</v>
       </c>
       <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
+      <c r="C104" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
+      <c r="E104" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="F104" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G104" s="2">
-        <f>SUM(L104:AC104)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H104" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="I104" s="4">
         <v>0</v>
@@ -5600,19 +6010,23 @@
         <v>101</v>
       </c>
       <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
+      <c r="C105" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
+      <c r="E105" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="F105" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G105" s="2">
-        <f>SUM(L105:AC105)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H105" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.5</v>
       </c>
       <c r="I105" s="4">
         <v>0</v>
@@ -5641,20 +6055,24 @@
       <c r="A106" s="1">
         <v>102</v>
       </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
+      <c r="B106" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G106" s="2">
-        <f>SUM(L106:AC106)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H106" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="I106" s="4">
         <v>0</v>
@@ -5683,20 +6101,23 @@
       <c r="A107" s="1">
         <v>103</v>
       </c>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
+      <c r="C107" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
+      <c r="E107" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="F107" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G107" s="2">
-        <f>SUM(L107:AC107)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H107" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.5</v>
       </c>
       <c r="I107" s="4">
         <v>0</v>
@@ -5726,19 +6147,23 @@
         <v>104</v>
       </c>
       <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
+      <c r="C108" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
+      <c r="E108" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="F108" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G108" s="2">
-        <f>SUM(L108:AC108)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H108" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.5</v>
       </c>
       <c r="I108" s="4">
         <v>0</v>
@@ -5768,19 +6193,23 @@
         <v>105</v>
       </c>
       <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
+      <c r="C109" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
+      <c r="E109" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="F109" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G109" s="2">
-        <f>SUM(L109:AC109)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H109" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="I109" s="4">
         <v>0</v>
@@ -5810,19 +6239,23 @@
         <v>106</v>
       </c>
       <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
+      <c r="C110" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
+      <c r="E110" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="F110" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G110" s="2">
-        <f>SUM(L110:AC110)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H110" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.5</v>
       </c>
       <c r="I110" s="4">
         <v>0</v>
@@ -5859,11 +6292,11 @@
         <v>0</v>
       </c>
       <c r="G111" s="2">
-        <f>SUM(L111:AC111)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H111" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I111" s="4">
@@ -5901,11 +6334,11 @@
         <v>0</v>
       </c>
       <c r="G112" s="2">
-        <f>SUM(L112:AC112)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H112" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I112" s="4">
@@ -5943,11 +6376,11 @@
         <v>0</v>
       </c>
       <c r="G113" s="2">
-        <f>SUM(L113:AC113)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H113" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I113" s="4">
@@ -5985,11 +6418,11 @@
         <v>0</v>
       </c>
       <c r="G114" s="2">
-        <f>SUM(L114:AC114)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H114" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I114" s="4">
@@ -6027,11 +6460,11 @@
         <v>0</v>
       </c>
       <c r="G115" s="2">
-        <f>SUM(L115:AC115)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H115" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I115" s="4">
@@ -6069,11 +6502,11 @@
         <v>0</v>
       </c>
       <c r="G116" s="2">
-        <f>SUM(L116:AC116)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H116" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I116" s="4">
@@ -6114,9 +6547,6 @@
     <row r="118" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
@@ -6135,6 +6565,32 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db">
+      <UserInfo>
+        <DisplayName>研修チーム メンバー</DisplayName>
+        <AccountId>14</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0407f581-f061-4023-8230-a56bb2488a70">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101002B575DD8F27F34448B33AFE63EFD0D8E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="48978d9a722114fd94336a748046495d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0407f581-f061-4023-8230-a56bb2488a70" xmlns:ns3="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0991ac94477647fa7d2a63066c31f3bb" ns2:_="" ns3:_="">
     <xsd:import namespace="0407f581-f061-4023-8230-a56bb2488a70"/>
@@ -6345,33 +6801,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db">
-      <UserInfo>
-        <DisplayName>研修チーム メンバー</DisplayName>
-        <AccountId>14</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0407f581-f061-4023-8230-a56bb2488a70">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B27C22-B7FB-4299-9545-CC05027530D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AC9E1B8-01F4-40B9-95F3-AB30289C9849}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db"/>
+    <ds:schemaRef ds:uri="0407f581-f061-4023-8230-a56bb2488a70"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D46D63A-865A-4ECC-8FB1-D9250E892073}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6388,23 +6837,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AC9E1B8-01F4-40B9-95F3-AB30289C9849}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db"/>
-    <ds:schemaRef ds:uri="0407f581-f061-4023-8230-a56bb2488a70"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B27C22-B7FB-4299-9545-CC05027530D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/100_受講者/05_最上/銭湯記録アプリ開発/アプリケーション作成WBS.xlsx
+++ b/100_受講者/05_最上/銭湯記録アプリ開発/アプリケーション作成WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\work\銭湯記録アプリ開発\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FC5F45-8800-49D3-97F4-166BA1720595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A538F7CA-22EE-45E8-A363-65A690E72C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{419D748C-3A1E-D948-83B4-89E68F6A4488}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="101">
   <si>
     <t>アプリケーション作成WBS</t>
     <rPh sb="8" eb="10">
@@ -1195,10 +1195,10 @@
   <dimension ref="A1:AC118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="E77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="F88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B82" sqref="B82"/>
+      <selection pane="bottomRight" activeCell="Q98" sqref="Q98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
@@ -4941,28 +4941,27 @@
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H82" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I82" s="4">
-        <v>1</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="J82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
+      <c r="Q82" s="1">
+        <v>1.5</v>
+      </c>
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
@@ -5180,15 +5179,14 @@
         <v>2</v>
       </c>
       <c r="G87" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H87" s="2">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" s="4">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J87" s="1"/>
       <c r="L87" s="1"/>
@@ -5196,7 +5194,9 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
+      <c r="Q87" s="1">
+        <v>2</v>
+      </c>
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
@@ -5512,15 +5512,14 @@
         <v>4</v>
       </c>
       <c r="G94" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" s="2">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I94" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J94" s="1"/>
       <c r="L94" s="1"/>
@@ -5528,7 +5527,9 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
-      <c r="Q94" s="1"/>
+      <c r="Q94" s="1">
+        <v>1</v>
+      </c>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
@@ -5558,12 +5559,11 @@
         <v>2</v>
       </c>
       <c r="G95" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H95" s="2">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I95" s="4">
         <v>0.8</v>
@@ -5574,7 +5574,9 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
-      <c r="Q95" s="1"/>
+      <c r="Q95" s="1">
+        <v>1.5</v>
+      </c>
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
@@ -5652,15 +5654,14 @@
         <v>4</v>
       </c>
       <c r="G97" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H97" s="2">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I97" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J97" s="1"/>
       <c r="L97" s="1"/>
@@ -5668,7 +5669,9 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
-      <c r="Q97" s="1"/>
+      <c r="Q97" s="1">
+        <v>2</v>
+      </c>
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
@@ -5698,15 +5701,14 @@
         <v>2</v>
       </c>
       <c r="G98" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" s="2">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J98" s="1"/>
       <c r="L98" s="1"/>
@@ -5714,7 +5716,9 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
-      <c r="Q98" s="1"/>
+      <c r="Q98" s="1">
+        <v>1</v>
+      </c>
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
@@ -6565,32 +6569,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db">
-      <UserInfo>
-        <DisplayName>研修チーム メンバー</DisplayName>
-        <AccountId>14</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0407f581-f061-4023-8230-a56bb2488a70">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101002B575DD8F27F34448B33AFE63EFD0D8E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="48978d9a722114fd94336a748046495d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0407f581-f061-4023-8230-a56bb2488a70" xmlns:ns3="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0991ac94477647fa7d2a63066c31f3bb" ns2:_="" ns3:_="">
     <xsd:import namespace="0407f581-f061-4023-8230-a56bb2488a70"/>
@@ -6801,10 +6779,47 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db">
+      <UserInfo>
+        <DisplayName>研修チーム メンバー</DisplayName>
+        <AccountId>14</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0407f581-f061-4023-8230-a56bb2488a70">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B27C22-B7FB-4299-9545-CC05027530D6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D46D63A-865A-4ECC-8FB1-D9250E892073}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0407f581-f061-4023-8230-a56bb2488a70"/>
+    <ds:schemaRef ds:uri="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6821,20 +6836,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D46D63A-865A-4ECC-8FB1-D9250E892073}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B27C22-B7FB-4299-9545-CC05027530D6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0407f581-f061-4023-8230-a56bb2488a70"/>
-    <ds:schemaRef ds:uri="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/100_受講者/05_最上/銭湯記録アプリ開発/アプリケーション作成WBS.xlsx
+++ b/100_受講者/05_最上/銭湯記録アプリ開発/アプリケーション作成WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\work\銭湯記録アプリ開発\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A538F7CA-22EE-45E8-A363-65A690E72C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AA16DD-C580-41DE-BACF-03B51F1BAE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{419D748C-3A1E-D948-83B4-89E68F6A4488}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="101">
   <si>
     <t>アプリケーション作成WBS</t>
     <rPh sb="8" eb="10">
@@ -1192,13 +1192,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFE88A0-CAA1-9340-A8B6-7BDAD2A12E99}">
-  <dimension ref="A1:AC118"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="F88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q98" sqref="Q98"/>
+      <selection pane="bottomRight" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
@@ -1211,15 +1211,15 @@
     <col min="6" max="6" width="12.69140625" customWidth="1"/>
     <col min="7" max="7" width="16.07421875" customWidth="1"/>
     <col min="8" max="8" width="14.07421875" customWidth="1"/>
-    <col min="12" max="29" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="28" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="32.5" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:28" ht="32.5" x14ac:dyDescent="0.6">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1269,43 +1269,40 @@
         <v>45370</v>
       </c>
       <c r="R3" s="6">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="S3" s="6">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="T3" s="6">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="U3" s="6">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="V3" s="6">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="W3" s="6">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="X3" s="6">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="Y3" s="6">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="Z3" s="6">
-        <v>45379</v>
+        <v>45380</v>
       </c>
       <c r="AA3" s="6">
-        <v>45380</v>
+        <v>45381</v>
       </c>
       <c r="AB3" s="6">
-        <v>45381</v>
-      </c>
-      <c r="AC3" s="6">
         <v>45382</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -1323,7 +1320,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="2">
-        <f>SUM(L4:AC4)</f>
+        <f>SUM(L4:AB4)</f>
         <v>2</v>
       </c>
       <c r="H4" s="2">
@@ -1385,11 +1382,8 @@
       <c r="AB4" s="2">
         <v>0</v>
       </c>
-      <c r="AC4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1434,9 +1428,8 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1481,9 +1474,8 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1528,9 +1520,8 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1577,9 +1568,8 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1624,9 +1614,8 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1671,9 +1660,8 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1718,9 +1706,8 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1765,9 +1752,8 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1812,9 +1798,8 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1859,9 +1844,8 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1875,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="2">
-        <f>SUM(L15:AC15)</f>
+        <f>SUM(L15:AB15)</f>
         <v>0</v>
       </c>
       <c r="H15" s="2">
@@ -1907,9 +1891,8 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -1954,9 +1937,8 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -2003,9 +1985,8 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -2050,9 +2031,8 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -2097,9 +2077,8 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -2144,9 +2123,8 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -2191,9 +2169,8 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -2238,9 +2215,8 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -2285,9 +2261,8 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -2332,9 +2307,8 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -2379,9 +2353,8 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -2428,9 +2401,8 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -2475,9 +2447,8 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -2522,9 +2493,8 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -2569,9 +2539,8 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -2616,9 +2585,8 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -2663,9 +2631,8 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -2710,9 +2677,8 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -2761,9 +2727,8 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -2806,9 +2771,8 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -2851,9 +2815,8 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -2898,9 +2861,8 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -2945,9 +2907,8 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
-      <c r="AC37" s="1"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -2961,7 +2922,7 @@
         <v>2</v>
       </c>
       <c r="G38" s="2">
-        <f>SUM(L38:AC38)</f>
+        <f>SUM(L38:AB38)</f>
         <v>0</v>
       </c>
       <c r="H38" s="2">
@@ -2989,9 +2950,8 @@
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
-      <c r="AC38" s="1"/>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -3005,7 +2965,7 @@
         <v>2</v>
       </c>
       <c r="G39" s="2">
-        <f>SUM(L39:AC39)</f>
+        <f>SUM(L39:AB39)</f>
         <v>0</v>
       </c>
       <c r="H39" s="2">
@@ -3033,9 +2993,8 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -3049,7 +3008,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="2">
-        <f>SUM(L40:AC40)</f>
+        <f>SUM(L40:AB40)</f>
         <v>0</v>
       </c>
       <c r="H40" s="2">
@@ -3077,9 +3036,8 @@
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
-      <c r="AC40" s="1"/>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -3124,9 +3082,8 @@
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
-      <c r="AC41" s="1"/>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -3140,7 +3097,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="2">
-        <f>SUM(L42:AC42)</f>
+        <f>SUM(L42:AB42)</f>
         <v>0</v>
       </c>
       <c r="H42" s="2">
@@ -3168,9 +3125,8 @@
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
-      <c r="AC42" s="1"/>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -3223,9 +3179,8 @@
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
-      <c r="AC43" s="1"/>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -3270,9 +3225,8 @@
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
-      <c r="AC44" s="1"/>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -3315,9 +3269,8 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
-      <c r="AC45" s="1"/>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -3331,7 +3284,7 @@
         <v>3</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" ref="G46:G55" si="2">SUM(L46:AC46)</f>
+        <f>SUM(L46:AB46)</f>
         <v>0</v>
       </c>
       <c r="H46" s="2">
@@ -3359,9 +3312,8 @@
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
-      <c r="AC46" s="1"/>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -3375,7 +3327,7 @@
         <v>3</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="2"/>
+        <f>SUM(L47:AB47)</f>
         <v>0</v>
       </c>
       <c r="H47" s="2">
@@ -3403,9 +3355,8 @@
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
-      <c r="AC47" s="1"/>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -3419,7 +3370,7 @@
         <v>3</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="2"/>
+        <f>SUM(L48:AB48)</f>
         <v>0</v>
       </c>
       <c r="H48" s="2">
@@ -3447,9 +3398,8 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
-      <c r="AC48" s="1"/>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A49" s="1">
         <v>45</v>
       </c>
@@ -3463,7 +3413,7 @@
         <v>3</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="2"/>
+        <f>SUM(L49:AB49)</f>
         <v>0</v>
       </c>
       <c r="H49" s="2">
@@ -3491,9 +3441,8 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
-      <c r="AC49" s="1"/>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A50" s="1">
         <v>46</v>
       </c>
@@ -3507,7 +3456,7 @@
         <v>3</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" si="2"/>
+        <f>SUM(L50:AB50)</f>
         <v>0</v>
       </c>
       <c r="H50" s="2">
@@ -3535,9 +3484,8 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
-      <c r="AC50" s="1"/>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A51" s="1">
         <v>47</v>
       </c>
@@ -3551,7 +3499,7 @@
         <v>3</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="2"/>
+        <f>SUM(L51:AB51)</f>
         <v>0</v>
       </c>
       <c r="H51" s="2">
@@ -3579,9 +3527,8 @@
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
-      <c r="AC51" s="1"/>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A52" s="1">
         <v>48</v>
       </c>
@@ -3595,7 +3542,7 @@
         <v>3</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="2"/>
+        <f>SUM(L52:AB52)</f>
         <v>0</v>
       </c>
       <c r="H52" s="2">
@@ -3623,9 +3570,8 @@
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
-      <c r="AC52" s="1"/>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A53" s="1">
         <v>49</v>
       </c>
@@ -3639,7 +3585,7 @@
         <v>3</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="2"/>
+        <f>SUM(L53:AB53)</f>
         <v>0</v>
       </c>
       <c r="H53" s="2">
@@ -3667,9 +3613,8 @@
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
-      <c r="AC53" s="1"/>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A54" s="1">
         <v>50</v>
       </c>
@@ -3683,7 +3628,7 @@
         <v>3</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="2"/>
+        <f>SUM(L54:AB54)</f>
         <v>0</v>
       </c>
       <c r="H54" s="2">
@@ -3711,9 +3656,8 @@
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
-      <c r="AC54" s="1"/>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A55" s="1">
         <v>51</v>
       </c>
@@ -3727,7 +3671,7 @@
         <v>3</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="2"/>
+        <f>SUM(L55:AB55)</f>
         <v>0</v>
       </c>
       <c r="H55" s="2">
@@ -3755,9 +3699,8 @@
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
-      <c r="AC55" s="1"/>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A56" s="1">
         <v>52</v>
       </c>
@@ -3802,9 +3745,8 @@
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
-      <c r="AC56" s="1"/>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A57" s="1">
         <v>53</v>
       </c>
@@ -3818,7 +3760,7 @@
         <v>3</v>
       </c>
       <c r="G57" s="2">
-        <f>SUM(L57:AC57)</f>
+        <f>SUM(L57:AB57)</f>
         <v>0</v>
       </c>
       <c r="H57" s="2">
@@ -3846,9 +3788,8 @@
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
-      <c r="AC57" s="1"/>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -3862,7 +3803,7 @@
         <v>3</v>
       </c>
       <c r="G58" s="2">
-        <f>SUM(L58:AC58)</f>
+        <f>SUM(L58:AB58)</f>
         <v>0</v>
       </c>
       <c r="H58" s="2">
@@ -3890,9 +3831,8 @@
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
-      <c r="AC58" s="1"/>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -3937,9 +3877,8 @@
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
-      <c r="AC59" s="1"/>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -3953,7 +3892,7 @@
         <v>3</v>
       </c>
       <c r="G60" s="2">
-        <f>SUM(L60:AC60)</f>
+        <f>SUM(L60:AB60)</f>
         <v>0</v>
       </c>
       <c r="H60" s="2">
@@ -3981,9 +3920,8 @@
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
-      <c r="AC60" s="1"/>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -3997,7 +3935,7 @@
         <v>3</v>
       </c>
       <c r="G61" s="2">
-        <f>SUM(L61:AC61)</f>
+        <f>SUM(L61:AB61)</f>
         <v>0</v>
       </c>
       <c r="H61" s="2">
@@ -4025,9 +3963,8 @@
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
-      <c r="AC61" s="1"/>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A62" s="1">
         <v>58</v>
       </c>
@@ -4048,7 +3985,7 @@
         <v>4</v>
       </c>
       <c r="H62" s="2">
-        <f t="shared" ref="H62:H98" si="3">F62-G62</f>
+        <f t="shared" ref="H62:H98" si="2">F62-G62</f>
         <v>0</v>
       </c>
       <c r="I62" s="4">
@@ -4080,9 +4017,8 @@
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
-      <c r="AC62" s="1"/>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -4099,7 +4035,7 @@
         <v>3</v>
       </c>
       <c r="H63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I63" s="4">
@@ -4127,9 +4063,8 @@
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
-      <c r="AC63" s="1"/>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -4146,7 +4081,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I64" s="4">
@@ -4172,9 +4107,8 @@
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
-      <c r="AC64" s="1"/>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -4188,11 +4122,11 @@
         <v>3</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" ref="G65:G74" si="4">SUM(L65:AC65)</f>
+        <f>SUM(L65:AB65)</f>
         <v>0</v>
       </c>
       <c r="H65" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I65" s="4">
@@ -4216,9 +4150,8 @@
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
-      <c r="AC65" s="1"/>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -4232,11 +4165,11 @@
         <v>3</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" si="4"/>
+        <f>SUM(L66:AB66)</f>
         <v>0</v>
       </c>
       <c r="H66" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I66" s="4">
@@ -4260,9 +4193,8 @@
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
-      <c r="AC66" s="1"/>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -4276,11 +4208,11 @@
         <v>3</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" si="4"/>
+        <f>SUM(L67:AB67)</f>
         <v>0</v>
       </c>
       <c r="H67" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I67" s="4">
@@ -4304,9 +4236,8 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
-      <c r="AC67" s="1"/>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A68" s="1">
         <v>64</v>
       </c>
@@ -4320,11 +4251,11 @@
         <v>3</v>
       </c>
       <c r="G68" s="2">
-        <f t="shared" si="4"/>
+        <f>SUM(L68:AB68)</f>
         <v>0</v>
       </c>
       <c r="H68" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I68" s="4">
@@ -4348,9 +4279,8 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
-      <c r="AC68" s="1"/>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -4364,11 +4294,11 @@
         <v>3</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" si="4"/>
+        <f>SUM(L69:AB69)</f>
         <v>0</v>
       </c>
       <c r="H69" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I69" s="4">
@@ -4392,9 +4322,8 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
-      <c r="AC69" s="1"/>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A70" s="1">
         <v>66</v>
       </c>
@@ -4408,11 +4337,11 @@
         <v>3</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" si="4"/>
+        <f>SUM(L70:AB70)</f>
         <v>0</v>
       </c>
       <c r="H70" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I70" s="4">
@@ -4436,9 +4365,8 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
-      <c r="AC70" s="1"/>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A71" s="1">
         <v>67</v>
       </c>
@@ -4452,11 +4380,11 @@
         <v>3</v>
       </c>
       <c r="G71" s="2">
-        <f t="shared" si="4"/>
+        <f>SUM(L71:AB71)</f>
         <v>0</v>
       </c>
       <c r="H71" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I71" s="4">
@@ -4480,9 +4408,8 @@
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
-      <c r="AC71" s="1"/>
-    </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A72" s="1">
         <v>68</v>
       </c>
@@ -4496,11 +4423,11 @@
         <v>3</v>
       </c>
       <c r="G72" s="2">
-        <f t="shared" si="4"/>
+        <f>SUM(L72:AB72)</f>
         <v>0</v>
       </c>
       <c r="H72" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I72" s="4">
@@ -4524,9 +4451,8 @@
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
-      <c r="AC72" s="1"/>
-    </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A73" s="1">
         <v>69</v>
       </c>
@@ -4540,11 +4466,11 @@
         <v>3</v>
       </c>
       <c r="G73" s="2">
-        <f t="shared" si="4"/>
+        <f>SUM(L73:AB73)</f>
         <v>0</v>
       </c>
       <c r="H73" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I73" s="4">
@@ -4568,9 +4494,8 @@
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
-      <c r="AC73" s="1"/>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A74" s="1">
         <v>70</v>
       </c>
@@ -4584,11 +4509,11 @@
         <v>3</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" si="4"/>
+        <f>SUM(L74:AB74)</f>
         <v>0</v>
       </c>
       <c r="H74" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I74" s="4">
@@ -4612,9 +4537,8 @@
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
-      <c r="AC74" s="1"/>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A75" s="1">
         <v>71</v>
       </c>
@@ -4633,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I75" s="4">
@@ -4659,9 +4583,8 @@
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
-      <c r="AC75" s="1"/>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A76" s="1">
         <v>72</v>
       </c>
@@ -4675,11 +4598,11 @@
         <v>3</v>
       </c>
       <c r="G76" s="2">
-        <f>SUM(L76:AC76)</f>
+        <f>SUM(L76:AB76)</f>
         <v>0</v>
       </c>
       <c r="H76" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I76" s="4">
@@ -4703,9 +4626,8 @@
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
-      <c r="AC76" s="1"/>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A77" s="1">
         <v>73</v>
       </c>
@@ -4719,11 +4641,11 @@
         <v>3</v>
       </c>
       <c r="G77" s="2">
-        <f>SUM(L77:AC77)</f>
+        <f>SUM(L77:AB77)</f>
         <v>0</v>
       </c>
       <c r="H77" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I77" s="4">
@@ -4747,9 +4669,8 @@
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
-      <c r="AC77" s="1"/>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A78" s="1">
         <v>74</v>
       </c>
@@ -4768,7 +4689,7 @@
         <v>2</v>
       </c>
       <c r="H78" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I78" s="4">
@@ -4794,9 +4715,8 @@
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
-      <c r="AC78" s="1"/>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A79" s="1">
         <v>75</v>
       </c>
@@ -4810,11 +4730,11 @@
         <v>3</v>
       </c>
       <c r="G79" s="2">
-        <f t="shared" ref="G79:G116" si="5">SUM(L79:AC79)</f>
+        <f>SUM(L79:AB79)</f>
         <v>0</v>
       </c>
       <c r="H79" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I79" s="4">
@@ -4838,9 +4758,8 @@
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
-      <c r="AC79" s="1"/>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A80" s="1">
         <v>76</v>
       </c>
@@ -4854,11 +4773,11 @@
         <v>3</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(L80:AB80)</f>
         <v>0</v>
       </c>
       <c r="H80" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I80" s="4">
@@ -4882,9 +4801,8 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
-      <c r="AC80" s="1"/>
-    </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A81" s="1">
         <v>77</v>
       </c>
@@ -4898,11 +4816,11 @@
         <v>4</v>
       </c>
       <c r="G81" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(L81:AB81)</f>
         <v>0</v>
       </c>
       <c r="H81" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I81" s="4">
@@ -4926,9 +4844,8 @@
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
-      <c r="AC81" s="1"/>
-    </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A82" s="1">
         <v>78</v>
       </c>
@@ -4944,16 +4861,18 @@
         <v>3</v>
       </c>
       <c r="G82" s="2">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H82" s="2">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="2"/>
+        <v>0.5</v>
       </c>
       <c r="I82" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="J82" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
@@ -4962,7 +4881,9 @@
       <c r="Q82" s="1">
         <v>1.5</v>
       </c>
-      <c r="R82" s="1"/>
+      <c r="R82" s="1">
+        <v>1</v>
+      </c>
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
@@ -4973,9 +4894,8 @@
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
-      <c r="AC82" s="1"/>
-    </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -4991,11 +4911,11 @@
         <v>0</v>
       </c>
       <c r="G83" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(L83:AB83)</f>
         <v>0</v>
       </c>
       <c r="H83" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I83" s="4">
@@ -5021,9 +4941,8 @@
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
-      <c r="AC83" s="1"/>
-    </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A84" s="1">
         <v>80</v>
       </c>
@@ -5039,11 +4958,11 @@
         <v>4</v>
       </c>
       <c r="G84" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(L84:AB84)</f>
         <v>0</v>
       </c>
       <c r="H84" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I84" s="4">
@@ -5067,9 +4986,8 @@
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
-      <c r="AC84" s="1"/>
-    </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A85" s="1">
         <v>81</v>
       </c>
@@ -5085,11 +5003,11 @@
         <v>4</v>
       </c>
       <c r="G85" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(L85:AB85)</f>
         <v>0</v>
       </c>
       <c r="H85" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I85" s="4">
@@ -5113,9 +5031,8 @@
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
-      <c r="AC85" s="1"/>
-    </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A86" s="1">
         <v>82</v>
       </c>
@@ -5131,11 +5048,11 @@
         <v>0</v>
       </c>
       <c r="G86" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(L86:AB86)</f>
         <v>0</v>
       </c>
       <c r="H86" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I86" s="4">
@@ -5161,9 +5078,8 @@
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
-      <c r="AC86" s="1"/>
-    </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A87" s="1">
         <v>83</v>
       </c>
@@ -5179,16 +5095,18 @@
         <v>2</v>
       </c>
       <c r="G87" s="2">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H87" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-1.5</v>
       </c>
       <c r="I87" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="J87" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
@@ -5197,7 +5115,9 @@
       <c r="Q87" s="1">
         <v>2</v>
       </c>
-      <c r="R87" s="1"/>
+      <c r="R87" s="1">
+        <v>1.5</v>
+      </c>
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
@@ -5208,9 +5128,8 @@
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
-      <c r="AC87" s="1"/>
-    </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A88" s="1">
         <v>84</v>
       </c>
@@ -5226,11 +5145,11 @@
         <v>0</v>
       </c>
       <c r="G88" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(L88:AB88)</f>
         <v>0</v>
       </c>
       <c r="H88" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I88" s="4">
@@ -5256,9 +5175,8 @@
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
-      <c r="AC88" s="1"/>
-    </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A89" s="1">
         <v>85</v>
       </c>
@@ -5274,11 +5192,11 @@
         <v>0</v>
       </c>
       <c r="G89" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(L89:AB89)</f>
         <v>0</v>
       </c>
       <c r="H89" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I89" s="4">
@@ -5304,9 +5222,8 @@
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
-      <c r="AC89" s="1"/>
-    </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A90" s="1">
         <v>86</v>
       </c>
@@ -5322,11 +5239,11 @@
         <v>2</v>
       </c>
       <c r="G90" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(L90:AB90)</f>
         <v>0</v>
       </c>
       <c r="H90" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I90" s="4">
@@ -5350,9 +5267,8 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
-      <c r="AC90" s="1"/>
-    </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A91" s="1">
         <v>87</v>
       </c>
@@ -5368,11 +5284,11 @@
         <v>0</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(L91:AB91)</f>
         <v>0</v>
       </c>
       <c r="H91" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I91" s="4">
@@ -5398,9 +5314,8 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
-      <c r="AC91" s="1"/>
-    </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A92" s="1">
         <v>88</v>
       </c>
@@ -5416,11 +5331,11 @@
         <v>0</v>
       </c>
       <c r="G92" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(L92:AB92)</f>
         <v>0</v>
       </c>
       <c r="H92" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I92" s="4">
@@ -5446,9 +5361,8 @@
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
-      <c r="AC92" s="1"/>
-    </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A93" s="1">
         <v>89</v>
       </c>
@@ -5461,14 +5375,13 @@
         <v>88</v>
       </c>
       <c r="F93" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H93" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I93" s="4">
@@ -5483,7 +5396,9 @@
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
-      <c r="R93" s="1"/>
+      <c r="R93" s="1">
+        <v>3</v>
+      </c>
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
@@ -5494,9 +5409,8 @@
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
-      <c r="AC93" s="1"/>
-    </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A94" s="1">
         <v>90</v>
       </c>
@@ -5515,7 +5429,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I94" s="4">
@@ -5541,9 +5455,8 @@
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
-      <c r="AC94" s="1"/>
-    </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A95" s="1">
         <v>91</v>
       </c>
@@ -5562,7 +5475,7 @@
         <v>1.5</v>
       </c>
       <c r="H95" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="I95" s="4">
@@ -5588,9 +5501,8 @@
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
-      <c r="AC95" s="1"/>
-    </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A96" s="1">
         <v>92</v>
       </c>
@@ -5606,11 +5518,11 @@
         <v>0</v>
       </c>
       <c r="G96" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(L96:AB96)</f>
         <v>0</v>
       </c>
       <c r="H96" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I96" s="4">
@@ -5636,9 +5548,8 @@
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
-      <c r="AC96" s="1"/>
-    </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A97" s="1">
         <v>93</v>
       </c>
@@ -5654,16 +5565,18 @@
         <v>4</v>
       </c>
       <c r="G97" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H97" s="2">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="I97" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="J97" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
@@ -5672,7 +5585,9 @@
       <c r="Q97" s="1">
         <v>2</v>
       </c>
-      <c r="R97" s="1"/>
+      <c r="R97" s="1">
+        <v>1</v>
+      </c>
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
@@ -5683,9 +5598,8 @@
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
-      <c r="AC97" s="1"/>
-    </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A98" s="1">
         <v>94</v>
       </c>
@@ -5704,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I98" s="4">
@@ -5730,9 +5644,8 @@
       <c r="Z98" s="1"/>
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
-      <c r="AC98" s="1"/>
-    </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A99" s="1">
         <v>95</v>
       </c>
@@ -5750,24 +5663,27 @@
         <v>4</v>
       </c>
       <c r="G99" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H99" s="2">
-        <f t="shared" ref="H99:H116" si="6">F99-G99</f>
-        <v>4</v>
+        <f t="shared" ref="H99:H116" si="3">F99-G99</f>
+        <v>2.5</v>
       </c>
       <c r="I99" s="4">
-        <v>0</v>
-      </c>
-      <c r="J99" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
-      <c r="R99" s="1"/>
+      <c r="R99" s="1">
+        <v>1.5</v>
+      </c>
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
@@ -5778,9 +5694,8 @@
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
-      <c r="AC99" s="1"/>
-    </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A100" s="1">
         <v>96</v>
       </c>
@@ -5796,15 +5711,14 @@
         <v>1</v>
       </c>
       <c r="G100" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H100" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="I100" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J100" s="1"/>
       <c r="L100" s="1"/>
@@ -5813,7 +5727,9 @@
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
-      <c r="R100" s="1"/>
+      <c r="R100" s="1">
+        <v>0.5</v>
+      </c>
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
@@ -5824,9 +5740,8 @@
       <c r="Z100" s="1"/>
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
-      <c r="AC100" s="1"/>
-    </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A101" s="1">
         <v>97</v>
       </c>
@@ -5842,11 +5757,11 @@
         <v>4</v>
       </c>
       <c r="G101" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(L101:AB101)</f>
         <v>0</v>
       </c>
       <c r="H101" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I101" s="4">
@@ -5870,9 +5785,8 @@
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
-      <c r="AC101" s="1"/>
-    </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A102" s="1">
         <v>98</v>
       </c>
@@ -5887,11 +5801,11 @@
         <v>0.5</v>
       </c>
       <c r="G102" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(L102:AB102)</f>
         <v>0</v>
       </c>
       <c r="H102" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I102" s="4">
@@ -5915,9 +5829,8 @@
       <c r="Z102" s="1"/>
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
-      <c r="AC102" s="1"/>
-    </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A103" s="1">
         <v>99</v>
       </c>
@@ -5933,11 +5846,11 @@
         <v>0.5</v>
       </c>
       <c r="G103" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(L103:AB103)</f>
         <v>0</v>
       </c>
       <c r="H103" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I103" s="4">
@@ -5961,9 +5874,8 @@
       <c r="Z103" s="1"/>
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
-      <c r="AC103" s="1"/>
-    </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A104" s="1">
         <v>100</v>
       </c>
@@ -5979,11 +5891,11 @@
         <v>4</v>
       </c>
       <c r="G104" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(L104:AB104)</f>
         <v>0</v>
       </c>
       <c r="H104" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I104" s="4">
@@ -6007,9 +5919,8 @@
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
-      <c r="AC104" s="1"/>
-    </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A105" s="1">
         <v>101</v>
       </c>
@@ -6025,11 +5936,11 @@
         <v>0.5</v>
       </c>
       <c r="G105" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(L105:AB105)</f>
         <v>0</v>
       </c>
       <c r="H105" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I105" s="4">
@@ -6053,9 +5964,8 @@
       <c r="Z105" s="1"/>
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
-      <c r="AC105" s="1"/>
-    </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A106" s="1">
         <v>102</v>
       </c>
@@ -6071,11 +5981,11 @@
         <v>4</v>
       </c>
       <c r="G106" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(L106:AB106)</f>
         <v>0</v>
       </c>
       <c r="H106" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I106" s="4">
@@ -6099,9 +6009,8 @@
       <c r="Z106" s="1"/>
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
-      <c r="AC106" s="1"/>
-    </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A107" s="1">
         <v>103</v>
       </c>
@@ -6116,11 +6025,11 @@
         <v>0.5</v>
       </c>
       <c r="G107" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(L107:AB107)</f>
         <v>0</v>
       </c>
       <c r="H107" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I107" s="4">
@@ -6144,9 +6053,8 @@
       <c r="Z107" s="1"/>
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
-      <c r="AC107" s="1"/>
-    </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A108" s="1">
         <v>104</v>
       </c>
@@ -6162,11 +6070,11 @@
         <v>0.5</v>
       </c>
       <c r="G108" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(L108:AB108)</f>
         <v>0</v>
       </c>
       <c r="H108" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I108" s="4">
@@ -6190,9 +6098,8 @@
       <c r="Z108" s="1"/>
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
-      <c r="AC108" s="1"/>
-    </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A109" s="1">
         <v>105</v>
       </c>
@@ -6208,11 +6115,11 @@
         <v>2</v>
       </c>
       <c r="G109" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(L109:AB109)</f>
         <v>0</v>
       </c>
       <c r="H109" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I109" s="4">
@@ -6236,9 +6143,8 @@
       <c r="Z109" s="1"/>
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
-      <c r="AC109" s="1"/>
-    </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A110" s="1">
         <v>106</v>
       </c>
@@ -6254,11 +6160,11 @@
         <v>0.5</v>
       </c>
       <c r="G110" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(L110:AB110)</f>
         <v>0</v>
       </c>
       <c r="H110" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I110" s="4">
@@ -6282,9 +6188,8 @@
       <c r="Z110" s="1"/>
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
-      <c r="AC110" s="1"/>
-    </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A111" s="1">
         <v>107</v>
       </c>
@@ -6296,11 +6201,11 @@
         <v>0</v>
       </c>
       <c r="G111" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(L111:AB111)</f>
         <v>0</v>
       </c>
       <c r="H111" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I111" s="4">
@@ -6324,9 +6229,8 @@
       <c r="Z111" s="1"/>
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
-      <c r="AC111" s="1"/>
-    </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A112" s="1">
         <v>108</v>
       </c>
@@ -6338,11 +6242,11 @@
         <v>0</v>
       </c>
       <c r="G112" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(L112:AB112)</f>
         <v>0</v>
       </c>
       <c r="H112" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I112" s="4">
@@ -6366,9 +6270,8 @@
       <c r="Z112" s="1"/>
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
-      <c r="AC112" s="1"/>
-    </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="113" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A113" s="1">
         <v>109</v>
       </c>
@@ -6380,11 +6283,11 @@
         <v>0</v>
       </c>
       <c r="G113" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(L113:AB113)</f>
         <v>0</v>
       </c>
       <c r="H113" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I113" s="4">
@@ -6408,9 +6311,8 @@
       <c r="Z113" s="1"/>
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
-      <c r="AC113" s="1"/>
-    </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="114" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A114" s="1">
         <v>110</v>
       </c>
@@ -6422,11 +6324,11 @@
         <v>0</v>
       </c>
       <c r="G114" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(L114:AB114)</f>
         <v>0</v>
       </c>
       <c r="H114" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I114" s="4">
@@ -6450,9 +6352,8 @@
       <c r="Z114" s="1"/>
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
-      <c r="AC114" s="1"/>
-    </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="115" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A115" s="1">
         <v>111</v>
       </c>
@@ -6464,11 +6365,11 @@
         <v>0</v>
       </c>
       <c r="G115" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(L115:AB115)</f>
         <v>0</v>
       </c>
       <c r="H115" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I115" s="4">
@@ -6492,9 +6393,8 @@
       <c r="Z115" s="1"/>
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
-      <c r="AC115" s="1"/>
-    </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="116" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A116" s="1">
         <v>112</v>
       </c>
@@ -6506,11 +6406,11 @@
         <v>0</v>
       </c>
       <c r="G116" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(L116:AB116)</f>
         <v>0</v>
       </c>
       <c r="H116" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I116" s="4">
@@ -6534,9 +6434,8 @@
       <c r="Z116" s="1"/>
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
-      <c r="AC116" s="1"/>
-    </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="117" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -6548,7 +6447,7 @@
       <c r="I117" s="4"/>
       <c r="J117" s="1"/>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="F118" s="2"/>
@@ -6569,6 +6468,32 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db">
+      <UserInfo>
+        <DisplayName>研修チーム メンバー</DisplayName>
+        <AccountId>14</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0407f581-f061-4023-8230-a56bb2488a70">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101002B575DD8F27F34448B33AFE63EFD0D8E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="48978d9a722114fd94336a748046495d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0407f581-f061-4023-8230-a56bb2488a70" xmlns:ns3="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0991ac94477647fa7d2a63066c31f3bb" ns2:_="" ns3:_="">
     <xsd:import namespace="0407f581-f061-4023-8230-a56bb2488a70"/>
@@ -6779,33 +6704,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db">
-      <UserInfo>
-        <DisplayName>研修チーム メンバー</DisplayName>
-        <AccountId>14</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0407f581-f061-4023-8230-a56bb2488a70">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B27C22-B7FB-4299-9545-CC05027530D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AC9E1B8-01F4-40B9-95F3-AB30289C9849}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db"/>
+    <ds:schemaRef ds:uri="0407f581-f061-4023-8230-a56bb2488a70"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D46D63A-865A-4ECC-8FB1-D9250E892073}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6822,23 +6740,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AC9E1B8-01F4-40B9-95F3-AB30289C9849}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db"/>
-    <ds:schemaRef ds:uri="0407f581-f061-4023-8230-a56bb2488a70"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B27C22-B7FB-4299-9545-CC05027530D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/100_受講者/05_最上/銭湯記録アプリ開発/アプリケーション作成WBS.xlsx
+++ b/100_受講者/05_最上/銭湯記録アプリ開発/アプリケーション作成WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\work\銭湯記録アプリ開発\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AA16DD-C580-41DE-BACF-03B51F1BAE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F7F141-C841-4E57-951A-E7464FA7B412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{419D748C-3A1E-D948-83B4-89E68F6A4488}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="101">
   <si>
     <t>アプリケーション作成WBS</t>
     <rPh sb="8" eb="10">
@@ -1192,13 +1192,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFE88A0-CAA1-9340-A8B6-7BDAD2A12E99}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:X118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="F89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B82" sqref="B82"/>
+      <selection pane="bottomRight" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
@@ -1211,15 +1211,17 @@
     <col min="6" max="6" width="12.69140625" customWidth="1"/>
     <col min="7" max="7" width="16.07421875" customWidth="1"/>
     <col min="8" max="8" width="14.07421875" customWidth="1"/>
-    <col min="12" max="28" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.4609375" customWidth="1"/>
+    <col min="12" max="18" width="8" hidden="1" customWidth="1"/>
+    <col min="19" max="24" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="32.5" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:24" ht="32.5" x14ac:dyDescent="0.6">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1275,34 +1277,22 @@
         <v>45373</v>
       </c>
       <c r="T3" s="6">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="U3" s="6">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="V3" s="6">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="W3" s="6">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="X3" s="6">
-        <v>45378</v>
-      </c>
-      <c r="Y3" s="6">
-        <v>45379</v>
-      </c>
-      <c r="Z3" s="6">
         <v>45380</v>
       </c>
-      <c r="AA3" s="6">
-        <v>45381</v>
-      </c>
-      <c r="AB3" s="6">
-        <v>45382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -1320,7 +1310,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="2">
-        <f>SUM(L4:AB4)</f>
+        <f>SUM(L4:X4)</f>
         <v>2</v>
       </c>
       <c r="H4" s="2">
@@ -1370,20 +1360,8 @@
       <c r="X4" s="2">
         <v>0</v>
       </c>
-      <c r="Y4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1424,12 +1402,8 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1470,12 +1444,8 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1516,12 +1486,8 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1564,12 +1530,8 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1610,12 +1572,8 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1656,12 +1614,8 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1702,12 +1656,8 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1748,12 +1698,8 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1794,12 +1740,8 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1840,12 +1782,8 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1859,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="2">
-        <f>SUM(L15:AB15)</f>
+        <f>SUM(L15:X15)</f>
         <v>0</v>
       </c>
       <c r="H15" s="2">
@@ -1887,12 +1825,8 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -1933,12 +1867,8 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1981,12 +1911,8 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -2027,12 +1953,8 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -2073,12 +1995,8 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -2119,12 +2037,8 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -2165,12 +2079,8 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -2211,12 +2121,8 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -2257,12 +2163,8 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -2303,12 +2205,8 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -2349,12 +2247,8 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -2397,12 +2291,8 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -2443,12 +2333,8 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -2489,12 +2375,8 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -2535,12 +2417,8 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -2581,12 +2459,8 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -2627,12 +2501,8 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -2673,12 +2543,8 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -2723,12 +2589,8 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -2767,12 +2629,8 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -2811,12 +2669,8 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -2857,12 +2711,8 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -2903,12 +2753,8 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-      <c r="AA37" s="1"/>
-      <c r="AB37" s="1"/>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -2922,7 +2768,7 @@
         <v>2</v>
       </c>
       <c r="G38" s="2">
-        <f>SUM(L38:AB38)</f>
+        <f>SUM(L38:X38)</f>
         <v>0</v>
       </c>
       <c r="H38" s="2">
@@ -2946,12 +2792,8 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-      <c r="AA38" s="1"/>
-      <c r="AB38" s="1"/>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -2965,7 +2807,7 @@
         <v>2</v>
       </c>
       <c r="G39" s="2">
-        <f>SUM(L39:AB39)</f>
+        <f>SUM(L39:X39)</f>
         <v>0</v>
       </c>
       <c r="H39" s="2">
@@ -2989,12 +2831,8 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -3008,7 +2846,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="2">
-        <f>SUM(L40:AB40)</f>
+        <f>SUM(L40:X40)</f>
         <v>0</v>
       </c>
       <c r="H40" s="2">
@@ -3032,12 +2870,8 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
-      <c r="AA40" s="1"/>
-      <c r="AB40" s="1"/>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -3078,12 +2912,8 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
-      <c r="AB41" s="1"/>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -3097,7 +2927,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="2">
-        <f>SUM(L42:AB42)</f>
+        <f>SUM(L42:X42)</f>
         <v>0</v>
       </c>
       <c r="H42" s="2">
@@ -3121,12 +2951,8 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
-      <c r="AA42" s="1"/>
-      <c r="AB42" s="1"/>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -3175,12 +3001,8 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -3221,12 +3043,8 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
-      <c r="AA44" s="1"/>
-      <c r="AB44" s="1"/>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -3265,12 +3083,8 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
-      <c r="AA45" s="1"/>
-      <c r="AB45" s="1"/>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -3284,7 +3098,7 @@
         <v>3</v>
       </c>
       <c r="G46" s="2">
-        <f>SUM(L46:AB46)</f>
+        <f>SUM(L46:X46)</f>
         <v>0</v>
       </c>
       <c r="H46" s="2">
@@ -3308,12 +3122,8 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
-      <c r="AA46" s="1"/>
-      <c r="AB46" s="1"/>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -3327,7 +3137,7 @@
         <v>3</v>
       </c>
       <c r="G47" s="2">
-        <f>SUM(L47:AB47)</f>
+        <f>SUM(L47:X47)</f>
         <v>0</v>
       </c>
       <c r="H47" s="2">
@@ -3351,12 +3161,8 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
-      <c r="AA47" s="1"/>
-      <c r="AB47" s="1"/>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -3370,7 +3176,7 @@
         <v>3</v>
       </c>
       <c r="G48" s="2">
-        <f>SUM(L48:AB48)</f>
+        <f>SUM(L48:X48)</f>
         <v>0</v>
       </c>
       <c r="H48" s="2">
@@ -3394,12 +3200,8 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="1"/>
-      <c r="AA48" s="1"/>
-      <c r="AB48" s="1"/>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A49" s="1">
         <v>45</v>
       </c>
@@ -3413,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="G49" s="2">
-        <f>SUM(L49:AB49)</f>
+        <f>SUM(L49:X49)</f>
         <v>0</v>
       </c>
       <c r="H49" s="2">
@@ -3437,12 +3239,8 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-      <c r="AA49" s="1"/>
-      <c r="AB49" s="1"/>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A50" s="1">
         <v>46</v>
       </c>
@@ -3456,7 +3254,7 @@
         <v>3</v>
       </c>
       <c r="G50" s="2">
-        <f>SUM(L50:AB50)</f>
+        <f>SUM(L50:X50)</f>
         <v>0</v>
       </c>
       <c r="H50" s="2">
@@ -3480,12 +3278,8 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
-      <c r="AA50" s="1"/>
-      <c r="AB50" s="1"/>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A51" s="1">
         <v>47</v>
       </c>
@@ -3499,7 +3293,7 @@
         <v>3</v>
       </c>
       <c r="G51" s="2">
-        <f>SUM(L51:AB51)</f>
+        <f>SUM(L51:X51)</f>
         <v>0</v>
       </c>
       <c r="H51" s="2">
@@ -3523,12 +3317,8 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="1"/>
-      <c r="AA51" s="1"/>
-      <c r="AB51" s="1"/>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A52" s="1">
         <v>48</v>
       </c>
@@ -3542,7 +3332,7 @@
         <v>3</v>
       </c>
       <c r="G52" s="2">
-        <f>SUM(L52:AB52)</f>
+        <f>SUM(L52:X52)</f>
         <v>0</v>
       </c>
       <c r="H52" s="2">
@@ -3566,12 +3356,8 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="1"/>
-      <c r="AA52" s="1"/>
-      <c r="AB52" s="1"/>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A53" s="1">
         <v>49</v>
       </c>
@@ -3585,7 +3371,7 @@
         <v>3</v>
       </c>
       <c r="G53" s="2">
-        <f>SUM(L53:AB53)</f>
+        <f>SUM(L53:X53)</f>
         <v>0</v>
       </c>
       <c r="H53" s="2">
@@ -3609,12 +3395,8 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
-      <c r="Y53" s="1"/>
-      <c r="Z53" s="1"/>
-      <c r="AA53" s="1"/>
-      <c r="AB53" s="1"/>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A54" s="1">
         <v>50</v>
       </c>
@@ -3628,7 +3410,7 @@
         <v>3</v>
       </c>
       <c r="G54" s="2">
-        <f>SUM(L54:AB54)</f>
+        <f>SUM(L54:X54)</f>
         <v>0</v>
       </c>
       <c r="H54" s="2">
@@ -3652,12 +3434,8 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
-      <c r="AA54" s="1"/>
-      <c r="AB54" s="1"/>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A55" s="1">
         <v>51</v>
       </c>
@@ -3671,7 +3449,7 @@
         <v>3</v>
       </c>
       <c r="G55" s="2">
-        <f>SUM(L55:AB55)</f>
+        <f>SUM(L55:X55)</f>
         <v>0</v>
       </c>
       <c r="H55" s="2">
@@ -3695,12 +3473,8 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
-      <c r="Y55" s="1"/>
-      <c r="Z55" s="1"/>
-      <c r="AA55" s="1"/>
-      <c r="AB55" s="1"/>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A56" s="1">
         <v>52</v>
       </c>
@@ -3741,12 +3515,8 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="1"/>
-      <c r="AA56" s="1"/>
-      <c r="AB56" s="1"/>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A57" s="1">
         <v>53</v>
       </c>
@@ -3760,7 +3530,7 @@
         <v>3</v>
       </c>
       <c r="G57" s="2">
-        <f>SUM(L57:AB57)</f>
+        <f>SUM(L57:X57)</f>
         <v>0</v>
       </c>
       <c r="H57" s="2">
@@ -3784,12 +3554,8 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
-      <c r="Y57" s="1"/>
-      <c r="Z57" s="1"/>
-      <c r="AA57" s="1"/>
-      <c r="AB57" s="1"/>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -3803,7 +3569,7 @@
         <v>3</v>
       </c>
       <c r="G58" s="2">
-        <f>SUM(L58:AB58)</f>
+        <f>SUM(L58:X58)</f>
         <v>0</v>
       </c>
       <c r="H58" s="2">
@@ -3827,12 +3593,8 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
-      <c r="Y58" s="1"/>
-      <c r="Z58" s="1"/>
-      <c r="AA58" s="1"/>
-      <c r="AB58" s="1"/>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -3873,12 +3635,8 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
-      <c r="Y59" s="1"/>
-      <c r="Z59" s="1"/>
-      <c r="AA59" s="1"/>
-      <c r="AB59" s="1"/>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -3892,7 +3650,7 @@
         <v>3</v>
       </c>
       <c r="G60" s="2">
-        <f>SUM(L60:AB60)</f>
+        <f>SUM(L60:X60)</f>
         <v>0</v>
       </c>
       <c r="H60" s="2">
@@ -3916,12 +3674,8 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="1"/>
-      <c r="AA60" s="1"/>
-      <c r="AB60" s="1"/>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -3935,7 +3689,7 @@
         <v>3</v>
       </c>
       <c r="G61" s="2">
-        <f>SUM(L61:AB61)</f>
+        <f>SUM(L61:X61)</f>
         <v>0</v>
       </c>
       <c r="H61" s="2">
@@ -3959,12 +3713,8 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
-      <c r="Y61" s="1"/>
-      <c r="Z61" s="1"/>
-      <c r="AA61" s="1"/>
-      <c r="AB61" s="1"/>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A62" s="1">
         <v>58</v>
       </c>
@@ -4013,12 +3763,8 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
-      <c r="Y62" s="1"/>
-      <c r="Z62" s="1"/>
-      <c r="AA62" s="1"/>
-      <c r="AB62" s="1"/>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -4059,12 +3805,8 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
-      <c r="Y63" s="1"/>
-      <c r="Z63" s="1"/>
-      <c r="AA63" s="1"/>
-      <c r="AB63" s="1"/>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -4103,12 +3845,8 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
-      <c r="Y64" s="1"/>
-      <c r="Z64" s="1"/>
-      <c r="AA64" s="1"/>
-      <c r="AB64" s="1"/>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -4122,7 +3860,7 @@
         <v>3</v>
       </c>
       <c r="G65" s="2">
-        <f>SUM(L65:AB65)</f>
+        <f>SUM(L65:X65)</f>
         <v>0</v>
       </c>
       <c r="H65" s="2">
@@ -4146,12 +3884,8 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="1"/>
-      <c r="AA65" s="1"/>
-      <c r="AB65" s="1"/>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -4165,7 +3899,7 @@
         <v>3</v>
       </c>
       <c r="G66" s="2">
-        <f>SUM(L66:AB66)</f>
+        <f>SUM(L66:X66)</f>
         <v>0</v>
       </c>
       <c r="H66" s="2">
@@ -4189,12 +3923,8 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
-      <c r="Y66" s="1"/>
-      <c r="Z66" s="1"/>
-      <c r="AA66" s="1"/>
-      <c r="AB66" s="1"/>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -4208,7 +3938,7 @@
         <v>3</v>
       </c>
       <c r="G67" s="2">
-        <f>SUM(L67:AB67)</f>
+        <f>SUM(L67:X67)</f>
         <v>0</v>
       </c>
       <c r="H67" s="2">
@@ -4232,12 +3962,8 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
-      <c r="Z67" s="1"/>
-      <c r="AA67" s="1"/>
-      <c r="AB67" s="1"/>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A68" s="1">
         <v>64</v>
       </c>
@@ -4251,7 +3977,7 @@
         <v>3</v>
       </c>
       <c r="G68" s="2">
-        <f>SUM(L68:AB68)</f>
+        <f>SUM(L68:X68)</f>
         <v>0</v>
       </c>
       <c r="H68" s="2">
@@ -4275,12 +4001,8 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
-      <c r="Z68" s="1"/>
-      <c r="AA68" s="1"/>
-      <c r="AB68" s="1"/>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -4294,7 +4016,7 @@
         <v>3</v>
       </c>
       <c r="G69" s="2">
-        <f>SUM(L69:AB69)</f>
+        <f>SUM(L69:X69)</f>
         <v>0</v>
       </c>
       <c r="H69" s="2">
@@ -4318,12 +4040,8 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
-      <c r="Y69" s="1"/>
-      <c r="Z69" s="1"/>
-      <c r="AA69" s="1"/>
-      <c r="AB69" s="1"/>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A70" s="1">
         <v>66</v>
       </c>
@@ -4337,7 +4055,7 @@
         <v>3</v>
       </c>
       <c r="G70" s="2">
-        <f>SUM(L70:AB70)</f>
+        <f>SUM(L70:X70)</f>
         <v>0</v>
       </c>
       <c r="H70" s="2">
@@ -4361,12 +4079,8 @@
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
-      <c r="Y70" s="1"/>
-      <c r="Z70" s="1"/>
-      <c r="AA70" s="1"/>
-      <c r="AB70" s="1"/>
-    </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A71" s="1">
         <v>67</v>
       </c>
@@ -4380,7 +4094,7 @@
         <v>3</v>
       </c>
       <c r="G71" s="2">
-        <f>SUM(L71:AB71)</f>
+        <f>SUM(L71:X71)</f>
         <v>0</v>
       </c>
       <c r="H71" s="2">
@@ -4404,12 +4118,8 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
-      <c r="Y71" s="1"/>
-      <c r="Z71" s="1"/>
-      <c r="AA71" s="1"/>
-      <c r="AB71" s="1"/>
-    </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A72" s="1">
         <v>68</v>
       </c>
@@ -4423,7 +4133,7 @@
         <v>3</v>
       </c>
       <c r="G72" s="2">
-        <f>SUM(L72:AB72)</f>
+        <f>SUM(L72:X72)</f>
         <v>0</v>
       </c>
       <c r="H72" s="2">
@@ -4447,12 +4157,8 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
-      <c r="Y72" s="1"/>
-      <c r="Z72" s="1"/>
-      <c r="AA72" s="1"/>
-      <c r="AB72" s="1"/>
-    </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A73" s="1">
         <v>69</v>
       </c>
@@ -4466,7 +4172,7 @@
         <v>3</v>
       </c>
       <c r="G73" s="2">
-        <f>SUM(L73:AB73)</f>
+        <f>SUM(L73:X73)</f>
         <v>0</v>
       </c>
       <c r="H73" s="2">
@@ -4490,12 +4196,8 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
-      <c r="Y73" s="1"/>
-      <c r="Z73" s="1"/>
-      <c r="AA73" s="1"/>
-      <c r="AB73" s="1"/>
-    </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A74" s="1">
         <v>70</v>
       </c>
@@ -4509,7 +4211,7 @@
         <v>3</v>
       </c>
       <c r="G74" s="2">
-        <f>SUM(L74:AB74)</f>
+        <f>SUM(L74:X74)</f>
         <v>0</v>
       </c>
       <c r="H74" s="2">
@@ -4533,12 +4235,8 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
-      <c r="Y74" s="1"/>
-      <c r="Z74" s="1"/>
-      <c r="AA74" s="1"/>
-      <c r="AB74" s="1"/>
-    </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A75" s="1">
         <v>71</v>
       </c>
@@ -4579,12 +4277,8 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
-      <c r="Y75" s="1"/>
-      <c r="Z75" s="1"/>
-      <c r="AA75" s="1"/>
-      <c r="AB75" s="1"/>
-    </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A76" s="1">
         <v>72</v>
       </c>
@@ -4598,7 +4292,7 @@
         <v>3</v>
       </c>
       <c r="G76" s="2">
-        <f>SUM(L76:AB76)</f>
+        <f>SUM(L76:X76)</f>
         <v>0</v>
       </c>
       <c r="H76" s="2">
@@ -4622,12 +4316,8 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
-      <c r="Y76" s="1"/>
-      <c r="Z76" s="1"/>
-      <c r="AA76" s="1"/>
-      <c r="AB76" s="1"/>
-    </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A77" s="1">
         <v>73</v>
       </c>
@@ -4641,7 +4331,7 @@
         <v>3</v>
       </c>
       <c r="G77" s="2">
-        <f>SUM(L77:AB77)</f>
+        <f>SUM(L77:X77)</f>
         <v>0</v>
       </c>
       <c r="H77" s="2">
@@ -4665,12 +4355,8 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
-      <c r="Y77" s="1"/>
-      <c r="Z77" s="1"/>
-      <c r="AA77" s="1"/>
-      <c r="AB77" s="1"/>
-    </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A78" s="1">
         <v>74</v>
       </c>
@@ -4711,12 +4397,8 @@
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
-      <c r="Y78" s="1"/>
-      <c r="Z78" s="1"/>
-      <c r="AA78" s="1"/>
-      <c r="AB78" s="1"/>
-    </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A79" s="1">
         <v>75</v>
       </c>
@@ -4730,7 +4412,7 @@
         <v>3</v>
       </c>
       <c r="G79" s="2">
-        <f>SUM(L79:AB79)</f>
+        <f>SUM(L79:X79)</f>
         <v>0</v>
       </c>
       <c r="H79" s="2">
@@ -4754,12 +4436,8 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
-      <c r="Y79" s="1"/>
-      <c r="Z79" s="1"/>
-      <c r="AA79" s="1"/>
-      <c r="AB79" s="1"/>
-    </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A80" s="1">
         <v>76</v>
       </c>
@@ -4773,7 +4451,7 @@
         <v>3</v>
       </c>
       <c r="G80" s="2">
-        <f>SUM(L80:AB80)</f>
+        <f>SUM(L80:X80)</f>
         <v>0</v>
       </c>
       <c r="H80" s="2">
@@ -4797,12 +4475,8 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
-      <c r="Y80" s="1"/>
-      <c r="Z80" s="1"/>
-      <c r="AA80" s="1"/>
-      <c r="AB80" s="1"/>
-    </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A81" s="1">
         <v>77</v>
       </c>
@@ -4816,7 +4490,7 @@
         <v>4</v>
       </c>
       <c r="G81" s="2">
-        <f>SUM(L81:AB81)</f>
+        <f>SUM(L81:X81)</f>
         <v>0</v>
       </c>
       <c r="H81" s="2">
@@ -4840,12 +4514,8 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
       <c r="X81" s="1"/>
-      <c r="Y81" s="1"/>
-      <c r="Z81" s="1"/>
-      <c r="AA81" s="1"/>
-      <c r="AB81" s="1"/>
-    </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A82" s="1">
         <v>78</v>
       </c>
@@ -4890,12 +4560,8 @@
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
       <c r="X82" s="1"/>
-      <c r="Y82" s="1"/>
-      <c r="Z82" s="1"/>
-      <c r="AA82" s="1"/>
-      <c r="AB82" s="1"/>
-    </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -4911,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="2">
-        <f>SUM(L83:AB83)</f>
+        <f>SUM(L83:X83)</f>
         <v>0</v>
       </c>
       <c r="H83" s="2">
@@ -4937,12 +4603,8 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
-      <c r="Y83" s="1"/>
-      <c r="Z83" s="1"/>
-      <c r="AA83" s="1"/>
-      <c r="AB83" s="1"/>
-    </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A84" s="1">
         <v>80</v>
       </c>
@@ -4958,7 +4620,7 @@
         <v>4</v>
       </c>
       <c r="G84" s="2">
-        <f>SUM(L84:AB84)</f>
+        <f>SUM(L84:X84)</f>
         <v>0</v>
       </c>
       <c r="H84" s="2">
@@ -4982,12 +4644,8 @@
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
-      <c r="Y84" s="1"/>
-      <c r="Z84" s="1"/>
-      <c r="AA84" s="1"/>
-      <c r="AB84" s="1"/>
-    </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A85" s="1">
         <v>81</v>
       </c>
@@ -5003,7 +4661,7 @@
         <v>4</v>
       </c>
       <c r="G85" s="2">
-        <f>SUM(L85:AB85)</f>
+        <f>SUM(L85:X85)</f>
         <v>0</v>
       </c>
       <c r="H85" s="2">
@@ -5027,12 +4685,8 @@
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
-      <c r="Y85" s="1"/>
-      <c r="Z85" s="1"/>
-      <c r="AA85" s="1"/>
-      <c r="AB85" s="1"/>
-    </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A86" s="1">
         <v>82</v>
       </c>
@@ -5048,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="2">
-        <f>SUM(L86:AB86)</f>
+        <f>SUM(L86:X86)</f>
         <v>0</v>
       </c>
       <c r="H86" s="2">
@@ -5074,12 +4728,8 @@
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
-      <c r="Y86" s="1"/>
-      <c r="Z86" s="1"/>
-      <c r="AA86" s="1"/>
-      <c r="AB86" s="1"/>
-    </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A87" s="1">
         <v>83</v>
       </c>
@@ -5124,12 +4774,8 @@
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
-      <c r="Y87" s="1"/>
-      <c r="Z87" s="1"/>
-      <c r="AA87" s="1"/>
-      <c r="AB87" s="1"/>
-    </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A88" s="1">
         <v>84</v>
       </c>
@@ -5145,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="G88" s="2">
-        <f>SUM(L88:AB88)</f>
+        <f>SUM(L88:X88)</f>
         <v>0</v>
       </c>
       <c r="H88" s="2">
@@ -5171,12 +4817,8 @@
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
-      <c r="Y88" s="1"/>
-      <c r="Z88" s="1"/>
-      <c r="AA88" s="1"/>
-      <c r="AB88" s="1"/>
-    </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A89" s="1">
         <v>85</v>
       </c>
@@ -5192,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="G89" s="2">
-        <f>SUM(L89:AB89)</f>
+        <f>SUM(L89:X89)</f>
         <v>0</v>
       </c>
       <c r="H89" s="2">
@@ -5218,12 +4860,8 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
-      <c r="Y89" s="1"/>
-      <c r="Z89" s="1"/>
-      <c r="AA89" s="1"/>
-      <c r="AB89" s="1"/>
-    </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A90" s="1">
         <v>86</v>
       </c>
@@ -5239,7 +4877,7 @@
         <v>2</v>
       </c>
       <c r="G90" s="2">
-        <f>SUM(L90:AB90)</f>
+        <f>SUM(L90:X90)</f>
         <v>0</v>
       </c>
       <c r="H90" s="2">
@@ -5263,12 +4901,8 @@
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
-      <c r="Y90" s="1"/>
-      <c r="Z90" s="1"/>
-      <c r="AA90" s="1"/>
-      <c r="AB90" s="1"/>
-    </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A91" s="1">
         <v>87</v>
       </c>
@@ -5284,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="G91" s="2">
-        <f>SUM(L91:AB91)</f>
+        <f>SUM(L91:X91)</f>
         <v>0</v>
       </c>
       <c r="H91" s="2">
@@ -5310,12 +4944,8 @@
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
-      <c r="Y91" s="1"/>
-      <c r="Z91" s="1"/>
-      <c r="AA91" s="1"/>
-      <c r="AB91" s="1"/>
-    </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A92" s="1">
         <v>88</v>
       </c>
@@ -5331,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="2">
-        <f>SUM(L92:AB92)</f>
+        <f>SUM(L92:X92)</f>
         <v>0</v>
       </c>
       <c r="H92" s="2">
@@ -5357,12 +4987,8 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
-      <c r="Y92" s="1"/>
-      <c r="Z92" s="1"/>
-      <c r="AA92" s="1"/>
-      <c r="AB92" s="1"/>
-    </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A93" s="1">
         <v>89</v>
       </c>
@@ -5378,11 +5004,11 @@
         <v>3</v>
       </c>
       <c r="G93" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H93" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I93" s="4">
         <v>1</v>
@@ -5399,18 +5025,16 @@
       <c r="R93" s="1">
         <v>3</v>
       </c>
-      <c r="S93" s="1"/>
+      <c r="S93" s="1">
+        <v>2</v>
+      </c>
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
-      <c r="Y93" s="1"/>
-      <c r="Z93" s="1"/>
-      <c r="AA93" s="1"/>
-      <c r="AB93" s="1"/>
-    </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A94" s="1">
         <v>90</v>
       </c>
@@ -5451,12 +5075,8 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
-      <c r="Y94" s="1"/>
-      <c r="Z94" s="1"/>
-      <c r="AA94" s="1"/>
-      <c r="AB94" s="1"/>
-    </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A95" s="1">
         <v>91</v>
       </c>
@@ -5472,11 +5092,11 @@
         <v>2</v>
       </c>
       <c r="G95" s="2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H95" s="2">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I95" s="4">
         <v>0.8</v>
@@ -5491,18 +5111,16 @@
         <v>1.5</v>
       </c>
       <c r="R95" s="1"/>
-      <c r="S95" s="1"/>
+      <c r="S95" s="1">
+        <v>0.5</v>
+      </c>
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
-      <c r="Y95" s="1"/>
-      <c r="Z95" s="1"/>
-      <c r="AA95" s="1"/>
-      <c r="AB95" s="1"/>
-    </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A96" s="1">
         <v>92</v>
       </c>
@@ -5518,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="2">
-        <f>SUM(L96:AB96)</f>
+        <f>SUM(L96:X96)</f>
         <v>0</v>
       </c>
       <c r="H96" s="2">
@@ -5544,12 +5162,8 @@
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
-      <c r="Y96" s="1"/>
-      <c r="Z96" s="1"/>
-      <c r="AA96" s="1"/>
-      <c r="AB96" s="1"/>
-    </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A97" s="1">
         <v>93</v>
       </c>
@@ -5565,11 +5179,11 @@
         <v>4</v>
       </c>
       <c r="G97" s="2">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H97" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I97" s="4">
         <v>1</v>
@@ -5588,18 +5202,16 @@
       <c r="R97" s="1">
         <v>1</v>
       </c>
-      <c r="S97" s="1"/>
+      <c r="S97" s="1">
+        <v>0.5</v>
+      </c>
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
-      <c r="Y97" s="1"/>
-      <c r="Z97" s="1"/>
-      <c r="AA97" s="1"/>
-      <c r="AB97" s="1"/>
-    </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A98" s="1">
         <v>94</v>
       </c>
@@ -5640,12 +5252,8 @@
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
-      <c r="Y98" s="1"/>
-      <c r="Z98" s="1"/>
-      <c r="AA98" s="1"/>
-      <c r="AB98" s="1"/>
-    </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A99" s="1">
         <v>95</v>
       </c>
@@ -5663,11 +5271,11 @@
         <v>4</v>
       </c>
       <c r="G99" s="2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H99" s="2">
         <f t="shared" ref="H99:H116" si="3">F99-G99</f>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="I99" s="4">
         <v>1</v>
@@ -5684,18 +5292,16 @@
       <c r="R99" s="1">
         <v>1.5</v>
       </c>
-      <c r="S99" s="1"/>
+      <c r="S99" s="1">
+        <v>0.5</v>
+      </c>
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
-      <c r="Y99" s="1"/>
-      <c r="Z99" s="1"/>
-      <c r="AA99" s="1"/>
-      <c r="AB99" s="1"/>
-    </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A100" s="1">
         <v>96</v>
       </c>
@@ -5736,12 +5342,8 @@
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
-      <c r="Y100" s="1"/>
-      <c r="Z100" s="1"/>
-      <c r="AA100" s="1"/>
-      <c r="AB100" s="1"/>
-    </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A101" s="1">
         <v>97</v>
       </c>
@@ -5757,7 +5359,7 @@
         <v>4</v>
       </c>
       <c r="G101" s="2">
-        <f>SUM(L101:AB101)</f>
+        <f>SUM(L101:X101)</f>
         <v>0</v>
       </c>
       <c r="H101" s="2">
@@ -5781,12 +5383,8 @@
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
-      <c r="Y101" s="1"/>
-      <c r="Z101" s="1"/>
-      <c r="AA101" s="1"/>
-      <c r="AB101" s="1"/>
-    </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A102" s="1">
         <v>98</v>
       </c>
@@ -5801,7 +5399,7 @@
         <v>0.5</v>
       </c>
       <c r="G102" s="2">
-        <f>SUM(L102:AB102)</f>
+        <f>SUM(L102:X102)</f>
         <v>0</v>
       </c>
       <c r="H102" s="2">
@@ -5825,12 +5423,8 @@
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
-      <c r="Y102" s="1"/>
-      <c r="Z102" s="1"/>
-      <c r="AA102" s="1"/>
-      <c r="AB102" s="1"/>
-    </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A103" s="1">
         <v>99</v>
       </c>
@@ -5846,7 +5440,7 @@
         <v>0.5</v>
       </c>
       <c r="G103" s="2">
-        <f>SUM(L103:AB103)</f>
+        <f>SUM(L103:X103)</f>
         <v>0</v>
       </c>
       <c r="H103" s="2">
@@ -5870,12 +5464,8 @@
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
-      <c r="Y103" s="1"/>
-      <c r="Z103" s="1"/>
-      <c r="AA103" s="1"/>
-      <c r="AB103" s="1"/>
-    </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A104" s="1">
         <v>100</v>
       </c>
@@ -5891,7 +5481,7 @@
         <v>4</v>
       </c>
       <c r="G104" s="2">
-        <f>SUM(L104:AB104)</f>
+        <f>SUM(L104:X104)</f>
         <v>0</v>
       </c>
       <c r="H104" s="2">
@@ -5915,12 +5505,8 @@
       <c r="V104" s="1"/>
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
-      <c r="Y104" s="1"/>
-      <c r="Z104" s="1"/>
-      <c r="AA104" s="1"/>
-      <c r="AB104" s="1"/>
-    </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A105" s="1">
         <v>101</v>
       </c>
@@ -5936,7 +5522,7 @@
         <v>0.5</v>
       </c>
       <c r="G105" s="2">
-        <f>SUM(L105:AB105)</f>
+        <f>SUM(L105:X105)</f>
         <v>0</v>
       </c>
       <c r="H105" s="2">
@@ -5960,12 +5546,8 @@
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
       <c r="X105" s="1"/>
-      <c r="Y105" s="1"/>
-      <c r="Z105" s="1"/>
-      <c r="AA105" s="1"/>
-      <c r="AB105" s="1"/>
-    </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A106" s="1">
         <v>102</v>
       </c>
@@ -5981,17 +5563,18 @@
         <v>4</v>
       </c>
       <c r="G106" s="2">
-        <f>SUM(L106:AB106)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H106" s="2">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I106" s="4">
-        <v>0</v>
-      </c>
-      <c r="J106" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
@@ -5999,18 +5582,16 @@
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
-      <c r="S106" s="1"/>
+      <c r="S106" s="1">
+        <v>3</v>
+      </c>
       <c r="T106" s="1"/>
       <c r="U106" s="1"/>
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
       <c r="X106" s="1"/>
-      <c r="Y106" s="1"/>
-      <c r="Z106" s="1"/>
-      <c r="AA106" s="1"/>
-      <c r="AB106" s="1"/>
-    </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A107" s="1">
         <v>103</v>
       </c>
@@ -6025,17 +5606,18 @@
         <v>0.5</v>
       </c>
       <c r="G107" s="2">
-        <f>SUM(L107:AB107)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H107" s="2">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I107" s="4">
-        <v>0</v>
-      </c>
-      <c r="J107" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
@@ -6043,18 +5625,16 @@
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
-      <c r="S107" s="1"/>
+      <c r="S107" s="1">
+        <v>0.5</v>
+      </c>
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
       <c r="X107" s="1"/>
-      <c r="Y107" s="1"/>
-      <c r="Z107" s="1"/>
-      <c r="AA107" s="1"/>
-      <c r="AB107" s="1"/>
-    </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A108" s="1">
         <v>104</v>
       </c>
@@ -6070,17 +5650,18 @@
         <v>0.5</v>
       </c>
       <c r="G108" s="2">
-        <f>SUM(L108:AB108)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H108" s="2">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I108" s="4">
-        <v>0</v>
-      </c>
-      <c r="J108" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
@@ -6088,18 +5669,16 @@
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
-      <c r="S108" s="1"/>
+      <c r="S108" s="1">
+        <v>0.5</v>
+      </c>
       <c r="T108" s="1"/>
       <c r="U108" s="1"/>
       <c r="V108" s="1"/>
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
-      <c r="Y108" s="1"/>
-      <c r="Z108" s="1"/>
-      <c r="AA108" s="1"/>
-      <c r="AB108" s="1"/>
-    </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A109" s="1">
         <v>105</v>
       </c>
@@ -6115,17 +5694,18 @@
         <v>2</v>
       </c>
       <c r="G109" s="2">
-        <f>SUM(L109:AB109)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H109" s="2">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I109" s="4">
-        <v>0</v>
-      </c>
-      <c r="J109" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
@@ -6133,18 +5713,16 @@
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
-      <c r="S109" s="1"/>
+      <c r="S109" s="1">
+        <v>0.5</v>
+      </c>
       <c r="T109" s="1"/>
       <c r="U109" s="1"/>
       <c r="V109" s="1"/>
       <c r="W109" s="1"/>
       <c r="X109" s="1"/>
-      <c r="Y109" s="1"/>
-      <c r="Z109" s="1"/>
-      <c r="AA109" s="1"/>
-      <c r="AB109" s="1"/>
-    </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A110" s="1">
         <v>106</v>
       </c>
@@ -6160,17 +5738,19 @@
         <v>0.5</v>
       </c>
       <c r="G110" s="2">
-        <f>SUM(L110:AB110)</f>
-        <v>0</v>
+        <f>SUM(L110:X110)</f>
+        <v>0.5</v>
       </c>
       <c r="H110" s="2">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I110" s="4">
-        <v>0</v>
-      </c>
-      <c r="J110" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
@@ -6178,18 +5758,16 @@
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
-      <c r="S110" s="1"/>
+      <c r="S110" s="1">
+        <v>0.5</v>
+      </c>
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
       <c r="X110" s="1"/>
-      <c r="Y110" s="1"/>
-      <c r="Z110" s="1"/>
-      <c r="AA110" s="1"/>
-      <c r="AB110" s="1"/>
-    </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A111" s="1">
         <v>107</v>
       </c>
@@ -6201,7 +5779,7 @@
         <v>0</v>
       </c>
       <c r="G111" s="2">
-        <f>SUM(L111:AB111)</f>
+        <f>SUM(L111:X111)</f>
         <v>0</v>
       </c>
       <c r="H111" s="2">
@@ -6225,12 +5803,8 @@
       <c r="V111" s="1"/>
       <c r="W111" s="1"/>
       <c r="X111" s="1"/>
-      <c r="Y111" s="1"/>
-      <c r="Z111" s="1"/>
-      <c r="AA111" s="1"/>
-      <c r="AB111" s="1"/>
-    </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A112" s="1">
         <v>108</v>
       </c>
@@ -6242,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="G112" s="2">
-        <f>SUM(L112:AB112)</f>
+        <f>SUM(L112:X112)</f>
         <v>0</v>
       </c>
       <c r="H112" s="2">
@@ -6266,12 +5840,8 @@
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
       <c r="X112" s="1"/>
-      <c r="Y112" s="1"/>
-      <c r="Z112" s="1"/>
-      <c r="AA112" s="1"/>
-      <c r="AB112" s="1"/>
-    </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A113" s="1">
         <v>109</v>
       </c>
@@ -6283,7 +5853,7 @@
         <v>0</v>
       </c>
       <c r="G113" s="2">
-        <f>SUM(L113:AB113)</f>
+        <f>SUM(L113:X113)</f>
         <v>0</v>
       </c>
       <c r="H113" s="2">
@@ -6307,12 +5877,8 @@
       <c r="V113" s="1"/>
       <c r="W113" s="1"/>
       <c r="X113" s="1"/>
-      <c r="Y113" s="1"/>
-      <c r="Z113" s="1"/>
-      <c r="AA113" s="1"/>
-      <c r="AB113" s="1"/>
-    </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A114" s="1">
         <v>110</v>
       </c>
@@ -6324,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="G114" s="2">
-        <f>SUM(L114:AB114)</f>
+        <f>SUM(L114:X114)</f>
         <v>0</v>
       </c>
       <c r="H114" s="2">
@@ -6348,12 +5914,8 @@
       <c r="V114" s="1"/>
       <c r="W114" s="1"/>
       <c r="X114" s="1"/>
-      <c r="Y114" s="1"/>
-      <c r="Z114" s="1"/>
-      <c r="AA114" s="1"/>
-      <c r="AB114" s="1"/>
-    </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A115" s="1">
         <v>111</v>
       </c>
@@ -6365,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="G115" s="2">
-        <f>SUM(L115:AB115)</f>
+        <f>SUM(L115:X115)</f>
         <v>0</v>
       </c>
       <c r="H115" s="2">
@@ -6389,12 +5951,8 @@
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
       <c r="X115" s="1"/>
-      <c r="Y115" s="1"/>
-      <c r="Z115" s="1"/>
-      <c r="AA115" s="1"/>
-      <c r="AB115" s="1"/>
-    </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A116" s="1">
         <v>112</v>
       </c>
@@ -6406,7 +5964,7 @@
         <v>0</v>
       </c>
       <c r="G116" s="2">
-        <f>SUM(L116:AB116)</f>
+        <f>SUM(L116:X116)</f>
         <v>0</v>
       </c>
       <c r="H116" s="2">
@@ -6430,12 +5988,8 @@
       <c r="V116" s="1"/>
       <c r="W116" s="1"/>
       <c r="X116" s="1"/>
-      <c r="Y116" s="1"/>
-      <c r="Z116" s="1"/>
-      <c r="AA116" s="1"/>
-      <c r="AB116" s="1"/>
-    </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.6">
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -6447,7 +6001,7 @@
       <c r="I117" s="4"/>
       <c r="J117" s="1"/>
     </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="F118" s="2"/>
@@ -6468,32 +6022,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db">
-      <UserInfo>
-        <DisplayName>研修チーム メンバー</DisplayName>
-        <AccountId>14</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0407f581-f061-4023-8230-a56bb2488a70">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101002B575DD8F27F34448B33AFE63EFD0D8E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="48978d9a722114fd94336a748046495d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0407f581-f061-4023-8230-a56bb2488a70" xmlns:ns3="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0991ac94477647fa7d2a63066c31f3bb" ns2:_="" ns3:_="">
     <xsd:import namespace="0407f581-f061-4023-8230-a56bb2488a70"/>
@@ -6704,10 +6232,47 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db">
+      <UserInfo>
+        <DisplayName>研修チーム メンバー</DisplayName>
+        <AccountId>14</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0407f581-f061-4023-8230-a56bb2488a70">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B27C22-B7FB-4299-9545-CC05027530D6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D46D63A-865A-4ECC-8FB1-D9250E892073}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0407f581-f061-4023-8230-a56bb2488a70"/>
+    <ds:schemaRef ds:uri="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6724,20 +6289,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D46D63A-865A-4ECC-8FB1-D9250E892073}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B27C22-B7FB-4299-9545-CC05027530D6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0407f581-f061-4023-8230-a56bb2488a70"/>
-    <ds:schemaRef ds:uri="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/100_受講者/05_最上/銭湯記録アプリ開発/アプリケーション作成WBS.xlsx
+++ b/100_受講者/05_最上/銭湯記録アプリ開発/アプリケーション作成WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\work\銭湯記録アプリ開発\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F7F141-C841-4E57-951A-E7464FA7B412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218C1C79-0EDC-49C3-A198-F56286FDE425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{419D748C-3A1E-D948-83B4-89E68F6A4488}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="103">
   <si>
     <t>アプリケーション作成WBS</t>
     <rPh sb="8" eb="10">
@@ -713,6 +713,29 @@
   </si>
   <si>
     <t>検索結果表示</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>感想の追加</t>
+    <rPh sb="0" eb="2">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>感想追加ボタンをクリックで追加できる</t>
+    <rPh sb="0" eb="2">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1192,13 +1215,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFE88A0-CAA1-9340-A8B6-7BDAD2A12E99}">
-  <dimension ref="A1:X118"/>
+  <dimension ref="A1:X119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="F89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="F84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B90" sqref="B90"/>
+      <selection pane="bottomRight" activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
@@ -3098,7 +3121,7 @@
         <v>3</v>
       </c>
       <c r="G46" s="2">
-        <f>SUM(L46:X46)</f>
+        <f t="shared" ref="G46:G55" si="2">SUM(L46:X46)</f>
         <v>0</v>
       </c>
       <c r="H46" s="2">
@@ -3137,7 +3160,7 @@
         <v>3</v>
       </c>
       <c r="G47" s="2">
-        <f>SUM(L47:X47)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H47" s="2">
@@ -3176,7 +3199,7 @@
         <v>3</v>
       </c>
       <c r="G48" s="2">
-        <f>SUM(L48:X48)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H48" s="2">
@@ -3215,7 +3238,7 @@
         <v>3</v>
       </c>
       <c r="G49" s="2">
-        <f>SUM(L49:X49)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H49" s="2">
@@ -3254,7 +3277,7 @@
         <v>3</v>
       </c>
       <c r="G50" s="2">
-        <f>SUM(L50:X50)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H50" s="2">
@@ -3293,7 +3316,7 @@
         <v>3</v>
       </c>
       <c r="G51" s="2">
-        <f>SUM(L51:X51)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H51" s="2">
@@ -3332,7 +3355,7 @@
         <v>3</v>
       </c>
       <c r="G52" s="2">
-        <f>SUM(L52:X52)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H52" s="2">
@@ -3371,7 +3394,7 @@
         <v>3</v>
       </c>
       <c r="G53" s="2">
-        <f>SUM(L53:X53)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H53" s="2">
@@ -3410,7 +3433,7 @@
         <v>3</v>
       </c>
       <c r="G54" s="2">
-        <f>SUM(L54:X54)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H54" s="2">
@@ -3449,7 +3472,7 @@
         <v>3</v>
       </c>
       <c r="G55" s="2">
-        <f>SUM(L55:X55)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H55" s="2">
@@ -3735,7 +3758,7 @@
         <v>4</v>
       </c>
       <c r="H62" s="2">
-        <f t="shared" ref="H62:H98" si="2">F62-G62</f>
+        <f t="shared" ref="H62:H99" si="3">F62-G62</f>
         <v>0</v>
       </c>
       <c r="I62" s="4">
@@ -3781,7 +3804,7 @@
         <v>3</v>
       </c>
       <c r="H63" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I63" s="4">
@@ -3823,7 +3846,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I64" s="4">
@@ -3860,11 +3883,11 @@
         <v>3</v>
       </c>
       <c r="G65" s="2">
-        <f>SUM(L65:X65)</f>
+        <f t="shared" ref="G65:G74" si="4">SUM(L65:X65)</f>
         <v>0</v>
       </c>
       <c r="H65" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I65" s="4">
@@ -3899,11 +3922,11 @@
         <v>3</v>
       </c>
       <c r="G66" s="2">
-        <f>SUM(L66:X66)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H66" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I66" s="4">
@@ -3938,11 +3961,11 @@
         <v>3</v>
       </c>
       <c r="G67" s="2">
-        <f>SUM(L67:X67)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H67" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I67" s="4">
@@ -3977,11 +4000,11 @@
         <v>3</v>
       </c>
       <c r="G68" s="2">
-        <f>SUM(L68:X68)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H68" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I68" s="4">
@@ -4016,11 +4039,11 @@
         <v>3</v>
       </c>
       <c r="G69" s="2">
-        <f>SUM(L69:X69)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H69" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I69" s="4">
@@ -4055,11 +4078,11 @@
         <v>3</v>
       </c>
       <c r="G70" s="2">
-        <f>SUM(L70:X70)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H70" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I70" s="4">
@@ -4094,11 +4117,11 @@
         <v>3</v>
       </c>
       <c r="G71" s="2">
-        <f>SUM(L71:X71)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H71" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I71" s="4">
@@ -4133,11 +4156,11 @@
         <v>3</v>
       </c>
       <c r="G72" s="2">
-        <f>SUM(L72:X72)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H72" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I72" s="4">
@@ -4172,11 +4195,11 @@
         <v>3</v>
       </c>
       <c r="G73" s="2">
-        <f>SUM(L73:X73)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H73" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I73" s="4">
@@ -4211,11 +4234,11 @@
         <v>3</v>
       </c>
       <c r="G74" s="2">
-        <f>SUM(L74:X74)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H74" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I74" s="4">
@@ -4255,7 +4278,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I75" s="4">
@@ -4296,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="H76" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I76" s="4">
@@ -4335,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I77" s="4">
@@ -4375,7 +4398,7 @@
         <v>2</v>
       </c>
       <c r="H78" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I78" s="4">
@@ -4416,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="H79" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I79" s="4">
@@ -4455,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="H80" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I80" s="4">
@@ -4494,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I81" s="4">
@@ -4534,7 +4557,7 @@
         <v>2.5</v>
       </c>
       <c r="H82" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I82" s="4">
@@ -4581,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I83" s="4">
@@ -4624,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="H84" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I84" s="4">
@@ -4665,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="H85" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I85" s="4">
@@ -4706,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="H86" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I86" s="4">
@@ -4748,7 +4771,7 @@
         <v>3.5</v>
       </c>
       <c r="H87" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.5</v>
       </c>
       <c r="I87" s="4">
@@ -4795,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="H88" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I88" s="4">
@@ -4838,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="H89" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I89" s="4">
@@ -4881,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="H90" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I90" s="4">
@@ -4906,31 +4929,28 @@
       <c r="A91" s="1">
         <v>87</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
+      <c r="E91" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="F91" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G91" s="2">
-        <f>SUM(L91:X91)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H91" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="I91" s="4">
-        <v>1</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="J91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
@@ -4939,7 +4959,9 @@
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
-      <c r="T91" s="1"/>
+      <c r="T91" s="1">
+        <v>3</v>
+      </c>
       <c r="U91" s="1"/>
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
@@ -4949,14 +4971,14 @@
       <c r="A92" s="1">
         <v>88</v>
       </c>
-      <c r="B92" s="1"/>
+      <c r="B92" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C92" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D92" s="1"/>
-      <c r="E92" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="E92" s="1"/>
       <c r="F92" s="2">
         <v>0</v>
       </c>
@@ -4965,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="H92" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I92" s="4">
@@ -4994,21 +5016,22 @@
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F93" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G93" s="2">
-        <v>5</v>
+        <f>SUM(L93:X93)</f>
+        <v>0</v>
       </c>
       <c r="H93" s="2">
-        <f t="shared" si="2"/>
-        <v>-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I93" s="4">
         <v>1</v>
@@ -5022,12 +5045,8 @@
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
-      <c r="R93" s="1">
-        <v>3</v>
-      </c>
-      <c r="S93" s="1">
-        <v>2</v>
-      </c>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
       <c r="V93" s="1"/>
@@ -5040,36 +5059,40 @@
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F94" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G94" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H94" s="2">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>-2</v>
       </c>
       <c r="I94" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="J94" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
-      <c r="Q94" s="1">
-        <v>1</v>
-      </c>
-      <c r="R94" s="1"/>
-      <c r="S94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1">
+        <v>3</v>
+      </c>
+      <c r="S94" s="1">
+        <v>2</v>
+      </c>
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
@@ -5080,23 +5103,23 @@
       <c r="A95" s="1">
         <v>91</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
+      <c r="E95" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="F95" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G95" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="I95" s="4">
         <v>0.8</v>
@@ -5108,12 +5131,10 @@
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
       <c r="Q95" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R95" s="1"/>
-      <c r="S95" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="S95" s="1"/>
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
       <c r="V95" s="1"/>
@@ -5124,39 +5145,40 @@
       <c r="A96" s="1">
         <v>92</v>
       </c>
-      <c r="B96" s="1"/>
+      <c r="B96" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="C96" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D96" s="1"/>
-      <c r="E96" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="E96" s="1"/>
       <c r="F96" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G96" s="2">
-        <f>SUM(L96:X96)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H96" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I96" s="4">
-        <v>1</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="J96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
-      <c r="Q96" s="1"/>
+      <c r="Q96" s="1">
+        <v>1.5</v>
+      </c>
       <c r="R96" s="1"/>
-      <c r="S96" s="1"/>
+      <c r="S96" s="1">
+        <v>0.5</v>
+      </c>
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
       <c r="V96" s="1"/>
@@ -5169,21 +5191,22 @@
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F97" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G97" s="2">
-        <v>3.5</v>
+        <f>SUM(L97:X97)</f>
+        <v>0</v>
       </c>
       <c r="H97" s="2">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I97" s="4">
         <v>1</v>
@@ -5196,15 +5219,9 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
-      <c r="Q97" s="1">
-        <v>2</v>
-      </c>
-      <c r="R97" s="1">
-        <v>1</v>
-      </c>
-      <c r="S97" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
       <c r="V97" s="1"/>
@@ -5217,36 +5234,42 @@
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F98" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G98" s="2">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H98" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="I98" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="J98" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
       <c r="Q98" s="1">
-        <v>1</v>
-      </c>
-      <c r="R98" s="1"/>
-      <c r="S98" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="R98" s="1">
+        <v>1</v>
+      </c>
+      <c r="S98" s="1">
+        <v>0.5</v>
+      </c>
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
       <c r="V98" s="1"/>
@@ -5257,44 +5280,38 @@
       <c r="A99" s="1">
         <v>95</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F99" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G99" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H99" s="2">
-        <f t="shared" ref="H99:H116" si="3">F99-G99</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="I99" s="4">
-        <v>1</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="J99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
-      <c r="Q99" s="1"/>
-      <c r="R99" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="S99" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="Q99" s="1">
+        <v>1</v>
+      </c>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
       <c r="V99" s="1"/>
@@ -5305,28 +5322,32 @@
       <c r="A100" s="1">
         <v>96</v>
       </c>
-      <c r="B100" s="1"/>
+      <c r="B100" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="C100" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F100" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G100" s="2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H100" s="2">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
+        <f t="shared" ref="H100:H117" si="5">F100-G100</f>
+        <v>2</v>
       </c>
       <c r="I100" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="J100" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
@@ -5334,9 +5355,11 @@
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
       <c r="R100" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="S100" s="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="S100" s="1">
+        <v>0.5</v>
+      </c>
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
       <c r="V100" s="1"/>
@@ -5347,27 +5370,26 @@
       <c r="A101" s="1">
         <v>97</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
+      <c r="E101" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="F101" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G101" s="2">
-        <f>SUM(L101:X101)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H101" s="2">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>0.5</v>
       </c>
       <c r="I101" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J101" s="1"/>
       <c r="L101" s="1"/>
@@ -5376,7 +5398,9 @@
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
-      <c r="R101" s="1"/>
+      <c r="R101" s="1">
+        <v>0.5</v>
+      </c>
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
@@ -5388,28 +5412,30 @@
       <c r="A102" s="1">
         <v>98</v>
       </c>
+      <c r="B102" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="C102" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D102" s="1"/>
-      <c r="E102" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="E102" s="1"/>
       <c r="F102" s="2">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="G102" s="2">
-        <f>SUM(L102:X102)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H102" s="2">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="I102" s="4">
-        <v>0</v>
-      </c>
-      <c r="J102" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
@@ -5418,7 +5444,9 @@
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
-      <c r="T102" s="1"/>
+      <c r="T102" s="1">
+        <v>4</v>
+      </c>
       <c r="U102" s="1"/>
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
@@ -5428,29 +5456,29 @@
       <c r="A103" s="1">
         <v>99</v>
       </c>
-      <c r="B103" s="1"/>
       <c r="C103" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F103" s="2">
         <v>0.5</v>
       </c>
       <c r="G103" s="2">
-        <f>SUM(L103:X103)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H103" s="2">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="I103" s="4">
-        <v>0</v>
-      </c>
-      <c r="J103" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
@@ -5459,7 +5487,9 @@
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
-      <c r="T103" s="1"/>
+      <c r="T103" s="1">
+        <v>0.5</v>
+      </c>
       <c r="U103" s="1"/>
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
@@ -5471,27 +5501,28 @@
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="F104" s="2">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G104" s="2">
-        <f>SUM(L104:X104)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H104" s="2">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="I104" s="4">
-        <v>0</v>
-      </c>
-      <c r="J104" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
@@ -5500,7 +5531,9 @@
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
-      <c r="T104" s="1"/>
+      <c r="T104" s="1">
+        <v>0.5</v>
+      </c>
       <c r="U104" s="1"/>
       <c r="V104" s="1"/>
       <c r="W104" s="1"/>
@@ -5512,27 +5545,28 @@
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="F105" s="2">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="G105" s="2">
-        <f>SUM(L105:X105)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H105" s="2">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
+        <f t="shared" si="5"/>
+        <v>3.5</v>
       </c>
       <c r="I105" s="4">
-        <v>0</v>
-      </c>
-      <c r="J105" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
@@ -5541,7 +5575,9 @@
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
-      <c r="T105" s="1"/>
+      <c r="T105" s="1">
+        <v>0.5</v>
+      </c>
       <c r="U105" s="1"/>
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
@@ -5551,23 +5587,24 @@
       <c r="A106" s="1">
         <v>102</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="B106" s="1"/>
       <c r="C106" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
+      <c r="E106" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="F106" s="2">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G106" s="2">
-        <v>3</v>
+        <f>SUM(L106:X106)</f>
+        <v>0.5</v>
       </c>
       <c r="H106" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="I106" s="4">
         <v>1</v>
@@ -5582,10 +5619,10 @@
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
-      <c r="S106" s="1">
-        <v>3</v>
-      </c>
-      <c r="T106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1">
+        <v>0.5</v>
+      </c>
       <c r="U106" s="1"/>
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
@@ -5595,22 +5632,23 @@
       <c r="A107" s="1">
         <v>103</v>
       </c>
+      <c r="B107" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="C107" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D107" s="1"/>
-      <c r="E107" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="E107" s="1"/>
       <c r="F107" s="2">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="G107" s="2">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H107" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="I107" s="4">
         <v>1</v>
@@ -5626,7 +5664,7 @@
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
       <c r="S107" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
@@ -5638,13 +5676,12 @@
       <c r="A108" s="1">
         <v>104</v>
       </c>
-      <c r="B108" s="1"/>
       <c r="C108" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F108" s="2">
         <v>0.5</v>
@@ -5653,7 +5690,7 @@
         <v>0.5</v>
       </c>
       <c r="H108" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I108" s="4">
@@ -5684,21 +5721,21 @@
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F109" s="2">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G109" s="2">
         <v>0.5</v>
       </c>
       <c r="H109" s="2">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="I109" s="4">
         <v>1</v>
@@ -5728,22 +5765,21 @@
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F110" s="2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G110" s="2">
-        <f>SUM(L110:X110)</f>
         <v>0.5</v>
       </c>
       <c r="H110" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1.5</v>
       </c>
       <c r="I110" s="4">
         <v>1</v>
@@ -5772,24 +5808,30 @@
         <v>107</v>
       </c>
       <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
+      <c r="C111" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
+      <c r="E111" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="F111" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G111" s="2">
-        <f>SUM(L111:X111)</f>
-        <v>0</v>
+        <f t="shared" ref="G111:G117" si="6">SUM(L111:X111)</f>
+        <v>0.5</v>
       </c>
       <c r="H111" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I111" s="4">
-        <v>0</v>
-      </c>
-      <c r="J111" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
@@ -5797,7 +5839,9 @@
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
-      <c r="S111" s="1"/>
+      <c r="S111" s="1">
+        <v>0.5</v>
+      </c>
       <c r="T111" s="1"/>
       <c r="U111" s="1"/>
       <c r="V111" s="1"/>
@@ -5816,11 +5860,11 @@
         <v>0</v>
       </c>
       <c r="G112" s="2">
-        <f>SUM(L112:X112)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H112" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I112" s="4">
@@ -5853,11 +5897,11 @@
         <v>0</v>
       </c>
       <c r="G113" s="2">
-        <f>SUM(L113:X113)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H113" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I113" s="4">
@@ -5890,11 +5934,11 @@
         <v>0</v>
       </c>
       <c r="G114" s="2">
-        <f>SUM(L114:X114)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H114" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I114" s="4">
@@ -5927,11 +5971,11 @@
         <v>0</v>
       </c>
       <c r="G115" s="2">
-        <f>SUM(L115:X115)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H115" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I115" s="4">
@@ -5964,11 +6008,11 @@
         <v>0</v>
       </c>
       <c r="G116" s="2">
-        <f>SUM(L116:X116)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H116" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I116" s="4">
@@ -5990,29 +6034,71 @@
       <c r="X116" s="1"/>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A117" s="1"/>
+      <c r="A117" s="1">
+        <v>113</v>
+      </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="4"/>
+      <c r="F117" s="2">
+        <v>0</v>
+      </c>
+      <c r="G117" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H117" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I117" s="4">
+        <v>0</v>
+      </c>
       <c r="J117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="T117" s="1"/>
+      <c r="U117" s="1"/>
+      <c r="V117" s="1"/>
+      <c r="W117" s="1"/>
+      <c r="X117" s="1"/>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A118" s="1"/>
+      <c r="A118" s="1">
+        <v>114</v>
+      </c>
       <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="4"/>
       <c r="J118" s="1"/>
     </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A119" s="1">
+        <v>115</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="H4:H118">
+  <conditionalFormatting sqref="H4:H119">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -6022,6 +6108,32 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db">
+      <UserInfo>
+        <DisplayName>研修チーム メンバー</DisplayName>
+        <AccountId>14</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0407f581-f061-4023-8230-a56bb2488a70">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101002B575DD8F27F34448B33AFE63EFD0D8E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="48978d9a722114fd94336a748046495d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0407f581-f061-4023-8230-a56bb2488a70" xmlns:ns3="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0991ac94477647fa7d2a63066c31f3bb" ns2:_="" ns3:_="">
     <xsd:import namespace="0407f581-f061-4023-8230-a56bb2488a70"/>
@@ -6232,33 +6344,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db">
-      <UserInfo>
-        <DisplayName>研修チーム メンバー</DisplayName>
-        <AccountId>14</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0407f581-f061-4023-8230-a56bb2488a70">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B27C22-B7FB-4299-9545-CC05027530D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AC9E1B8-01F4-40B9-95F3-AB30289C9849}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db"/>
+    <ds:schemaRef ds:uri="0407f581-f061-4023-8230-a56bb2488a70"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D46D63A-865A-4ECC-8FB1-D9250E892073}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6275,23 +6380,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AC9E1B8-01F4-40B9-95F3-AB30289C9849}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db"/>
-    <ds:schemaRef ds:uri="0407f581-f061-4023-8230-a56bb2488a70"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B27C22-B7FB-4299-9545-CC05027530D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/100_受講者/05_最上/銭湯記録アプリ開発/アプリケーション作成WBS.xlsx
+++ b/100_受講者/05_最上/銭湯記録アプリ開発/アプリケーション作成WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\work\銭湯記録アプリ開発\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218C1C79-0EDC-49C3-A198-F56286FDE425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA0BC0A-ACCC-4EA6-AC91-636E0156927B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{419D748C-3A1E-D948-83B4-89E68F6A4488}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="105">
   <si>
     <t>アプリケーション作成WBS</t>
     <rPh sb="8" eb="10">
@@ -735,6 +735,35 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>評価の平均化</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>感想追加時に評価を平均化する</t>
+    <rPh sb="0" eb="4">
+      <t>カンソウツイカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ヘイキンカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -789,7 +818,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -805,6 +834,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,7 +876,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -868,6 +903,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1215,13 +1256,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFE88A0-CAA1-9340-A8B6-7BDAD2A12E99}">
-  <dimension ref="A1:X119"/>
+  <dimension ref="A1:X120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="F84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="F95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G91" sqref="G91"/>
+      <selection pane="bottomRight" activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
@@ -3758,7 +3799,7 @@
         <v>4</v>
       </c>
       <c r="H62" s="2">
-        <f t="shared" ref="H62:H99" si="3">F62-G62</f>
+        <f t="shared" ref="H62:H100" si="3">F62-G62</f>
         <v>0</v>
       </c>
       <c r="I62" s="4">
@@ -4643,17 +4684,18 @@
         <v>4</v>
       </c>
       <c r="G84" s="2">
-        <f>SUM(L84:X84)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" s="2">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I84" s="4">
-        <v>0</v>
-      </c>
-      <c r="J84" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
@@ -4661,7 +4703,9 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
-      <c r="S84" s="1"/>
+      <c r="S84" s="1">
+        <v>1</v>
+      </c>
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
       <c r="V84" s="1"/>
@@ -4684,17 +4728,18 @@
         <v>4</v>
       </c>
       <c r="G85" s="2">
-        <f>SUM(L85:X85)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H85" s="2">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I85" s="4">
-        <v>0</v>
-      </c>
-      <c r="J85" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
@@ -4703,8 +4748,12 @@
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
-      <c r="T85" s="1"/>
-      <c r="U85" s="1"/>
+      <c r="T85" s="1">
+        <v>1</v>
+      </c>
+      <c r="U85" s="1">
+        <v>1</v>
+      </c>
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
@@ -4889,7 +4938,7 @@
         <v>86</v>
       </c>
       <c r="B90" s="1"/>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="9" t="s">
         <v>92</v>
       </c>
       <c r="D90" s="1"/>
@@ -4907,7 +4956,7 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="I90" s="4">
+      <c r="I90" s="10">
         <v>0</v>
       </c>
       <c r="J90" s="1"/>
@@ -4941,16 +4990,18 @@
         <v>4</v>
       </c>
       <c r="G91" s="2">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H91" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="I91" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="J91" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
@@ -4962,7 +5013,9 @@
       <c r="T91" s="1">
         <v>3</v>
       </c>
-      <c r="U91" s="1"/>
+      <c r="U91" s="1">
+        <v>1.5</v>
+      </c>
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
@@ -4971,24 +5024,23 @@
       <c r="A92" s="1">
         <v>88</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
+      <c r="E92" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F92" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G92" s="2">
-        <f>SUM(L92:X92)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H92" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I92" s="4">
         <v>1</v>
@@ -5005,7 +5057,9 @@
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
-      <c r="U92" s="1"/>
+      <c r="U92" s="1">
+        <v>4</v>
+      </c>
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
@@ -5014,14 +5068,14 @@
       <c r="A93" s="1">
         <v>89</v>
       </c>
-      <c r="B93" s="1"/>
+      <c r="B93" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C93" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D93" s="1"/>
-      <c r="E93" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="E93" s="1"/>
       <c r="F93" s="2">
         <v>0</v>
       </c>
@@ -5059,21 +5113,22 @@
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F94" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G94" s="2">
-        <v>5</v>
+        <f>SUM(L94:X94)</f>
+        <v>0</v>
       </c>
       <c r="H94" s="2">
         <f t="shared" si="3"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I94" s="4">
         <v>1</v>
@@ -5087,12 +5142,8 @@
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
-      <c r="R94" s="1">
-        <v>3</v>
-      </c>
-      <c r="S94" s="1">
-        <v>2</v>
-      </c>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
@@ -5105,36 +5156,40 @@
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F95" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G95" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H95" s="2">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="I95" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="J95" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
-      <c r="Q95" s="1">
-        <v>1</v>
-      </c>
-      <c r="R95" s="1"/>
-      <c r="S95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1">
+        <v>3</v>
+      </c>
+      <c r="S95" s="1">
+        <v>2</v>
+      </c>
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
       <c r="V95" s="1"/>
@@ -5145,25 +5200,25 @@
       <c r="A96" s="1">
         <v>92</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>81</v>
+      <c r="B96" s="1"/>
+      <c r="C96" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
+      <c r="E96" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="F96" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G96" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I96" s="4">
+        <v>3</v>
+      </c>
+      <c r="I96" s="10">
         <v>0.8</v>
       </c>
       <c r="J96" s="1"/>
@@ -5173,7 +5228,7 @@
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R96" s="1"/>
       <c r="S96" s="1">
@@ -5189,20 +5244,19 @@
       <c r="A97" s="1">
         <v>93</v>
       </c>
-      <c r="B97" s="1"/>
+      <c r="B97" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="C97" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D97" s="1"/>
-      <c r="E97" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="E97" s="1"/>
       <c r="F97" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G97" s="2">
-        <f>SUM(L97:X97)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H97" s="2">
         <f t="shared" si="3"/>
@@ -5219,9 +5273,13 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
-      <c r="Q97" s="1"/>
+      <c r="Q97" s="1">
+        <v>1.5</v>
+      </c>
       <c r="R97" s="1"/>
-      <c r="S97" s="1"/>
+      <c r="S97" s="1">
+        <v>0.5</v>
+      </c>
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
       <c r="V97" s="1"/>
@@ -5234,21 +5292,22 @@
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F98" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G98" s="2">
-        <v>3.5</v>
+        <f>SUM(L98:X98)</f>
+        <v>0</v>
       </c>
       <c r="H98" s="2">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I98" s="4">
         <v>1</v>
@@ -5261,15 +5320,9 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
-      <c r="Q98" s="1">
-        <v>2</v>
-      </c>
-      <c r="R98" s="1">
-        <v>1</v>
-      </c>
-      <c r="S98" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
       <c r="V98" s="1"/>
@@ -5282,36 +5335,42 @@
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F99" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G99" s="2">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H99" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I99" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="J99" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1">
-        <v>1</v>
-      </c>
-      <c r="R99" s="1"/>
-      <c r="S99" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="R99" s="1">
+        <v>1</v>
+      </c>
+      <c r="S99" s="1">
+        <v>0.5</v>
+      </c>
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
       <c r="V99" s="1"/>
@@ -5322,44 +5381,38 @@
       <c r="A100" s="1">
         <v>96</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>86</v>
+      <c r="B100" s="1"/>
+      <c r="C100" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F100" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G100" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H100" s="2">
-        <f t="shared" ref="H100:H117" si="5">F100-G100</f>
-        <v>2</v>
-      </c>
-      <c r="I100" s="4">
-        <v>1</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>63</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I100" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="J100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
-      <c r="Q100" s="1"/>
-      <c r="R100" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="S100" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="Q100" s="1">
+        <v>1</v>
+      </c>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
       <c r="V100" s="1"/>
@@ -5370,28 +5423,32 @@
       <c r="A101" s="1">
         <v>97</v>
       </c>
-      <c r="B101" s="1"/>
+      <c r="B101" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="C101" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F101" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G101" s="2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H101" s="2">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
+        <f t="shared" ref="H101:H118" si="5">F101-G101</f>
+        <v>2</v>
       </c>
       <c r="I101" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="J101" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
@@ -5399,9 +5456,11 @@
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
       <c r="R101" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="S101" s="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="S101" s="1">
+        <v>0.5</v>
+      </c>
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
       <c r="V101" s="1"/>
@@ -5412,41 +5471,39 @@
       <c r="A102" s="1">
         <v>98</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>81</v>
+      <c r="B102" s="1"/>
+      <c r="C102" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
+      <c r="E102" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="F102" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G102" s="2">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H102" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I102" s="4">
-        <v>1</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="I102" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="J102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
-      <c r="R102" s="1"/>
+      <c r="R102" s="1">
+        <v>0.5</v>
+      </c>
       <c r="S102" s="1"/>
-      <c r="T102" s="1">
-        <v>4</v>
-      </c>
+      <c r="T102" s="1"/>
       <c r="U102" s="1"/>
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
@@ -5456,18 +5513,19 @@
       <c r="A103" s="1">
         <v>99</v>
       </c>
+      <c r="B103" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="C103" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D103" s="1"/>
-      <c r="E103" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="E103" s="1"/>
       <c r="F103" s="2">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="G103" s="2">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H103" s="2">
         <f t="shared" si="5"/>
@@ -5488,9 +5546,11 @@
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
       <c r="T103" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="U103" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="U103" s="1">
+        <v>1</v>
+      </c>
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
@@ -5499,13 +5559,12 @@
       <c r="A104" s="1">
         <v>100</v>
       </c>
-      <c r="B104" s="1"/>
       <c r="C104" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F104" s="2">
         <v>0.5</v>
@@ -5545,21 +5604,21 @@
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="F105" s="2">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G105" s="2">
         <v>0.5</v>
       </c>
       <c r="H105" s="2">
         <f t="shared" si="5"/>
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I105" s="4">
         <v>1</v>
@@ -5589,22 +5648,21 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="F106" s="2">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="G106" s="2">
-        <f>SUM(L106:X106)</f>
         <v>0.5</v>
       </c>
       <c r="H106" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I106" s="4">
         <v>1</v>
@@ -5632,23 +5690,24 @@
       <c r="A107" s="1">
         <v>103</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="B107" s="1"/>
       <c r="C107" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
+      <c r="E107" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="F107" s="2">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G107" s="2">
-        <v>3</v>
+        <f>SUM(L107:X107)</f>
+        <v>0.5</v>
       </c>
       <c r="H107" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" s="4">
         <v>1</v>
@@ -5663,10 +5722,10 @@
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
-      <c r="S107" s="1">
-        <v>3</v>
-      </c>
-      <c r="T107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1">
+        <v>0.5</v>
+      </c>
       <c r="U107" s="1"/>
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
@@ -5676,22 +5735,23 @@
       <c r="A108" s="1">
         <v>104</v>
       </c>
+      <c r="B108" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="C108" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D108" s="1"/>
-      <c r="E108" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="E108" s="1"/>
       <c r="F108" s="2">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="G108" s="2">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H108" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" s="4">
         <v>1</v>
@@ -5707,10 +5767,12 @@
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
       <c r="S108" s="1">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="T108" s="1"/>
-      <c r="U108" s="1"/>
+      <c r="U108" s="1">
+        <v>1</v>
+      </c>
       <c r="V108" s="1"/>
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
@@ -5719,13 +5781,12 @@
       <c r="A109" s="1">
         <v>105</v>
       </c>
-      <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F109" s="2">
         <v>0.5</v>
@@ -5765,21 +5826,21 @@
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F110" s="2">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G110" s="2">
         <v>0.5</v>
       </c>
       <c r="H110" s="2">
         <f t="shared" si="5"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I110" s="4">
         <v>1</v>
@@ -5809,22 +5870,21 @@
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F111" s="2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G111" s="2">
-        <f t="shared" ref="G111:G117" si="6">SUM(L111:X111)</f>
         <v>0.5</v>
       </c>
       <c r="H111" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I111" s="4">
         <v>1</v>
@@ -5853,24 +5913,30 @@
         <v>108</v>
       </c>
       <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
+      <c r="C112" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
+      <c r="E112" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="F112" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G112" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ref="G112:G118" si="6">SUM(L112:X112)</f>
+        <v>0.5</v>
       </c>
       <c r="H112" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I112" s="4">
-        <v>0</v>
-      </c>
-      <c r="J112" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
@@ -5878,7 +5944,9 @@
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
-      <c r="S112" s="1"/>
+      <c r="S112" s="1">
+        <v>0.5</v>
+      </c>
       <c r="T112" s="1"/>
       <c r="U112" s="1"/>
       <c r="V112" s="1"/>
@@ -6078,11 +6146,34 @@
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="4"/>
+      <c r="F118" s="2">
+        <v>0</v>
+      </c>
+      <c r="G118" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H118" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I118" s="4">
+        <v>0</v>
+      </c>
       <c r="J118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+      <c r="U118" s="1"/>
+      <c r="V118" s="1"/>
+      <c r="W118" s="1"/>
+      <c r="X118" s="1"/>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A119" s="1">
@@ -6090,15 +6181,29 @@
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="4"/>
       <c r="J119" s="1"/>
     </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A120" s="1">
+        <v>116</v>
+      </c>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="H4:H119">
+  <conditionalFormatting sqref="H4:H120">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -6108,32 +6213,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db">
-      <UserInfo>
-        <DisplayName>研修チーム メンバー</DisplayName>
-        <AccountId>14</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0407f581-f061-4023-8230-a56bb2488a70">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101002B575DD8F27F34448B33AFE63EFD0D8E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="48978d9a722114fd94336a748046495d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0407f581-f061-4023-8230-a56bb2488a70" xmlns:ns3="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0991ac94477647fa7d2a63066c31f3bb" ns2:_="" ns3:_="">
     <xsd:import namespace="0407f581-f061-4023-8230-a56bb2488a70"/>
@@ -6344,10 +6423,47 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db">
+      <UserInfo>
+        <DisplayName>研修チーム メンバー</DisplayName>
+        <AccountId>14</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0407f581-f061-4023-8230-a56bb2488a70">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B27C22-B7FB-4299-9545-CC05027530D6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D46D63A-865A-4ECC-8FB1-D9250E892073}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0407f581-f061-4023-8230-a56bb2488a70"/>
+    <ds:schemaRef ds:uri="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6364,20 +6480,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D46D63A-865A-4ECC-8FB1-D9250E892073}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B27C22-B7FB-4299-9545-CC05027530D6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0407f581-f061-4023-8230-a56bb2488a70"/>
-    <ds:schemaRef ds:uri="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/100_受講者/05_最上/銭湯記録アプリ開発/アプリケーション作成WBS.xlsx
+++ b/100_受講者/05_最上/銭湯記録アプリ開発/アプリケーション作成WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\work\銭湯記録アプリ開発\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA0BC0A-ACCC-4EA6-AC91-636E0156927B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69385F6-4A70-42C3-AE28-DB1ACA6E6734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{419D748C-3A1E-D948-83B4-89E68F6A4488}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="107">
   <si>
     <t>アプリケーション作成WBS</t>
     <rPh sb="8" eb="10">
@@ -765,6 +765,14 @@
     <rPh sb="9" eb="12">
       <t>ヘイキンカ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TopPage</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デザイン</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1259,10 +1267,10 @@
   <dimension ref="A1:X120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="F95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="F105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A95" sqref="A95"/>
+      <selection pane="bottomRight" activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
@@ -4554,15 +4562,14 @@
         <v>4</v>
       </c>
       <c r="G81" s="2">
-        <f>SUM(L81:X81)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H81" s="2">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="I81" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J81" s="1"/>
       <c r="L81" s="1"/>
@@ -5212,11 +5219,11 @@
         <v>4</v>
       </c>
       <c r="G96" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H96" s="2">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" s="10">
         <v>0.8</v>
@@ -5236,7 +5243,9 @@
       </c>
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
-      <c r="V96" s="1"/>
+      <c r="V96" s="1">
+        <v>3</v>
+      </c>
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
     </row>
@@ -5382,7 +5391,7 @@
         <v>96</v>
       </c>
       <c r="B100" s="1"/>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D100" s="1"/>
@@ -5393,16 +5402,18 @@
         <v>2</v>
       </c>
       <c r="G100" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H100" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I100" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="J100" s="1"/>
+        <v>-2</v>
+      </c>
+      <c r="I100" s="4">
+        <v>1</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
@@ -5415,7 +5426,9 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
-      <c r="V100" s="1"/>
+      <c r="V100" s="1">
+        <v>3</v>
+      </c>
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
     </row>
@@ -5957,23 +5970,27 @@
       <c r="A113" s="1">
         <v>109</v>
       </c>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
+      <c r="B113" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G113" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H113" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" s="4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J113" s="1"/>
       <c r="L113" s="1"/>
@@ -5986,7 +6003,9 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
-      <c r="V113" s="1"/>
+      <c r="V113" s="1">
+        <v>2</v>
+      </c>
       <c r="W113" s="1"/>
       <c r="X113" s="1"/>
     </row>

--- a/100_受講者/05_最上/銭湯記録アプリ開発/アプリケーション作成WBS.xlsx
+++ b/100_受講者/05_最上/銭湯記録アプリ開発/アプリケーション作成WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\work\銭湯記録アプリ開発\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69385F6-4A70-42C3-AE28-DB1ACA6E6734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA87054-2C49-43F3-B932-DF2806232DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{419D748C-3A1E-D948-83B4-89E68F6A4488}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="107">
   <si>
     <t>アプリケーション作成WBS</t>
     <rPh sb="8" eb="10">
@@ -1270,7 +1270,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="F105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B105" sqref="B105"/>
+      <selection pane="bottomRight" activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
@@ -5982,17 +5982,18 @@
         <v>4</v>
       </c>
       <c r="G113" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H113" s="2">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="I113" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="J113" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
@@ -6006,7 +6007,9 @@
       <c r="V113" s="1">
         <v>2</v>
       </c>
-      <c r="W113" s="1"/>
+      <c r="W113" s="1">
+        <v>8</v>
+      </c>
       <c r="X113" s="1"/>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.6">
@@ -6232,6 +6235,32 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db">
+      <UserInfo>
+        <DisplayName>研修チーム メンバー</DisplayName>
+        <AccountId>14</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0407f581-f061-4023-8230-a56bb2488a70">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101002B575DD8F27F34448B33AFE63EFD0D8E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="48978d9a722114fd94336a748046495d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0407f581-f061-4023-8230-a56bb2488a70" xmlns:ns3="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0991ac94477647fa7d2a63066c31f3bb" ns2:_="" ns3:_="">
     <xsd:import namespace="0407f581-f061-4023-8230-a56bb2488a70"/>
@@ -6442,33 +6471,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db">
-      <UserInfo>
-        <DisplayName>研修チーム メンバー</DisplayName>
-        <AccountId>14</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0407f581-f061-4023-8230-a56bb2488a70">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B27C22-B7FB-4299-9545-CC05027530D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AC9E1B8-01F4-40B9-95F3-AB30289C9849}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db"/>
+    <ds:schemaRef ds:uri="0407f581-f061-4023-8230-a56bb2488a70"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D46D63A-865A-4ECC-8FB1-D9250E892073}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6485,23 +6507,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AC9E1B8-01F4-40B9-95F3-AB30289C9849}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db"/>
-    <ds:schemaRef ds:uri="0407f581-f061-4023-8230-a56bb2488a70"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B27C22-B7FB-4299-9545-CC05027530D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/100_受講者/05_最上/銭湯記録アプリ開発/アプリケーション作成WBS.xlsx
+++ b/100_受講者/05_最上/銭湯記録アプリ開発/アプリケーション作成WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\work\銭湯記録アプリ開発\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA87054-2C49-43F3-B932-DF2806232DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5788BED8-7A3A-4265-8CAE-BF7BA8385C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{419D748C-3A1E-D948-83B4-89E68F6A4488}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="107">
   <si>
     <t>アプリケーション作成WBS</t>
     <rPh sb="8" eb="10">
@@ -1267,10 +1267,10 @@
   <dimension ref="A1:X120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="F105" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="F102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B113" sqref="B113"/>
+      <selection pane="bottomRight" activeCell="X115" sqref="X115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
@@ -6016,23 +6016,26 @@
       <c r="A114" s="1">
         <v>110</v>
       </c>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
+      <c r="B114" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G114" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H114" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I114" s="4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J114" s="1"/>
       <c r="L114" s="1"/>
@@ -6047,7 +6050,9 @@
       <c r="U114" s="1"/>
       <c r="V114" s="1"/>
       <c r="W114" s="1"/>
-      <c r="X114" s="1"/>
+      <c r="X114" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A115" s="1">
@@ -6235,32 +6240,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db">
-      <UserInfo>
-        <DisplayName>研修チーム メンバー</DisplayName>
-        <AccountId>14</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0407f581-f061-4023-8230-a56bb2488a70">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101002B575DD8F27F34448B33AFE63EFD0D8E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="48978d9a722114fd94336a748046495d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0407f581-f061-4023-8230-a56bb2488a70" xmlns:ns3="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0991ac94477647fa7d2a63066c31f3bb" ns2:_="" ns3:_="">
     <xsd:import namespace="0407f581-f061-4023-8230-a56bb2488a70"/>
@@ -6471,10 +6450,47 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db">
+      <UserInfo>
+        <DisplayName>研修チーム メンバー</DisplayName>
+        <AccountId>14</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0407f581-f061-4023-8230-a56bb2488a70">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B27C22-B7FB-4299-9545-CC05027530D6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D46D63A-865A-4ECC-8FB1-D9250E892073}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0407f581-f061-4023-8230-a56bb2488a70"/>
+    <ds:schemaRef ds:uri="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6491,20 +6507,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D46D63A-865A-4ECC-8FB1-D9250E892073}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B27C22-B7FB-4299-9545-CC05027530D6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0407f581-f061-4023-8230-a56bb2488a70"/>
-    <ds:schemaRef ds:uri="2f2d7c7d-fd27-43a5-abf1-ddc7c89786db"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>